--- a/src/CloudFormation/tableData/TableData.xlsx
+++ b/src/CloudFormation/tableData/TableData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpotocar/Developer/Bloomtech/bd-team-project-project-kitty/src/CloudFormation/tableData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C75B68-674D-DB40-AE78-9A518B300109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E891E2-1D7F-E644-A88A-9DD75DB64474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="880" windowWidth="31060" windowHeight="22500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="880" windowWidth="31060" windowHeight="22500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="helper" sheetId="5" r:id="rId1"/>
@@ -38,9 +38,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -51,40 +50,16 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="197">
   <si>
     <t>Status</t>
   </si>
@@ -485,12 +460,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
     <t>Leigh</t>
   </si>
   <si>
@@ -530,9 +499,6 @@
     <t>accounts</t>
   </si>
   <si>
-    <t>accountId</t>
-  </si>
-  <si>
     <t>customerId</t>
   </si>
   <si>
@@ -678,6 +644,12 @@
   </si>
   <si>
     <t>friends</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
   </si>
 </sst>
 </file>
@@ -1250,72 +1222,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <rv s="0">
-    <v>13</v>
-    <v>3</v>
-  </rv>
-  <rv s="1">
-    <v>13</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="propagated" t="b"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1630,18 +1536,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
@@ -1656,7 +1562,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B3" s="5">
         <f ca="1">COUNT(customers!A:A)</f>
@@ -1664,7 +1570,7 @@
       </c>
       <c r="C3" s="5">
         <f ca="1">COUNT(accounts!A:A)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5">
         <f ca="1">COUNT(transactions!H:H)</f>
@@ -1673,7 +1579,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B4" s="5">
         <f ca="1">B2+B3-1</f>
@@ -1681,7 +1587,7 @@
       </c>
       <c r="C4" s="5">
         <f ca="1">C2+C3-1</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5">
         <f ca="1">D2+D3-1</f>
@@ -1690,7 +1596,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B5" s="5" t="str">
         <f>"A" &amp;B2</f>
@@ -1707,7 +1613,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B6" s="5" t="str">
         <f ca="1">"A" &amp;B4</f>
@@ -1715,7 +1621,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f ca="1">"A" &amp;C4</f>
-        <v>A35</v>
+        <v>A34</v>
       </c>
       <c r="D6" s="5" t="str">
         <f ca="1">"A" &amp;D4</f>
@@ -1724,7 +1630,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B7" s="5" t="str">
         <f ca="1">"'" &amp; B1 &amp; "'!" &amp; B5 &amp; ":" &amp; B6</f>
@@ -1732,7 +1638,7 @@
       </c>
       <c r="C7" s="5" t="str">
         <f ca="1">"'" &amp; C1 &amp; "'!" &amp; C5 &amp; ":" &amp; C6</f>
-        <v>'accounts'!A2:A35</v>
+        <v>'accounts'!A2:A34</v>
       </c>
       <c r="D7" s="5" t="str">
         <f ca="1">"'" &amp; D1 &amp; "'!" &amp; D5 &amp; ":" &amp; D6</f>
@@ -1748,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C48076B-0585-1B4F-8315-4669D69A0D79}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1770,29 +1676,29 @@
         <v>132</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <f ca="1">_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^9)</f>
-        <v>180192055</v>
+        <v>471470477</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">"[ " &amp; _xlfn.TEXTJOIN(", ",TRUE, _xlfn._xlws.FILTER(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A2),ABS(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A2)-A2)&lt;300000000)) &amp; " ]"</f>
-        <v>[ 239257177, 279731651, 281175567, 387908472 ]</v>
+        <v>[ 353275695, 761707788, 360432542, 256805475 ]</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">IF(ISNUMBER(A2),
@@ -1801,23 +1707,23 @@
 ", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;
 ", "&amp;CHAR(34)&amp;D$1&amp;CHAR(34)&amp;": "&amp;D2&amp;
 " },", "")</f>
-        <v>{ "id": "180192055", "first_name": "Leigh", "last_name": "Rabier", "friends": [ 239257177, 279731651, 281175567, 387908472 ] },</v>
+        <v>{ "id": "471470477", "firstName": "Leigh", "lastName": "Rabier", "friends": [ 353275695, 761707788, 360432542, 256805475 ] },</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A7" ca="1" si="0">_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^9)</f>
-        <v>239257177</v>
+        <v>353275695</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">"[ " &amp; _xlfn.TEXTJOIN(", ",TRUE, _xlfn._xlws.FILTER(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A3),ABS(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A3)-A3)&lt;300000000)) &amp; " ]"</f>
-        <v>[ 180192055, 279731651, 281175567, 387908472 ]</v>
+        <v>[ 471470477, 360432542, 256805475 ]</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F7" ca="1" si="1">IF(ISNUMBER(A3),
@@ -1826,87 +1732,87 @@
 ", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;
 ", "&amp;CHAR(34)&amp;D$1&amp;CHAR(34)&amp;": "&amp;D3&amp;
 " },", "")</f>
-        <v>{ "id": "239257177", "first_name": "Nydia", "last_name": "Perotti", "friends": [ 180192055, 279731651, 281175567, 387908472 ] },</v>
+        <v>{ "id": "353275695", "firstName": "Nydia", "lastName": "Perotti", "friends": [ 471470477, 360432542, 256805475 ] },</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>279731651</v>
+        <v>941255051</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">"[ " &amp; _xlfn.TEXTJOIN(", ",TRUE, _xlfn._xlws.FILTER(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A4),ABS(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A4)-A4)&lt;300000000)) &amp; " ]"</f>
-        <v>[ 180192055, 239257177, 281175567, 387908472 ]</v>
+        <v>[ 761707788 ]</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{ "id": "279731651", "first_name": "Valentijn", "last_name": "Flintoft", "friends": [ 180192055, 239257177, 281175567, 387908472 ] },</v>
+        <v>{ "id": "941255051", "firstName": "Valentijn", "lastName": "Flintoft", "friends": [ 761707788 ] },</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>281175567</v>
+        <v>761707788</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">"[ " &amp; _xlfn.TEXTJOIN(", ",TRUE, _xlfn._xlws.FILTER(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A5),ABS(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A5)-A5)&lt;300000000)) &amp; " ]"</f>
-        <v>[ 180192055, 239257177, 279731651, 387908472 ]</v>
+        <v>[ 471470477, 941255051 ]</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{ "id": "281175567", "first_name": "Nelle", "last_name": "Corbin", "friends": [ 180192055, 239257177, 279731651, 387908472 ] },</v>
+        <v>{ "id": "761707788", "firstName": "Nelle", "lastName": "Corbin", "friends": [ 471470477, 941255051 ] },</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>387908472</v>
+        <v>360432542</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">"[ " &amp; _xlfn.TEXTJOIN(", ",TRUE, _xlfn._xlws.FILTER(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A6),ABS(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A6)-A6)&lt;300000000)) &amp; " ]"</f>
-        <v>[ 180192055, 239257177, 279731651, 281175567 ]</v>
+        <v>[ 471470477, 353275695, 256805475 ]</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{ "id": "387908472", "first_name": "Xerxes", "last_name": "Shutle", "friends": [ 180192055, 239257177, 279731651, 281175567 ] },</v>
+        <v>{ "id": "360432542", "firstName": "Xerxes", "lastName": "Shutle", "friends": [ 471470477, 353275695, 256805475 ] },</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>754283265</v>
+        <v>256805475</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="6" t="e" cm="1" vm="1">
+        <v>144</v>
+      </c>
+      <c r="D7" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">"[ " &amp; _xlfn.TEXTJOIN(", ",TRUE, _xlfn._xlws.FILTER(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A7),ABS(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A7)-A7)&lt;300000000)) &amp; " ]"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" t="e" vm="2">
+        <v>[ 471470477, 353275695, 360432542 ]</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
+        <v>{ "id": "256805475", "firstName": "Jone", "lastName": "Bartaletti", "friends": [ 471470477, 353275695, 360432542 ] },</v>
       </c>
     </row>
   </sheetData>
@@ -1919,15 +1825,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BA5F67-1DF9-314D-80F4-25B8759B23D3}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -1940,125 +1846,125 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <f ca="1">_xlfn.CEILING.MATH((RAND()*0.9+0.1)*10^12)</f>
-        <v>740429843322</v>
+        <v>400535778457</v>
       </c>
       <c r="B2" s="4" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>387908472</v>
+        <f t="array" aca="1" ref="B2" ca="1">_xlfn.IFS(OR(G2="checking",G2="savings"),127000000001,OR(G2="credit",G2=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">_xlfn.IFS(OR(G2="checking",G2="savings"),127000000001,OR(G2="credit",G2=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C2" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>471470477</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E2" s="4" t="str">
         <f ca="1">D2&amp; " " &amp; G2</f>
-        <v>cohesive savings</v>
+        <v>cohesive checking</v>
       </c>
       <c r="F2" s="5">
         <f ca="1">RAND()</f>
-        <v>0.63670217464553336</v>
+        <v>4.656524363153558E-4</v>
       </c>
       <c r="G2" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">_xlfn.IFS(F2&lt;0.4, "checking", F2&lt;0.7, "savings", F2&lt;1, "external")</f>
-        <v>savings</v>
+        <v>checking</v>
       </c>
       <c r="J2" s="5" t="str">
         <f ca="1">IF(ISNUMBER(A2),
 "{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A2&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B2&amp;
 ", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C2&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B2&amp;
 ", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;
 ", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G2&amp;CHAR(34)&amp;
 IF(G2="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H2,"")&amp;
 " },", "")</f>
-        <v>{ "accountId": 740429843322, "routingNumber": 127000000001, "customerId": 387908472, "nickname": "cohesive savings", "type": "savings" },</v>
+        <v>{ "accountNumber": 400535778457, "routingNumber": 127000000001, "customerId": 471470477, "nickname": "cohesive checking", "type": "checking" },</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A30" ca="1" si="0">_xlfn.CEILING.MATH((RAND()*0.9+0.1)*10^12)</f>
-        <v>580874205377</v>
+        <v>448414866651</v>
       </c>
       <c r="B3" s="4" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>239257177</v>
+        <f t="array" aca="1" ref="B3" ca="1">_xlfn.IFS(OR(G3="checking",G3="savings"),127000000001,OR(G3="credit",G3=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>2920905557</v>
       </c>
       <c r="C3" s="4" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">_xlfn.IFS(OR(G3="checking",G3="savings"),127000000001,OR(G3="credit",G3=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C3" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>256805475</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="shared" ref="E3:E30" ca="1" si="1">D3&amp; " " &amp; G3</f>
-        <v>maximized savings</v>
+        <v>maximized external</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F30" ca="1" si="2">RAND()</f>
-        <v>0.58060591276690476</v>
+        <v>0.8388202123128935</v>
       </c>
       <c r="G3" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_xlfn.IFS(F3&lt;0.4, "checking", F3&lt;0.7, "savings", F3&lt;1, "external")</f>
-        <v>savings</v>
+        <v>external</v>
       </c>
       <c r="J3" s="5" t="str">
-        <f t="shared" ref="J3:J36" ca="1" si="3">IF(ISNUMBER(A3),
+        <f ca="1">IF(ISNUMBER(A3),
 "{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A3&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B3&amp;
 ", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C3&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B3&amp;
 ", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;
 ", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G3&amp;CHAR(34)&amp;
 IF(G3="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H3,"")
 &amp;" },", "")</f>
-        <v>{ "accountId": 580874205377, "routingNumber": 127000000001, "customerId": 239257177, "nickname": "maximized savings", "type": "savings" },</v>
+        <v>{ "accountNumber": 448414866651, "routingNumber": 2920905557, "customerId": 256805475, "nickname": "maximized external", "type": "external" },</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>443154468389</v>
+        <v>451100491187</v>
       </c>
       <c r="B4" s="4" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>279731651</v>
+        <f t="array" aca="1" ref="B4" ca="1">_xlfn.IFS(OR(G4="checking",G4="savings"),127000000001,OR(G4="credit",G4=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>5882321873</v>
       </c>
       <c r="C4" s="4" cm="1">
-        <f t="array" aca="1" ref="C4" ca="1">_xlfn.IFS(OR(G4="checking",G4="savings"),127000000001,OR(G4="credit",G4=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>566376474</v>
+        <f t="array" aca="1" ref="C4" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>360432542</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2066,32 +1972,39 @@
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82322518630303143</v>
+        <v>0.87959855119502861</v>
       </c>
       <c r="G4" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">_xlfn.IFS(F4&lt;0.4, "checking", F4&lt;0.7, "savings", F4&lt;1, "external")</f>
         <v>external</v>
       </c>
       <c r="J4" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 443154468389, "routingNumber": 566376474, "customerId": 279731651, "nickname": "Multi-tiered external", "type": "external" },</v>
+        <f ca="1">IF(ISNUMBER(A4),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A4&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B4&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C4&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E4&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G4&amp;CHAR(34)&amp;
+IF(G4="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H4,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 451100491187, "routingNumber": 5882321873, "customerId": 360432542, "nickname": "Multi-tiered external", "type": "external" },</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>429797997019</v>
+        <v>415908241586</v>
       </c>
       <c r="B5" s="4" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>180192055</v>
+        <f t="array" aca="1" ref="B5" ca="1">_xlfn.IFS(OR(G5="checking",G5="savings"),127000000001,OR(G5="credit",G5=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C5" s="4" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">_xlfn.IFS(OR(G5="checking",G5="savings"),127000000001,OR(G5="credit",G5=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C5" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>941255051</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2099,131 +2012,159 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4952827129369886E-2</v>
+        <v>5.9096658537198254E-2</v>
       </c>
       <c r="G5" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">_xlfn.IFS(F5&lt;0.4, "checking", F5&lt;0.7, "savings", F5&lt;1, "external")</f>
         <v>checking</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 429797997019, "routingNumber": 127000000001, "customerId": 180192055, "nickname": "Balanced checking", "type": "checking" },</v>
+        <f ca="1">IF(ISNUMBER(A5),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A5&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B5&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C5&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E5&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G5&amp;CHAR(34)&amp;
+IF(G5="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H5,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 415908241586, "routingNumber": 127000000001, "customerId": 941255051, "nickname": "Balanced checking", "type": "checking" },</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>949180303947</v>
+        <v>124896572843</v>
       </c>
       <c r="B6" s="4" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>279731651</v>
+        <f t="array" aca="1" ref="B6" ca="1">_xlfn.IFS(OR(G6="checking",G6="savings"),127000000001,OR(G6="credit",G6=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>2859002743</v>
       </c>
       <c r="C6" s="4" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">_xlfn.IFS(OR(G6="checking",G6="savings"),127000000001,OR(G6="credit",G6=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C6" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>761707788</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>help-desk savings</v>
+        <v>help-desk external</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65358568344564794</v>
+        <v>0.89821968229449201</v>
       </c>
       <c r="G6" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">_xlfn.IFS(F6&lt;0.4, "checking", F6&lt;0.7, "savings", F6&lt;1, "external")</f>
-        <v>savings</v>
+        <v>external</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 949180303947, "routingNumber": 127000000001, "customerId": 279731651, "nickname": "help-desk savings", "type": "savings" },</v>
+        <f ca="1">IF(ISNUMBER(A6),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A6&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B6&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C6&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E6&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G6&amp;CHAR(34)&amp;
+IF(G6="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H6,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 124896572843, "routingNumber": 2859002743, "customerId": 761707788, "nickname": "help-desk external", "type": "external" },</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>333038768853</v>
+        <v>796355214780</v>
       </c>
       <c r="B7" s="4" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>180192055</v>
+        <f t="array" aca="1" ref="B7" ca="1">_xlfn.IFS(OR(G7="checking",G7="savings"),127000000001,OR(G7="credit",G7=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>7978219615</v>
       </c>
       <c r="C7" s="4" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">_xlfn.IFS(OR(G7="checking",G7="savings"),127000000001,OR(G7="credit",G7=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C7" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>256805475</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>system engine savings</v>
+        <v>system engine external</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62092554172636727</v>
+        <v>0.96069200212860673</v>
       </c>
       <c r="G7" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">_xlfn.IFS(F7&lt;0.4, "checking", F7&lt;0.7, "savings", F7&lt;1, "external")</f>
-        <v>savings</v>
+        <v>external</v>
       </c>
       <c r="J7" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 333038768853, "routingNumber": 127000000001, "customerId": 180192055, "nickname": "system engine savings", "type": "savings" },</v>
+        <f ca="1">IF(ISNUMBER(A7),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A7&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B7&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C7&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E7&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G7&amp;CHAR(34)&amp;
+IF(G7="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H7,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 796355214780, "routingNumber": 7978219615, "customerId": 256805475, "nickname": "system engine external", "type": "external" },</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>380520842899</v>
+        <v>775440347177</v>
       </c>
       <c r="B8" s="4" cm="1">
-        <f t="array" aca="1" ref="B8" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>239257177</v>
+        <f t="array" aca="1" ref="B8" ca="1">_xlfn.IFS(OR(G8="checking",G8="savings"),127000000001,OR(G8="credit",G8=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C8" s="4" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">_xlfn.IFS(OR(G8="checking",G8="savings"),127000000001,OR(G8="credit",G8=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>7645937199</v>
+        <f t="array" aca="1" ref="C8" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>353275695</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Fully-configurable external</v>
+        <v>Fully-configurable savings</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.926963641551107</v>
+        <v>0.50598367996296423</v>
       </c>
       <c r="G8" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">_xlfn.IFS(F8&lt;0.4, "checking", F8&lt;0.7, "savings", F8&lt;1, "external")</f>
-        <v>external</v>
+        <v>savings</v>
       </c>
       <c r="J8" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 380520842899, "routingNumber": 7645937199, "customerId": 239257177, "nickname": "Fully-configurable external", "type": "external" },</v>
+        <f ca="1">IF(ISNUMBER(A8),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A8&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B8&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C8&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E8&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G8&amp;CHAR(34)&amp;
+IF(G8="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H8,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 775440347177, "routingNumber": 127000000001, "customerId": 353275695, "nickname": "Fully-configurable savings", "type": "savings" },</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>319960975073</v>
+        <v>920756712810</v>
       </c>
       <c r="B9" s="4" cm="1">
-        <f t="array" aca="1" ref="B9" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>754283265</v>
+        <f t="array" aca="1" ref="B9" ca="1">_xlfn.IFS(OR(G9="checking",G9="savings"),127000000001,OR(G9="credit",G9=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C9" s="4" cm="1">
-        <f t="array" aca="1" ref="C9" ca="1">_xlfn.IFS(OR(G9="checking",G9="savings"),127000000001,OR(G9="credit",G9=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C9" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>353275695</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2231,32 +2172,39 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57799887497907332</v>
+        <v>0.54114377206189634</v>
       </c>
       <c r="G9" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">_xlfn.IFS(F9&lt;0.4, "checking", F9&lt;0.7, "savings", F9&lt;1, "external")</f>
         <v>savings</v>
       </c>
       <c r="J9" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 319960975073, "routingNumber": 127000000001, "customerId": 754283265, "nickname": "mobile savings", "type": "savings" },</v>
+        <f ca="1">IF(ISNUMBER(A9),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A9&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B9&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C9&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E9&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G9&amp;CHAR(34)&amp;
+IF(G9="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H9,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 920756712810, "routingNumber": 127000000001, "customerId": 353275695, "nickname": "mobile savings", "type": "savings" },</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>231593545287</v>
+        <v>392343538980</v>
       </c>
       <c r="B10" s="4" cm="1">
-        <f t="array" aca="1" ref="B10" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>239257177</v>
+        <f t="array" aca="1" ref="B10" ca="1">_xlfn.IFS(OR(G10="checking",G10="savings"),127000000001,OR(G10="credit",G10=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C10" s="4" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">_xlfn.IFS(OR(G10="checking",G10="savings"),127000000001,OR(G10="credit",G10=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C10" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>256805475</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2264,32 +2212,39 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24445999189535661</v>
+        <v>8.6931349998562557E-2</v>
       </c>
       <c r="G10" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">_xlfn.IFS(F10&lt;0.4, "checking", F10&lt;0.7, "savings", F10&lt;1, "external")</f>
         <v>checking</v>
       </c>
       <c r="J10" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 231593545287, "routingNumber": 127000000001, "customerId": 239257177, "nickname": "foreground checking", "type": "checking" },</v>
+        <f ca="1">IF(ISNUMBER(A10),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A10&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B10&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C10&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E10&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G10&amp;CHAR(34)&amp;
+IF(G10="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H10,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 392343538980, "routingNumber": 127000000001, "customerId": 256805475, "nickname": "foreground checking", "type": "checking" },</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>813848868789</v>
+        <v>147583745557</v>
       </c>
       <c r="B11" s="4" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>754283265</v>
+        <f t="array" aca="1" ref="B11" ca="1">_xlfn.IFS(OR(G11="checking",G11="savings"),127000000001,OR(G11="credit",G11=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>605432164</v>
       </c>
       <c r="C11" s="4" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">_xlfn.IFS(OR(G11="checking",G11="savings"),127000000001,OR(G11="credit",G11=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>4891009571</v>
+        <f t="array" aca="1" ref="C11" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>360432542</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2297,65 +2252,79 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9332003370392622</v>
+        <v>0.72054404561832031</v>
       </c>
       <c r="G11" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">_xlfn.IFS(F11&lt;0.4, "checking", F11&lt;0.7, "savings", F11&lt;1, "external")</f>
         <v>external</v>
       </c>
       <c r="J11" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 813848868789, "routingNumber": 4891009571, "customerId": 754283265, "nickname": "contingency external", "type": "external" },</v>
+        <f ca="1">IF(ISNUMBER(A11),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A11&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B11&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C11&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E11&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G11&amp;CHAR(34)&amp;
+IF(G11="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H11,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 147583745557, "routingNumber": 605432164, "customerId": 360432542, "nickname": "contingency external", "type": "external" },</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>374971930009</v>
+        <v>602971727973</v>
       </c>
       <c r="B12" s="4" cm="1">
-        <f t="array" aca="1" ref="B12" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>387908472</v>
+        <f t="array" aca="1" ref="B12" ca="1">_xlfn.IFS(OR(G12="checking",G12="savings"),127000000001,OR(G12="credit",G12=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C12" s="4" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">_xlfn.IFS(OR(G12="checking",G12="savings"),127000000001,OR(G12="credit",G12=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>683927158</v>
+        <f t="array" aca="1" ref="C12" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>761707788</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>maximized external</v>
+        <v>maximized checking</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80486111432566276</v>
+        <v>0.16361666284755572</v>
       </c>
       <c r="G12" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">_xlfn.IFS(F12&lt;0.4, "checking", F12&lt;0.7, "savings", F12&lt;1, "external")</f>
-        <v>external</v>
+        <v>checking</v>
       </c>
       <c r="J12" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 374971930009, "routingNumber": 683927158, "customerId": 387908472, "nickname": "maximized external", "type": "external" },</v>
+        <f ca="1">IF(ISNUMBER(A12),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A12&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B12&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C12&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E12&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G12&amp;CHAR(34)&amp;
+IF(G12="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H12,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 602971727973, "routingNumber": 127000000001, "customerId": 761707788, "nickname": "maximized checking", "type": "checking" },</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>702342041804</v>
+        <v>611022312294</v>
       </c>
       <c r="B13" s="4" cm="1">
-        <f t="array" aca="1" ref="B13" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>281175567</v>
+        <f t="array" aca="1" ref="B13" ca="1">_xlfn.IFS(OR(G13="checking",G13="savings"),127000000001,OR(G13="credit",G13=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C13" s="4" cm="1">
-        <f t="array" aca="1" ref="C13" ca="1">_xlfn.IFS(OR(G13="checking",G13="savings"),127000000001,OR(G13="credit",G13=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C13" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>941255051</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2363,32 +2332,39 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54286997971133955</v>
+        <v>0.56429884053847579</v>
       </c>
       <c r="G13" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">_xlfn.IFS(F13&lt;0.4, "checking", F13&lt;0.7, "savings", F13&lt;1, "external")</f>
         <v>savings</v>
       </c>
       <c r="J13" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 702342041804, "routingNumber": 127000000001, "customerId": 281175567, "nickname": "reciprocal savings", "type": "savings" },</v>
+        <f ca="1">IF(ISNUMBER(A13),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A13&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B13&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C13&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E13&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G13&amp;CHAR(34)&amp;
+IF(G13="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H13,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 611022312294, "routingNumber": 127000000001, "customerId": 941255051, "nickname": "reciprocal savings", "type": "savings" },</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>845866412554</v>
+        <v>942613689574</v>
       </c>
       <c r="B14" s="4" cm="1">
-        <f t="array" aca="1" ref="B14" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>180192055</v>
+        <f t="array" aca="1" ref="B14" ca="1">_xlfn.IFS(OR(G14="checking",G14="savings"),127000000001,OR(G14="credit",G14=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C14" s="4" cm="1">
-        <f t="array" aca="1" ref="C14" ca="1">_xlfn.IFS(OR(G14="checking",G14="savings"),127000000001,OR(G14="credit",G14=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C14" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>471470477</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2396,164 +2372,199 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44096830412308619</v>
+        <v>0.49065185462975069</v>
       </c>
       <c r="G14" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">_xlfn.IFS(F14&lt;0.4, "checking", F14&lt;0.7, "savings", F14&lt;1, "external")</f>
         <v>savings</v>
       </c>
       <c r="J14" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 845866412554, "routingNumber": 127000000001, "customerId": 180192055, "nickname": "bifurcated savings", "type": "savings" },</v>
+        <f ca="1">IF(ISNUMBER(A14),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A14&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B14&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C14&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E14&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G14&amp;CHAR(34)&amp;
+IF(G14="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H14,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 942613689574, "routingNumber": 127000000001, "customerId": 471470477, "nickname": "bifurcated savings", "type": "savings" },</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>912382282929</v>
+        <v>841242350153</v>
       </c>
       <c r="B15" s="4" cm="1">
-        <f t="array" aca="1" ref="B15" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>754283265</v>
+        <f t="array" aca="1" ref="B15" ca="1">_xlfn.IFS(OR(G15="checking",G15="savings"),127000000001,OR(G15="credit",G15=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C15" s="4" cm="1">
-        <f t="array" aca="1" ref="C15" ca="1">_xlfn.IFS(OR(G15="checking",G15="savings"),127000000001,OR(G15="credit",G15=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C15" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>353275695</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>synergy checking</v>
+        <v>synergy savings</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3317076465323261E-2</v>
+        <v>0.65469908489421647</v>
       </c>
       <c r="G15" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">_xlfn.IFS(F15&lt;0.4, "checking", F15&lt;0.7, "savings", F15&lt;1, "external")</f>
-        <v>checking</v>
+        <v>savings</v>
       </c>
       <c r="J15" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 912382282929, "routingNumber": 127000000001, "customerId": 754283265, "nickname": "synergy checking", "type": "checking" },</v>
+        <f ca="1">IF(ISNUMBER(A15),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A15&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B15&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C15&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E15&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G15&amp;CHAR(34)&amp;
+IF(G15="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H15,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 841242350153, "routingNumber": 127000000001, "customerId": 353275695, "nickname": "synergy savings", "type": "savings" },</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>506647536492</v>
+        <v>317595283947</v>
       </c>
       <c r="B16" s="4" cm="1">
-        <f t="array" aca="1" ref="B16" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>754283265</v>
+        <f t="array" aca="1" ref="B16" ca="1">_xlfn.IFS(OR(G16="checking",G16="savings"),127000000001,OR(G16="credit",G16=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C16" s="4" cm="1">
-        <f t="array" aca="1" ref="C16" ca="1">_xlfn.IFS(OR(G16="checking",G16="savings"),127000000001,OR(G16="credit",G16=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C16" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>471470477</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>migration checking</v>
+        <v>migration savings</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38155403000175192</v>
+        <v>0.59444535157301248</v>
       </c>
       <c r="G16" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">_xlfn.IFS(F16&lt;0.4, "checking", F16&lt;0.7, "savings", F16&lt;1, "external")</f>
-        <v>checking</v>
+        <v>savings</v>
       </c>
       <c r="J16" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 506647536492, "routingNumber": 127000000001, "customerId": 754283265, "nickname": "migration checking", "type": "checking" },</v>
+        <f ca="1">IF(ISNUMBER(A16),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A16&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B16&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C16&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E16&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G16&amp;CHAR(34)&amp;
+IF(G16="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H16,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 317595283947, "routingNumber": 127000000001, "customerId": 471470477, "nickname": "migration savings", "type": "savings" },</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>694349861422</v>
+        <v>463566446195</v>
       </c>
       <c r="B17" s="4" cm="1">
-        <f t="array" aca="1" ref="B17" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>281175567</v>
+        <f t="array" aca="1" ref="B17" ca="1">_xlfn.IFS(OR(G17="checking",G17="savings"),127000000001,OR(G17="credit",G17=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>229816752</v>
       </c>
       <c r="C17" s="4" cm="1">
-        <f t="array" aca="1" ref="C17" ca="1">_xlfn.IFS(OR(G17="checking",G17="savings"),127000000001,OR(G17="credit",G17=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C17" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>761707788</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>analyzing checking</v>
+        <v>analyzing external</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4965928943657167E-2</v>
+        <v>0.98910547859617837</v>
       </c>
       <c r="G17" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">_xlfn.IFS(F17&lt;0.4, "checking", F17&lt;0.7, "savings", F17&lt;1, "external")</f>
-        <v>checking</v>
+        <v>external</v>
       </c>
       <c r="J17" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 694349861422, "routingNumber": 127000000001, "customerId": 281175567, "nickname": "analyzing checking", "type": "checking" },</v>
+        <f ca="1">IF(ISNUMBER(A17),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A17&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B17&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C17&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E17&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G17&amp;CHAR(34)&amp;
+IF(G17="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H17,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 463566446195, "routingNumber": 229816752, "customerId": 761707788, "nickname": "analyzing external", "type": "external" },</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>816402439754</v>
+        <v>697694136927</v>
       </c>
       <c r="B18" s="4" cm="1">
-        <f t="array" aca="1" ref="B18" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>754283265</v>
+        <f t="array" aca="1" ref="B18" ca="1">_xlfn.IFS(OR(G18="checking",G18="savings"),127000000001,OR(G18="credit",G18=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C18" s="4" cm="1">
-        <f t="array" aca="1" ref="C18" ca="1">_xlfn.IFS(OR(G18="checking",G18="savings"),127000000001,OR(G18="credit",G18=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>5207635525</v>
+        <f t="array" aca="1" ref="C18" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>941255051</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Robust external</v>
+        <v>Robust savings</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95667605822457336</v>
+        <v>0.44771074705567049</v>
       </c>
       <c r="G18" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">_xlfn.IFS(F18&lt;0.4, "checking", F18&lt;0.7, "savings", F18&lt;1, "external")</f>
-        <v>external</v>
+        <v>savings</v>
       </c>
       <c r="J18" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 816402439754, "routingNumber": 5207635525, "customerId": 754283265, "nickname": "Robust external", "type": "external" },</v>
+        <f ca="1">IF(ISNUMBER(A18),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A18&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B18&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C18&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E18&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G18&amp;CHAR(34)&amp;
+IF(G18="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H18,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 697694136927, "routingNumber": 127000000001, "customerId": 941255051, "nickname": "Robust savings", "type": "savings" },</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>681157426689</v>
+        <v>917325385866</v>
       </c>
       <c r="B19" s="4" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>281175567</v>
+        <f t="array" aca="1" ref="B19" ca="1">_xlfn.IFS(OR(G19="checking",G19="savings"),127000000001,OR(G19="credit",G19=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C19" s="4" cm="1">
-        <f t="array" aca="1" ref="C19" ca="1">_xlfn.IFS(OR(G19="checking",G19="savings"),127000000001,OR(G19="credit",G19=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C19" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>471470477</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2561,98 +2572,119 @@
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36470762768027076</v>
+        <v>0.27841287607119602</v>
       </c>
       <c r="G19" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">_xlfn.IFS(F19&lt;0.4, "checking", F19&lt;0.7, "savings", F19&lt;1, "external")</f>
         <v>checking</v>
       </c>
       <c r="J19" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 681157426689, "routingNumber": 127000000001, "customerId": 281175567, "nickname": "encoding checking", "type": "checking" },</v>
+        <f ca="1">IF(ISNUMBER(A19),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A19&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B19&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C19&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E19&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G19&amp;CHAR(34)&amp;
+IF(G19="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H19,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 917325385866, "routingNumber": 127000000001, "customerId": 471470477, "nickname": "encoding checking", "type": "checking" },</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>659761461638</v>
+        <v>201485841067</v>
       </c>
       <c r="B20" s="4" cm="1">
-        <f t="array" aca="1" ref="B20" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>387908472</v>
+        <f t="array" aca="1" ref="B20" ca="1">_xlfn.IFS(OR(G20="checking",G20="savings"),127000000001,OR(G20="credit",G20=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>2373465851</v>
       </c>
       <c r="C20" s="4" cm="1">
-        <f t="array" aca="1" ref="C20" ca="1">_xlfn.IFS(OR(G20="checking",G20="savings"),127000000001,OR(G20="credit",G20=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C20" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>360432542</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Versatile savings</v>
+        <v>Versatile external</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65706029971899482</v>
+        <v>0.75354763872987973</v>
       </c>
       <c r="G20" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">_xlfn.IFS(F20&lt;0.4, "checking", F20&lt;0.7, "savings", F20&lt;1, "external")</f>
-        <v>savings</v>
+        <v>external</v>
       </c>
       <c r="J20" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 659761461638, "routingNumber": 127000000001, "customerId": 387908472, "nickname": "Versatile savings", "type": "savings" },</v>
+        <f ca="1">IF(ISNUMBER(A20),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A20&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B20&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C20&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E20&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G20&amp;CHAR(34)&amp;
+IF(G20="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H20,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 201485841067, "routingNumber": 2373465851, "customerId": 360432542, "nickname": "Versatile external", "type": "external" },</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>111079255746</v>
+        <v>983493971351</v>
       </c>
       <c r="B21" s="4" cm="1">
-        <f t="array" aca="1" ref="B21" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>279731651</v>
+        <f t="array" aca="1" ref="B21" ca="1">_xlfn.IFS(OR(G21="checking",G21="savings"),127000000001,OR(G21="credit",G21=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>8076089332</v>
       </c>
       <c r="C21" s="4" cm="1">
-        <f t="array" aca="1" ref="C21" ca="1">_xlfn.IFS(OR(G21="checking",G21="savings"),127000000001,OR(G21="credit",G21=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C21" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>353275695</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4th generation checking</v>
+        <v>4th generation external</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15604710604927741</v>
+        <v>0.94104123530480299</v>
       </c>
       <c r="G21" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">_xlfn.IFS(F21&lt;0.4, "checking", F21&lt;0.7, "savings", F21&lt;1, "external")</f>
-        <v>checking</v>
+        <v>external</v>
       </c>
       <c r="J21" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 111079255746, "routingNumber": 127000000001, "customerId": 279731651, "nickname": "4th generation checking", "type": "checking" },</v>
+        <f ca="1">IF(ISNUMBER(A21),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A21&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B21&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C21&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E21&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G21&amp;CHAR(34)&amp;
+IF(G21="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H21,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 983493971351, "routingNumber": 8076089332, "customerId": 353275695, "nickname": "4th generation external", "type": "external" },</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>493785208084</v>
+        <v>639474417673</v>
       </c>
       <c r="B22" s="4" cm="1">
-        <f t="array" aca="1" ref="B22" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>387908472</v>
+        <f t="array" aca="1" ref="B22" ca="1">_xlfn.IFS(OR(G22="checking",G22="savings"),127000000001,OR(G22="credit",G22=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C22" s="4" cm="1">
-        <f t="array" aca="1" ref="C22" ca="1">_xlfn.IFS(OR(G22="checking",G22="savings"),127000000001,OR(G22="credit",G22=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C22" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>256805475</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2660,32 +2692,39 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5266255965879751E-2</v>
+        <v>1.2765068525538159E-2</v>
       </c>
       <c r="G22" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">_xlfn.IFS(F22&lt;0.4, "checking", F22&lt;0.7, "savings", F22&lt;1, "external")</f>
         <v>checking</v>
       </c>
       <c r="J22" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 493785208084, "routingNumber": 127000000001, "customerId": 387908472, "nickname": "archive checking", "type": "checking" },</v>
+        <f ca="1">IF(ISNUMBER(A22),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A22&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B22&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C22&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E22&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G22&amp;CHAR(34)&amp;
+IF(G22="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H22,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 639474417673, "routingNumber": 127000000001, "customerId": 256805475, "nickname": "archive checking", "type": "checking" },</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>349083181548</v>
+        <v>880440266700</v>
       </c>
       <c r="B23" s="4" cm="1">
-        <f t="array" aca="1" ref="B23" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>239257177</v>
+        <f t="array" aca="1" ref="B23" ca="1">_xlfn.IFS(OR(G23="checking",G23="savings"),127000000001,OR(G23="credit",G23=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>7611046406</v>
       </c>
       <c r="C23" s="4" cm="1">
-        <f t="array" aca="1" ref="C23" ca="1">_xlfn.IFS(OR(G23="checking",G23="savings"),127000000001,OR(G23="credit",G23=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>6376632999</v>
+        <f t="array" aca="1" ref="C23" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>353275695</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2693,65 +2732,79 @@
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78737444956350444</v>
+        <v>0.98521892570440395</v>
       </c>
       <c r="G23" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">_xlfn.IFS(F23&lt;0.4, "checking", F23&lt;0.7, "savings", F23&lt;1, "external")</f>
         <v>external</v>
       </c>
       <c r="J23" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 349083181548, "routingNumber": 6376632999, "customerId": 239257177, "nickname": "Balanced external", "type": "external" },</v>
+        <f ca="1">IF(ISNUMBER(A23),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A23&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B23&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C23&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E23&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G23&amp;CHAR(34)&amp;
+IF(G23="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H23,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 880440266700, "routingNumber": 7611046406, "customerId": 353275695, "nickname": "Balanced external", "type": "external" },</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>526672870074</v>
+        <v>199201767490</v>
       </c>
       <c r="B24" s="4" cm="1">
-        <f t="array" aca="1" ref="B24" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>281175567</v>
+        <f t="array" aca="1" ref="B24" ca="1">_xlfn.IFS(OR(G24="checking",G24="savings"),127000000001,OR(G24="credit",G24=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C24" s="4" cm="1">
-        <f t="array" aca="1" ref="C24" ca="1">_xlfn.IFS(OR(G24="checking",G24="savings"),127000000001,OR(G24="credit",G24=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>6332365523</v>
+        <f t="array" aca="1" ref="C24" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>353275695</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Focused external</v>
+        <v>Focused savings</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99965804598777652</v>
+        <v>0.57012471370639395</v>
       </c>
       <c r="G24" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">_xlfn.IFS(F24&lt;0.4, "checking", F24&lt;0.7, "savings", F24&lt;1, "external")</f>
-        <v>external</v>
+        <v>savings</v>
       </c>
       <c r="J24" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 526672870074, "routingNumber": 6332365523, "customerId": 281175567, "nickname": "Focused external", "type": "external" },</v>
+        <f ca="1">IF(ISNUMBER(A24),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A24&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B24&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C24&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E24&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G24&amp;CHAR(34)&amp;
+IF(G24="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H24,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 199201767490, "routingNumber": 127000000001, "customerId": 353275695, "nickname": "Focused savings", "type": "savings" },</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>455902826381</v>
+        <v>891594573965</v>
       </c>
       <c r="B25" s="4" cm="1">
-        <f t="array" aca="1" ref="B25" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>754283265</v>
+        <f t="array" aca="1" ref="B25" ca="1">_xlfn.IFS(OR(G25="checking",G25="savings"),127000000001,OR(G25="credit",G25=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>1283471061</v>
       </c>
       <c r="C25" s="4" cm="1">
-        <f t="array" aca="1" ref="C25" ca="1">_xlfn.IFS(OR(G25="checking",G25="savings"),127000000001,OR(G25="credit",G25=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>7895599014</v>
+        <f t="array" aca="1" ref="C25" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>256805475</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2759,32 +2812,39 @@
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92496939303535863</v>
+        <v>0.78260689277376627</v>
       </c>
       <c r="G25" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">_xlfn.IFS(F25&lt;0.4, "checking", F25&lt;0.7, "savings", F25&lt;1, "external")</f>
         <v>external</v>
       </c>
       <c r="J25" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 455902826381, "routingNumber": 7895599014, "customerId": 754283265, "nickname": "system-worthy external", "type": "external" },</v>
+        <f ca="1">IF(ISNUMBER(A25),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A25&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B25&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C25&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E25&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G25&amp;CHAR(34)&amp;
+IF(G25="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H25,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 891594573965, "routingNumber": 1283471061, "customerId": 256805475, "nickname": "system-worthy external", "type": "external" },</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>932085600435</v>
+        <v>341796193771</v>
       </c>
       <c r="B26" s="4" cm="1">
-        <f t="array" aca="1" ref="B26" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>281175567</v>
+        <f t="array" aca="1" ref="B26" ca="1">_xlfn.IFS(OR(G26="checking",G26="savings"),127000000001,OR(G26="credit",G26=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C26" s="4" cm="1">
-        <f t="array" aca="1" ref="C26" ca="1">_xlfn.IFS(OR(G26="checking",G26="savings"),127000000001,OR(G26="credit",G26=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C26" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>353275695</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2792,131 +2852,159 @@
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60884164038363309</v>
+        <v>0.42520639348635714</v>
       </c>
       <c r="G26" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">_xlfn.IFS(F26&lt;0.4, "checking", F26&lt;0.7, "savings", F26&lt;1, "external")</f>
         <v>savings</v>
       </c>
       <c r="J26" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 932085600435, "routingNumber": 127000000001, "customerId": 281175567, "nickname": "24/7 savings", "type": "savings" },</v>
+        <f ca="1">IF(ISNUMBER(A26),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A26&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B26&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C26&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E26&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G26&amp;CHAR(34)&amp;
+IF(G26="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H26,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 341796193771, "routingNumber": 127000000001, "customerId": 353275695, "nickname": "24/7 savings", "type": "savings" },</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>878290245627</v>
+        <v>239639548370</v>
       </c>
       <c r="B27" s="4" cm="1">
-        <f t="array" aca="1" ref="B27" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>387908472</v>
+        <f t="array" aca="1" ref="B27" ca="1">_xlfn.IFS(OR(G27="checking",G27="savings"),127000000001,OR(G27="credit",G27=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>4654744048</v>
       </c>
       <c r="C27" s="4" cm="1">
-        <f t="array" aca="1" ref="C27" ca="1">_xlfn.IFS(OR(G27="checking",G27="savings"),127000000001,OR(G27="credit",G27=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C27" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>761707788</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Re-contextualized checking</v>
+        <v>Re-contextualized external</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25373613996141542</v>
+        <v>0.87906642585102757</v>
       </c>
       <c r="G27" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">_xlfn.IFS(F27&lt;0.4, "checking", F27&lt;0.7, "savings", F27&lt;1, "external")</f>
-        <v>checking</v>
+        <v>external</v>
       </c>
       <c r="J27" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 878290245627, "routingNumber": 127000000001, "customerId": 387908472, "nickname": "Re-contextualized checking", "type": "checking" },</v>
+        <f ca="1">IF(ISNUMBER(A27),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A27&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B27&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C27&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E27&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G27&amp;CHAR(34)&amp;
+IF(G27="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H27,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 239639548370, "routingNumber": 4654744048, "customerId": 761707788, "nickname": "Re-contextualized external", "type": "external" },</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>918003817933</v>
+        <v>738295537013</v>
       </c>
       <c r="B28" s="4" cm="1">
-        <f t="array" aca="1" ref="B28" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>239257177</v>
+        <f t="array" aca="1" ref="B28" ca="1">_xlfn.IFS(OR(G28="checking",G28="savings"),127000000001,OR(G28="credit",G28=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>127000000001</v>
       </c>
       <c r="C28" s="4" cm="1">
-        <f t="array" aca="1" ref="C28" ca="1">_xlfn.IFS(OR(G28="checking",G28="savings"),127000000001,OR(G28="credit",G28=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C28" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>471470477</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>intangible checking</v>
+        <v>intangible savings</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18159331682119084</v>
+        <v>0.62942524590481752</v>
       </c>
       <c r="G28" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">_xlfn.IFS(F28&lt;0.4, "checking", F28&lt;0.7, "savings", F28&lt;1, "external")</f>
-        <v>checking</v>
+        <v>savings</v>
       </c>
       <c r="J28" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 918003817933, "routingNumber": 127000000001, "customerId": 239257177, "nickname": "intangible checking", "type": "checking" },</v>
+        <f ca="1">IF(ISNUMBER(A28),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A28&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B28&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C28&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E28&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G28&amp;CHAR(34)&amp;
+IF(G28="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H28,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 738295537013, "routingNumber": 127000000001, "customerId": 471470477, "nickname": "intangible savings", "type": "savings" },</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>501013603819</v>
+        <v>345064774916</v>
       </c>
       <c r="B29" s="4" cm="1">
-        <f t="array" aca="1" ref="B29" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>281175567</v>
+        <f t="array" aca="1" ref="B29" ca="1">_xlfn.IFS(OR(G29="checking",G29="savings"),127000000001,OR(G29="credit",G29=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>6327683836</v>
       </c>
       <c r="C29" s="4" cm="1">
-        <f t="array" aca="1" ref="C29" ca="1">_xlfn.IFS(OR(G29="checking",G29="savings"),127000000001,OR(G29="credit",G29=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <f t="array" aca="1" ref="C29" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>256805475</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>tangible checking</v>
+        <v>tangible external</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11024126029340342</v>
+        <v>0.7344175704270286</v>
       </c>
       <c r="G29" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">_xlfn.IFS(F29&lt;0.4, "checking", F29&lt;0.7, "savings", F29&lt;1, "external")</f>
-        <v>checking</v>
+        <v>external</v>
       </c>
       <c r="J29" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 501013603819, "routingNumber": 127000000001, "customerId": 281175567, "nickname": "tangible checking", "type": "checking" },</v>
+        <f ca="1">IF(ISNUMBER(A29),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A29&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B29&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C29&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E29&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G29&amp;CHAR(34)&amp;
+IF(G29="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H29,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 345064774916, "routingNumber": 6327683836, "customerId": 256805475, "nickname": "tangible external", "type": "external" },</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>908799996285</v>
+        <v>905851799456</v>
       </c>
       <c r="B30" s="7" cm="1">
-        <f t="array" aca="1" ref="B30" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>754283265</v>
+        <f t="array" aca="1" ref="B30" ca="1">_xlfn.IFS(OR(G30="checking",G30="savings"),127000000001,OR(G30="credit",G30=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>8562654888</v>
       </c>
       <c r="C30" s="7" cm="1">
-        <f t="array" aca="1" ref="C30" ca="1">_xlfn.IFS(OR(G30="checking",G30="savings"),127000000001,OR(G30="credit",G30=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>8765959639</v>
+        <f t="array" aca="1" ref="C30" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
+        <v>761707788</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E30" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2924,65 +3012,79 @@
       </c>
       <c r="F30" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78766723482316658</v>
+        <v>0.98197188690773407</v>
       </c>
       <c r="G30" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">_xlfn.IFS(F30&lt;0.4, "checking", F30&lt;0.7, "savings", F30&lt;1, "external")</f>
         <v>external</v>
       </c>
       <c r="J30" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 908799996285, "routingNumber": 8765959639, "customerId": 754283265, "nickname": "Ameliorated external", "type": "external" },</v>
+        <f ca="1">IF(ISNUMBER(A30),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A30&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B30&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C30&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E30&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G30&amp;CHAR(34)&amp;
+IF(G30="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H30,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 905851799456, "routingNumber": 8562654888, "customerId": 761707788, "nickname": "Ameliorated external", "type": "external" },</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <f t="shared" ref="A31:A36" ca="1" si="4">IF(ISNUMBER(B31),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
-        <v>5747011025075570</v>
+        <f ca="1">IF(ISNUMBER(C31),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
+        <v>3751589599326980</v>
       </c>
       <c r="B31" s="4" cm="1">
-        <f t="array" aca="1" ref="B31:B36" ca="1">_xlfn._xlws.SORT(IF(MOD(_xlfn._xlws.FILTER(customers!A:A,ISNUMBER(customers!A:A)),2) =1,_xlfn._xlws.FILTER(customers!A:A,ISNUMBER(customers!A:A)),"" ))</f>
-        <v>180192055</v>
+        <f t="array" aca="1" ref="B31" ca="1">_xlfn.IFS(OR(G31="checking",G31="savings"),127000000001,OR(G31="credit",G31=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>0</v>
       </c>
       <c r="C31" s="4" cm="1">
-        <f t="array" aca="1" ref="C31" ca="1">_xlfn.IFS(OR(G31="checking",G31="savings"),127000000001,OR(G31="credit",G31=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>0</v>
+        <f t="array" aca="1" ref="C31:C36" ca="1">_xlfn._xlws.SORT(IF(MOD(_xlfn._xlws.FILTER(customers!A:A,ISNUMBER(customers!A:A)),2) =1,_xlfn._xlws.FILTER(customers!A:A,ISNUMBER(customers!A:A)),"" ))</f>
+        <v>256805475</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E31" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="E31:E36" ca="1">IF(ISNUMBER(B31:B36), D31:D36&amp; " " &amp; G31:G36, "")</f>
+        <f t="array" aca="1" ref="E31:E36" ca="1">IF(ISNUMBER(C31:C36), D31:D36&amp; " " &amp; G31:G36, "")</f>
         <v>task-force credit</v>
       </c>
       <c r="G31" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G31:G36" ca="1">IF(ISNUMBER(B31:B36),"credit", "")</f>
+        <f t="array" aca="1" ref="G31:G36" ca="1">IF(ISNUMBER(C31:C36),"credit", "")</f>
         <v>credit</v>
       </c>
       <c r="H31" s="5" cm="1">
-        <f t="array" aca="1" ref="H31:H36" ca="1">IF(ISNUMBER(B31:B36),_xlfn.CEILING.MATH(MOD(B31:B36,3500), 500), "")</f>
-        <v>2000</v>
+        <f t="array" aca="1" ref="H31:H36" ca="1">IF(ISNUMBER(C31:C36),_xlfn.CEILING.MATH(MOD(C31:C36,3500), 500), "")</f>
+        <v>3500</v>
       </c>
       <c r="J31" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 5747011025075570, "routingNumber": 0, "customerId": 180192055, "nickname": "task-force credit", "type": "credit", "creditLimit": 2000 },</v>
+        <f ca="1">IF(ISNUMBER(A31),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A31&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B31&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C31&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E31&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G31&amp;CHAR(34)&amp;
+IF(G31="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H31,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 3751589599326980, "routingNumber": 0, "customerId": 256805475, "nickname": "task-force credit", "type": "credit", "creditLimit": 3500 },</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>5759197398046990</v>
-      </c>
-      <c r="B32" s="4">
+        <f ca="1">IF(ISNUMBER(C32),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
+        <v>9341099753883370</v>
+      </c>
+      <c r="B32" s="4" cm="1">
+        <f t="array" aca="1" ref="B32" ca="1">_xlfn.IFS(OR(G32="checking",G32="savings"),127000000001,OR(G32="credit",G32=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
         <f ca="1"/>
-        <v>239257177</v>
-      </c>
-      <c r="C32" s="4" cm="1">
-        <f t="array" aca="1" ref="C32" ca="1">_xlfn.IFS(OR(G32="checking",G32="savings"),127000000001,OR(G32="credit",G32=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>0</v>
+        <v>353275695</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E32" s="4" t="str">
         <f ca="1"/>
@@ -2994,28 +3096,35 @@
       </c>
       <c r="H32" s="5">
         <f ca="1"/>
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="J32" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 5759197398046990, "routingNumber": 0, "customerId": 239257177, "nickname": "Profound credit", "type": "credit", "creditLimit": 1000 },</v>
+        <f ca="1">IF(ISNUMBER(A32),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A32&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B32&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C32&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E32&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G32&amp;CHAR(34)&amp;
+IF(G32="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H32,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 9341099753883370, "routingNumber": 0, "customerId": 353275695, "nickname": "Profound credit", "type": "credit", "creditLimit": 3500 },</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>4602529412478380</v>
-      </c>
-      <c r="B33" s="4">
+        <f ca="1">IF(ISNUMBER(C33),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
+        <v>6825686927341160</v>
+      </c>
+      <c r="B33" s="4" cm="1">
+        <f t="array" aca="1" ref="B33" ca="1">_xlfn.IFS(OR(G33="checking",G33="savings"),127000000001,OR(G33="credit",G33=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
         <f ca="1"/>
-        <v>279731651</v>
-      </c>
-      <c r="C33" s="4" cm="1">
-        <f t="array" aca="1" ref="C33" ca="1">_xlfn.IFS(OR(G33="checking",G33="savings"),127000000001,OR(G33="credit",G33=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>0</v>
+        <v>471470477</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E33" s="4" t="str">
         <f ca="1"/>
@@ -3027,28 +3136,35 @@
       </c>
       <c r="H33" s="5">
         <f ca="1"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J33" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 4602529412478380, "routingNumber": 0, "customerId": 279731651, "nickname": "data-warehouse credit", "type": "credit", "creditLimit": 1500 },</v>
+        <f ca="1">IF(ISNUMBER(A33),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A33&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B33&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C33&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E33&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G33&amp;CHAR(34)&amp;
+IF(G33="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H33,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 6825686927341160, "routingNumber": 0, "customerId": 471470477, "nickname": "data-warehouse credit", "type": "credit", "creditLimit": 3000 },</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>7266005428392410</v>
-      </c>
-      <c r="B34" s="4">
+        <f ca="1">IF(ISNUMBER(C34),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
+        <v>9960815475030200</v>
+      </c>
+      <c r="B34" s="4" cm="1">
+        <f t="array" aca="1" ref="B34" ca="1">_xlfn.IFS(OR(G34="checking",G34="savings"),127000000001,OR(G34="credit",G34=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
         <f ca="1"/>
-        <v>281175567</v>
-      </c>
-      <c r="C34" s="4" cm="1">
-        <f t="array" aca="1" ref="C34" ca="1">_xlfn.IFS(OR(G34="checking",G34="savings"),127000000001,OR(G34="credit",G34=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>0</v>
+        <v>941255051</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E34" s="4" t="str">
         <f ca="1"/>
@@ -3060,61 +3176,75 @@
       </c>
       <c r="H34" s="5">
         <f ca="1"/>
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="J34" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 7266005428392410, "routingNumber": 0, "customerId": 281175567, "nickname": "Innovative credit", "type": "credit", "creditLimit": 3500 },</v>
+        <f ca="1">IF(ISNUMBER(A34),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A34&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B34&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C34&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E34&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G34&amp;CHAR(34)&amp;
+IF(G34="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H34,"")
+&amp;" },", "")</f>
+        <v>{ "accountNumber": 9960815475030200, "routingNumber": 0, "customerId": 941255051, "nickname": "Innovative credit", "type": "credit", "creditLimit": 500 },</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>2135029359261110</v>
-      </c>
-      <c r="B35" s="4">
+      <c r="A35" s="4" t="str">
+        <f ca="1">IF(ISNUMBER(C35),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
+        <v/>
+      </c>
+      <c r="B35" s="4" cm="1">
+        <f t="array" aca="1" ref="B35" ca="1">_xlfn.IFS(OR(G35="checking",G35="savings"),127000000001,OR(G35="credit",G35=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="4" t="str">
         <f ca="1"/>
-        <v>754283265</v>
-      </c>
-      <c r="C35" s="4" cm="1">
-        <f t="array" aca="1" ref="C35" ca="1">_xlfn.IFS(OR(G35="checking",G35="savings"),127000000001,OR(G35="credit",G35=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D35" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E35" s="4" t="str">
         <f ca="1"/>
-        <v>transitional credit</v>
+        <v/>
       </c>
       <c r="G35" s="5" t="str">
         <f ca="1"/>
-        <v>credit</v>
-      </c>
-      <c r="H35" s="5">
+        <v/>
+      </c>
+      <c r="H35" s="5" t="str">
         <f ca="1"/>
-        <v>2000</v>
+        <v/>
       </c>
       <c r="J35" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{ "accountId": 2135029359261110, "routingNumber": 0, "customerId": 754283265, "nickname": "transitional credit", "type": "credit", "creditLimit": 2000 },</v>
+        <f ca="1">IF(ISNUMBER(A35),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A35&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B35&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C35&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E35&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G35&amp;CHAR(34)&amp;
+IF(G35="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H35,"")
+&amp;" },", "")</f>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISNUMBER(C36),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
         <v/>
       </c>
-      <c r="B36" s="4" t="str">
+      <c r="B36" s="4" cm="1">
+        <f t="array" aca="1" ref="B36" ca="1">_xlfn.IFS(OR(G36="checking",G36="savings"),127000000001,OR(G36="credit",G36=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="4" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="C36" s="4" cm="1">
-        <f t="array" aca="1" ref="C36" ca="1">_xlfn.IFS(OR(G36="checking",G36="savings"),127000000001,OR(G36="credit",G36=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>0</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E36" s="4" t="str">
         <f ca="1"/>
@@ -3129,7 +3259,14 @@
         <v/>
       </c>
       <c r="J36" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISNUMBER(A36),
+"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A36&amp;
+", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B36&amp;
+", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C36&amp;
+", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E36&amp;CHAR(34)&amp;
+", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G36&amp;CHAR(34)&amp;
+IF(G36="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H36,"")
+&amp;" },", "")</f>
         <v/>
       </c>
     </row>
@@ -3143,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3210,11 +3347,11 @@
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>455902826381</v>
+        <v>796355214780</v>
       </c>
       <c r="H2">
         <f ca="1">_xlfn.FLOOR.MATH((B2-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1641049121</v>
+        <v>1641061133</v>
       </c>
       <c r="I2">
         <f>_xlfn.FLOOR.MATH((B2-DATE(1970,1,1)+1)*86400)</f>
@@ -3230,7 +3367,7 @@
       </c>
       <c r="L2" t="str">
         <f ca="1">"{ "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G2&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H2&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I2&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J2&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K2&amp;CHAR(34) &amp;" },"</f>
-        <v>{ "accountNumber": 455902826381, "submittedDateTime": 1641049121, "completedDateTime": 1641081600, "amount": 59.99, "memo": "Microsoft Redmond WA null XXXXXXXXXXXX6681" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1641061133, "completedDateTime": 1641081600, "amount": 59.99, "memo": "Microsoft Redmond WA null XXXXXXXXXXXX6681" },</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3248,11 +3385,11 @@
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>380520842899</v>
+        <v>796355214780</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="0">_xlfn.FLOOR.MATH((B3-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1641094548</v>
+        <v>1641081818</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="1">_xlfn.FLOOR.MATH((B3-DATE(1970,1,1)+1)*86400)</f>
@@ -3268,7 +3405,7 @@
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L66" ca="1" si="4">"{ "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G3&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H3&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I3&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J3&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K3&amp;CHAR(34) &amp;" },"</f>
-        <v>{ "accountNumber": 380520842899, "submittedDateTime": 1641094548, "completedDateTime": 1641168000, "amount": 13.88, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1641081818, "completedDateTime": 1641168000, "amount": 13.88, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3286,11 +3423,11 @@
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>740429843322</v>
+        <v>775440347177</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>1641130373</v>
+        <v>1641083755</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
@@ -3306,7 +3443,7 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 740429843322, "submittedDateTime": 1641130373, "completedDateTime": 1641168000, "amount": 20.38, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 775440347177, "submittedDateTime": 1641083755, "completedDateTime": 1641168000, "amount": 20.38, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3324,11 +3461,11 @@
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>349083181548</v>
+        <v>9341099753883370</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>1641307634</v>
+        <v>1641299414</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -3344,7 +3481,7 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 349083181548, "submittedDateTime": 1641307634, "completedDateTime": 1641340800, "amount": 11.64, "memo": "35 PIADA FLORENCE FLORENCE KY" },</v>
+        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1641299414, "completedDateTime": 1641340800, "amount": 11.64, "memo": "35 PIADA FLORENCE FLORENCE KY" },</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3362,11 +3499,11 @@
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>374971930009</v>
+        <v>3751589599326980</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>1641262384</v>
+        <v>1641263597</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -3382,7 +3519,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 374971930009, "submittedDateTime": 1641262384, "completedDateTime": 1641340800, "amount": 240.43, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1641263597, "completedDateTime": 1641340800, "amount": 240.43, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3400,11 +3537,11 @@
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>429797997019</v>
+        <v>147583745557</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>1641426686</v>
+        <v>1641347535</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -3420,7 +3557,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 429797997019, "submittedDateTime": 1641426686, "completedDateTime": 1641427200, "amount": -49.53, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1641347535, "completedDateTime": 1641427200, "amount": -49.53, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3438,11 +3575,11 @@
       </c>
       <c r="G8" s="2" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>949180303947</v>
+        <v>920756712810</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>1641364461</v>
+        <v>1641418148</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -3458,7 +3595,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 949180303947, "submittedDateTime": 1641364461, "completedDateTime": 1641427200, "amount": -59.44, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1641418148, "completedDateTime": 1641427200, "amount": -59.44, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3476,11 +3613,11 @@
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>239639548370</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>1641394792</v>
+        <v>1641347044</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
@@ -3496,7 +3633,7 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1641394792, "completedDateTime": 1641427200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1641347044, "completedDateTime": 1641427200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3514,11 +3651,11 @@
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>111079255746</v>
+        <v>463566446195</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>1641349423</v>
+        <v>1641360058</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -3534,7 +3671,7 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 111079255746, "submittedDateTime": 1641349423, "completedDateTime": 1641427200, "amount": 452.49, "memo": "CAPITAL GRILLE 0138052 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1641360058, "completedDateTime": 1641427200, "amount": 452.49, "memo": "CAPITAL GRILLE 0138052 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3552,11 +3689,11 @@
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>4602529412478380</v>
+        <v>796355214780</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>1641451529</v>
+        <v>1641504694</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -3572,7 +3709,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 4602529412478380, "submittedDateTime": 1641451529, "completedDateTime": 1641513600, "amount": -2418.36, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1641504694, "completedDateTime": 1641513600, "amount": -2418.36, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3590,11 +3727,11 @@
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>239639548370</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>1641660867</v>
+        <v>1641607045</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -3610,7 +3747,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1641660867, "completedDateTime": 1641686400, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1641607045, "completedDateTime": 1641686400, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3628,11 +3765,11 @@
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>319960975073</v>
+        <v>239639548370</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>1642091543</v>
+        <v>1642079444</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -3648,7 +3785,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 319960975073, "submittedDateTime": 1642091543, "completedDateTime": 1642118400, "amount": 21.95, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1642079444, "completedDateTime": 1642118400, "amount": 21.95, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3666,11 +3803,11 @@
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>740429843322</v>
+        <v>341796193771</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>1642633091</v>
+        <v>1642563534</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -3686,7 +3823,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 740429843322, "submittedDateTime": 1642633091, "completedDateTime": 1642636800, "amount": 48.08, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 341796193771, "submittedDateTime": 1642563534, "completedDateTime": 1642636800, "amount": 48.08, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3704,11 +3841,11 @@
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>374971930009</v>
+        <v>905851799456</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>1642823682</v>
+        <v>1642841268</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -3724,7 +3861,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 374971930009, "submittedDateTime": 1642823682, "completedDateTime": 1642896000, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 905851799456, "submittedDateTime": 1642841268, "completedDateTime": 1642896000, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3742,11 +3879,11 @@
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>2135029359261110</v>
+        <v>639474417673</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>1643204347</v>
+        <v>1643211693</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -3762,7 +3899,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 2135029359261110, "submittedDateTime": 1643204347, "completedDateTime": 1643241600, "amount": 17.14, "memo": "FIVE GUYS OH 1056 QSR CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 639474417673, "submittedDateTime": 1643211693, "completedDateTime": 1643241600, "amount": 17.14, "memo": "FIVE GUYS OH 1056 QSR CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3780,11 +3917,11 @@
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>111079255746</v>
+        <v>199201767490</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>1643337161</v>
+        <v>1643358169</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -3800,7 +3937,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 111079255746, "submittedDateTime": 1643337161, "completedDateTime": 1643414400, "amount": 30.92, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 199201767490, "submittedDateTime": 1643358169, "completedDateTime": 1643414400, "amount": 30.92, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3818,11 +3955,11 @@
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>455902826381</v>
+        <v>124896572843</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>1643763996</v>
+        <v>1643788100</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -3838,7 +3975,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 455902826381, "submittedDateTime": 1643763996, "completedDateTime": 1643846400, "amount": 2.78, "memo": "LOWES #01585* CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1643788100, "completedDateTime": 1643846400, "amount": 2.78, "memo": "LOWES #01585* CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3856,11 +3993,11 @@
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>380520842899</v>
+        <v>199201767490</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>1643981863</v>
+        <v>1644009256</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -3876,7 +4013,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 380520842899, "submittedDateTime": 1643981863, "completedDateTime": 1644019200, "amount": -1132.5, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 199201767490, "submittedDateTime": 1644009256, "completedDateTime": 1644019200, "amount": -1132.5, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3894,11 +4031,11 @@
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>639474417673</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>1644001074</v>
+        <v>1643961377</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -3914,7 +4051,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1644001074, "completedDateTime": 1644019200, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 639474417673, "submittedDateTime": 1643961377, "completedDateTime": 1644019200, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -3932,11 +4069,11 @@
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>912382282929</v>
+        <v>400535778457</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>1644101748</v>
+        <v>1644082843</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -3952,7 +4089,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 912382282929, "submittedDateTime": 1644101748, "completedDateTime": 1644105600, "amount": 11.99, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1644082843, "completedDateTime": 1644105600, "amount": 11.99, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -3970,11 +4107,11 @@
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>333038768853</v>
+        <v>917325385866</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>1644273966</v>
+        <v>1644219447</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -3990,7 +4127,7 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 333038768853, "submittedDateTime": 1644273966, "completedDateTime": 1644278400, "amount": 39.55, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1644219447, "completedDateTime": 1644278400, "amount": 39.55, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -4008,11 +4145,11 @@
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>239639548370</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>1644245028</v>
+        <v>1644234328</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -4028,7 +4165,7 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1644245028, "completedDateTime": 1644278400, "amount": 11.56, "memo": "TVP INC/LA ROSA S NORW 513-984-3870 OH" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1644234328, "completedDateTime": 1644278400, "amount": 11.56, "memo": "TVP INC/LA ROSA S NORW 513-984-3870 OH" },</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -4046,11 +4183,11 @@
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>124896572843</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="0"/>
-        <v>1644327549</v>
+        <v>1644328164</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -4066,7 +4203,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1644327549, "completedDateTime": 1644364800, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1644328164, "completedDateTime": 1644364800, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -4084,11 +4221,11 @@
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>526672870074</v>
+        <v>199201767490</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="0"/>
-        <v>1644617810</v>
+        <v>1644612306</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
@@ -4104,7 +4241,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 526672870074, "submittedDateTime": 1644617810, "completedDateTime": 1644624000, "amount": 281.99, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 199201767490, "submittedDateTime": 1644612306, "completedDateTime": 1644624000, "amount": 281.99, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -4122,11 +4259,11 @@
       </c>
       <c r="G26" s="2" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>697694136927</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>1644614568</v>
+        <v>1644612266</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -4142,7 +4279,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1644614568, "completedDateTime": 1644624000, "amount": 156.75, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1644612266, "completedDateTime": 1644624000, "amount": 156.75, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -4160,11 +4297,11 @@
       </c>
       <c r="G27" s="2" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>891594573965</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="0"/>
-        <v>1644985504</v>
+        <v>1645052061</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -4180,7 +4317,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1644985504, "completedDateTime": 1645056000, "amount": -39.55, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 891594573965, "submittedDateTime": 1645052061, "completedDateTime": 1645056000, "amount": -39.55, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -4198,11 +4335,11 @@
       </c>
       <c r="G28" s="2" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>908799996285</v>
+        <v>9960815475030200</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="0"/>
-        <v>1645018794</v>
+        <v>1644998423</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -4218,7 +4355,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 908799996285, "submittedDateTime": 1645018794, "completedDateTime": 1645056000, "amount": -109.49, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1644998423, "completedDateTime": 1645056000, "amount": -109.49, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -4236,11 +4373,11 @@
       </c>
       <c r="G29" s="2" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>702342041804</v>
+        <v>796355214780</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="0"/>
-        <v>1646371221</v>
+        <v>1646363776</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
@@ -4256,7 +4393,7 @@
       </c>
       <c r="L29" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 702342041804, "submittedDateTime": 1646371221, "completedDateTime": 1646438400, "amount": -57.58, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1646363776, "completedDateTime": 1646438400, "amount": -57.58, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -4274,11 +4411,11 @@
       </c>
       <c r="G30" s="2" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>3751589599326980</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="0"/>
-        <v>1646478627</v>
+        <v>1646508754</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -4294,7 +4431,7 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1646478627, "completedDateTime": 1646524800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" },</v>
+        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1646508754, "completedDateTime": 1646524800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" },</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -4312,11 +4449,11 @@
       </c>
       <c r="G31" s="2" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>147583745557</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="0"/>
-        <v>1646549230</v>
+        <v>1646551733</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -4332,7 +4469,7 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1646549230, "completedDateTime": 1646611200, "amount": 48.33, "memo": "TST* FIFTY WEST BREWIN CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1646551733, "completedDateTime": 1646611200, "amount": 48.33, "memo": "TST* FIFTY WEST BREWIN CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -4350,11 +4487,11 @@
       </c>
       <c r="G32" s="2" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>345064774916</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="0"/>
-        <v>1646561602</v>
+        <v>1646531146</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
@@ -4370,7 +4507,7 @@
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1646561602, "completedDateTime": 1646611200, "amount": 30.93, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1646531146, "completedDateTime": 1646611200, "amount": 30.93, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -4388,11 +4525,11 @@
       </c>
       <c r="G33" s="2" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>392343538980</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="0"/>
-        <v>1646751332</v>
+        <v>1646725816</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
@@ -4408,7 +4545,7 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1646751332, "completedDateTime": 1646784000, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1646725816, "completedDateTime": 1646784000, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -4426,11 +4563,11 @@
       </c>
       <c r="G34" s="2" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>111079255746</v>
+        <v>400535778457</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="0"/>
-        <v>1646984608</v>
+        <v>1647001067</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
@@ -4446,7 +4583,7 @@
       </c>
       <c r="L34" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 111079255746, "submittedDateTime": 1646984608, "completedDateTime": 1647043200, "amount": 269.87, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1647001067, "completedDateTime": 1647043200, "amount": 269.87, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -4464,11 +4601,11 @@
       </c>
       <c r="G35" s="2" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>908799996285</v>
+        <v>392343538980</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="0"/>
-        <v>1647016357</v>
+        <v>1646998667</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
@@ -4484,7 +4621,7 @@
       </c>
       <c r="L35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 908799996285, "submittedDateTime": 1647016357, "completedDateTime": 1647043200, "amount": 34.66, "memo": "DAVE &amp; BUSTERS #96 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1646998667, "completedDateTime": 1647043200, "amount": 34.66, "memo": "DAVE &amp; BUSTERS #96 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -4502,11 +4639,11 @@
       </c>
       <c r="G36" s="2" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>2135029359261110</v>
+        <v>201485841067</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="0"/>
-        <v>1647211275</v>
+        <v>1647136248</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
@@ -4522,7 +4659,7 @@
       </c>
       <c r="L36" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 2135029359261110, "submittedDateTime": 1647211275, "completedDateTime": 1647216000, "amount": 9.64, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1647136248, "completedDateTime": 1647216000, "amount": 9.64, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -4540,11 +4677,11 @@
       </c>
       <c r="G37" s="2" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>3751589599326980</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="0"/>
-        <v>1647396882</v>
+        <v>1647459963</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
@@ -4560,7 +4697,7 @@
       </c>
       <c r="L37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1647396882, "completedDateTime": 1647475200, "amount": 16.6, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1647459963, "completedDateTime": 1647475200, "amount": 16.6, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -4578,11 +4715,11 @@
       </c>
       <c r="G38" s="2" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>9341099753883370</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="0"/>
-        <v>1647538480</v>
+        <v>1647523805</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
@@ -4598,7 +4735,7 @@
       </c>
       <c r="L38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1647538480, "completedDateTime": 1647561600, "amount": 97.13, "memo": "THIRD EYE BREWING CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1647523805, "completedDateTime": 1647561600, "amount": 97.13, "memo": "THIRD EYE BREWING CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4616,11 +4753,11 @@
       </c>
       <c r="G39" s="2" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>918003817933</v>
+        <v>201485841067</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="0"/>
-        <v>1647781590</v>
+        <v>1647792640</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
@@ -4636,7 +4773,7 @@
       </c>
       <c r="L39" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 918003817933, "submittedDateTime": 1647781590, "completedDateTime": 1647820800, "amount": 14, "memo": "THE ECHO RESTAURANT CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1647792640, "completedDateTime": 1647820800, "amount": 14, "memo": "THE ECHO RESTAURANT CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -4654,11 +4791,11 @@
       </c>
       <c r="G40" s="2" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>932085600435</v>
+        <v>796355214780</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="0"/>
-        <v>1648114394</v>
+        <v>1648092054</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
@@ -4674,7 +4811,7 @@
       </c>
       <c r="L40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 932085600435, "submittedDateTime": 1648114394, "completedDateTime": 1648166400, "amount": 13.93, "memo": "SPEEDWAY 05402 9369 ME MENTOR OH" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1648092054, "completedDateTime": 1648166400, "amount": 13.93, "memo": "SPEEDWAY 05402 9369 ME MENTOR OH" },</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -4692,11 +4829,11 @@
       </c>
       <c r="G41" s="2" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>429797997019</v>
+        <v>880440266700</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="0"/>
-        <v>1648296477</v>
+        <v>1648332065</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
@@ -4712,7 +4849,7 @@
       </c>
       <c r="L41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 429797997019, "submittedDateTime": 1648296477, "completedDateTime": 1648339200, "amount": 11.5, "memo": "TST* Noras Public Hous Willoughby Hi OH" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1648332065, "completedDateTime": 1648339200, "amount": 11.5, "memo": "TST* Noras Public Hous Willoughby Hi OH" },</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -4730,11 +4867,11 @@
       </c>
       <c r="G42" s="2" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>374971930009</v>
+        <v>697694136927</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="0"/>
-        <v>1648345884</v>
+        <v>1648407452</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
@@ -4750,7 +4887,7 @@
       </c>
       <c r="L42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 374971930009, "submittedDateTime": 1648345884, "completedDateTime": 1648425600, "amount": 18, "memo": "TST* THE 1899 PUB WILLOUGHBY OH" },</v>
+        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1648407452, "completedDateTime": 1648425600, "amount": 18, "memo": "TST* THE 1899 PUB WILLOUGHBY OH" },</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -4768,11 +4905,11 @@
       </c>
       <c r="G43" s="2" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>4602529412478380</v>
+        <v>6825686927341160</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="0"/>
-        <v>1648354601</v>
+        <v>1648393883</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -4788,7 +4925,7 @@
       </c>
       <c r="L43" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 4602529412478380, "submittedDateTime": 1648354601, "completedDateTime": 1648425600, "amount": 22.48, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1648393883, "completedDateTime": 1648425600, "amount": 22.48, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -4806,11 +4943,11 @@
       </c>
       <c r="G44" s="2" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>319960975073</v>
+        <v>841242350153</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="0"/>
-        <v>1648422542</v>
+        <v>1648351056</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -4826,7 +4963,7 @@
       </c>
       <c r="L44" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 319960975073, "submittedDateTime": 1648422542, "completedDateTime": 1648425600, "amount": 45.78, "memo": "KROGER #418 NORWOOD OH" },</v>
+        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1648351056, "completedDateTime": 1648425600, "amount": 45.78, "memo": "KROGER #418 NORWOOD OH" },</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -4844,11 +4981,11 @@
       </c>
       <c r="G45" s="2" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>694349861422</v>
+        <v>201485841067</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="0"/>
-        <v>1648413151</v>
+        <v>1648350193</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -4864,7 +5001,7 @@
       </c>
       <c r="L45" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 694349861422, "submittedDateTime": 1648413151, "completedDateTime": 1648425600, "amount": 6.38, "memo": "WENDY'S 219 MENTOR OH" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1648350193, "completedDateTime": 1648425600, "amount": 6.38, "memo": "WENDY'S 219 MENTOR OH" },</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -4882,11 +5019,11 @@
       </c>
       <c r="G46" s="2" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>3751589599326980</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="0"/>
-        <v>1648355131</v>
+        <v>1648374343</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
@@ -4902,7 +5039,7 @@
       </c>
       <c r="L46" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1648355131, "completedDateTime": 1648425600, "amount": 20.25, "memo": "FIREBIRDS COLUMBUS COLUMBUS OH" },</v>
+        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1648374343, "completedDateTime": 1648425600, "amount": 20.25, "memo": "FIREBIRDS COLUMBUS COLUMBUS OH" },</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -4920,11 +5057,11 @@
       </c>
       <c r="G47" s="2" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>4602529412478380</v>
+        <v>611022312294</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="0"/>
-        <v>1648558250</v>
+        <v>1648569704</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
@@ -4940,7 +5077,7 @@
       </c>
       <c r="L47" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 4602529412478380, "submittedDateTime": 1648558250, "completedDateTime": 1648598400, "amount": 13.48, "memo": "PENN STATION 10 - ECOM CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 611022312294, "submittedDateTime": 1648569704, "completedDateTime": 1648598400, "amount": 13.48, "memo": "PENN STATION 10 - ECOM CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -4958,11 +5095,11 @@
       </c>
       <c r="G48" s="2" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>912382282929</v>
+        <v>201485841067</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="0"/>
-        <v>1648595427</v>
+        <v>1648577953</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
@@ -4978,7 +5115,7 @@
       </c>
       <c r="L48" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 912382282929, "submittedDateTime": 1648595427, "completedDateTime": 1648598400, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1648577953, "completedDateTime": 1648598400, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -4996,11 +5133,11 @@
       </c>
       <c r="G49" s="2" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>702342041804</v>
+        <v>147583745557</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="0"/>
-        <v>1648609357</v>
+        <v>1648613051</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
@@ -5016,7 +5153,7 @@
       </c>
       <c r="L49" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 702342041804, "submittedDateTime": 1648609357, "completedDateTime": 1648684800, "amount": -5, "memo": "DD DOORDASH POTBELLYS 8559731040 CA" },</v>
+        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1648613051, "completedDateTime": 1648684800, "amount": -5, "memo": "DD DOORDASH POTBELLYS 8559731040 CA" },</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -5034,11 +5171,11 @@
       </c>
       <c r="G50" s="2" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>2135029359261110</v>
+        <v>905851799456</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="0"/>
-        <v>1648624725</v>
+        <v>1648661182</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
@@ -5054,7 +5191,7 @@
       </c>
       <c r="L50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 2135029359261110, "submittedDateTime": 1648624725, "completedDateTime": 1648684800, "amount": 1.51, "memo": "365 MARKET 888 432-32 TROY MI" },</v>
+        <v>{ "accountNumber": 905851799456, "submittedDateTime": 1648661182, "completedDateTime": 1648684800, "amount": 1.51, "memo": "365 MARKET 888 432-32 TROY MI" },</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -5072,11 +5209,11 @@
       </c>
       <c r="G51" s="2" cm="1">
         <f t="array" aca="1" ref="G51" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>694349861422</v>
+        <v>917325385866</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="0"/>
-        <v>1648616740</v>
+        <v>1648660560</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
@@ -5092,7 +5229,7 @@
       </c>
       <c r="L51" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 694349861422, "submittedDateTime": 1648616740, "completedDateTime": 1648684800, "amount": 11.91, "memo": "SKYLINE CHILI 1033 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1648660560, "completedDateTime": 1648684800, "amount": 11.91, "memo": "SKYLINE CHILI 1033 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -5110,11 +5247,11 @@
       </c>
       <c r="G52" s="2" cm="1">
         <f t="array" aca="1" ref="G52" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>702342041804</v>
+        <v>775440347177</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="0"/>
-        <v>1648856544</v>
+        <v>1648829038</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
@@ -5130,7 +5267,7 @@
       </c>
       <c r="L52" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 702342041804, "submittedDateTime": 1648856544, "completedDateTime": 1648857600, "amount": 15.49, "memo": "JIMMY JOHNS - 2554 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 775440347177, "submittedDateTime": 1648829038, "completedDateTime": 1648857600, "amount": 15.49, "memo": "JIMMY JOHNS - 2554 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -5148,11 +5285,11 @@
       </c>
       <c r="G53" s="2" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>333038768853</v>
+        <v>611022312294</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="0"/>
-        <v>1648880867</v>
+        <v>1648869465</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
@@ -5168,7 +5305,7 @@
       </c>
       <c r="L53" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 333038768853, "submittedDateTime": 1648880867, "completedDateTime": 1648944000, "amount": -595.48, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 611022312294, "submittedDateTime": 1648869465, "completedDateTime": 1648944000, "amount": -595.48, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -5186,11 +5323,11 @@
       </c>
       <c r="G54" s="2" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>694349861422</v>
+        <v>880440266700</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="0"/>
-        <v>1648873971</v>
+        <v>1648870701</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
@@ -5206,7 +5343,7 @@
       </c>
       <c r="L54" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 694349861422, "submittedDateTime": 1648873971, "completedDateTime": 1648944000, "amount": 11.31, "memo": "TACO BELL 15353 COVINGTON KY" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1648870701, "completedDateTime": 1648944000, "amount": 11.31, "memo": "TACO BELL 15353 COVINGTON KY" },</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -5224,11 +5361,11 @@
       </c>
       <c r="G55" s="2" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>319960975073</v>
+        <v>880440266700</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="0"/>
-        <v>1649000836</v>
+        <v>1648979716</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
@@ -5244,7 +5381,7 @@
       </c>
       <c r="L55" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 319960975073, "submittedDateTime": 1649000836, "completedDateTime": 1649030400, "amount": 48.48, "memo": "KROGER #465 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1648979716, "completedDateTime": 1649030400, "amount": 48.48, "memo": "KROGER #465 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -5262,11 +5399,11 @@
       </c>
       <c r="G56" s="2" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>580874205377</v>
+        <v>317595283947</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="0"/>
-        <v>1649072860</v>
+        <v>1649085968</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
@@ -5282,7 +5419,7 @@
       </c>
       <c r="L56" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 580874205377, "submittedDateTime": 1649072860, "completedDateTime": 1649116800, "amount": 140.25, "memo": "SERVICE FEE 888-658-5465 TN" },</v>
+        <v>{ "accountNumber": 317595283947, "submittedDateTime": 1649085968, "completedDateTime": 1649116800, "amount": 140.25, "memo": "SERVICE FEE 888-658-5465 TN" },</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -5300,11 +5437,11 @@
       </c>
       <c r="G57" s="2" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>380520842899</v>
+        <v>392343538980</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="0"/>
-        <v>1649104566</v>
+        <v>1649032275</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
@@ -5320,7 +5457,7 @@
       </c>
       <c r="L57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 380520842899, "submittedDateTime": 1649104566, "completedDateTime": 1649116800, "amount": 7500, "memo": "US TREAS TAX PYMT 888-658-5465 TN" },</v>
+        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1649032275, "completedDateTime": 1649116800, "amount": 7500, "memo": "US TREAS TAX PYMT 888-658-5465 TN" },</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -5338,11 +5475,11 @@
       </c>
       <c r="G58" s="2" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>932085600435</v>
+        <v>239639548370</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="0"/>
-        <v>1649105131</v>
+        <v>1649101610</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
@@ -5358,7 +5495,7 @@
       </c>
       <c r="L58" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 932085600435, "submittedDateTime": 1649105131, "completedDateTime": 1649116800, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1649101610, "completedDateTime": 1649116800, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -5376,11 +5513,11 @@
       </c>
       <c r="G59" s="2" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>9960815475030200</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="0"/>
-        <v>1649185984</v>
+        <v>1649180915</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
@@ -5396,7 +5533,7 @@
       </c>
       <c r="L59" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1649185984, "completedDateTime": 1649203200, "amount": 11.48, "memo": "KFC G135916 NORWOOD OH" },</v>
+        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1649180915, "completedDateTime": 1649203200, "amount": 11.48, "memo": "KFC G135916 NORWOOD OH" },</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -5414,11 +5551,11 @@
       </c>
       <c r="G60" s="2" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>380520842899</v>
+        <v>841242350153</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="0"/>
-        <v>1649122843</v>
+        <v>1649147503</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
@@ -5434,7 +5571,7 @@
       </c>
       <c r="L60" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 380520842899, "submittedDateTime": 1649122843, "completedDateTime": 1649203200, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" },</v>
+        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1649147503, "completedDateTime": 1649203200, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" },</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -5452,11 +5589,11 @@
       </c>
       <c r="G61" s="2" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>319960975073</v>
+        <v>917325385866</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="0"/>
-        <v>1649262965</v>
+        <v>1649250395</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
@@ -5472,7 +5609,7 @@
       </c>
       <c r="L61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 319960975073, "submittedDateTime": 1649262965, "completedDateTime": 1649289600, "amount": -7750, "memo": "PAYMENT THANK YOU" },</v>
+        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1649250395, "completedDateTime": 1649289600, "amount": -7750, "memo": "PAYMENT THANK YOU" },</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -5490,11 +5627,11 @@
       </c>
       <c r="G62" s="2" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>738295537013</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="0"/>
-        <v>1649422027</v>
+        <v>1649452938</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
@@ -5510,7 +5647,7 @@
       </c>
       <c r="L62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1649422027, "completedDateTime": 1649462400, "amount": 6.87, "memo": "TACO BELL 15353 COVINGTON KY" },</v>
+        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1649452938, "completedDateTime": 1649462400, "amount": 6.87, "memo": "TACO BELL 15353 COVINGTON KY" },</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -5528,11 +5665,11 @@
       </c>
       <c r="G63" s="2" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>949180303947</v>
+        <v>400535778457</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="0"/>
-        <v>1649392233</v>
+        <v>1649415758</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
@@ -5548,7 +5685,7 @@
       </c>
       <c r="L63" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 949180303947, "submittedDateTime": 1649392233, "completedDateTime": 1649462400, "amount": 390.84, "memo": "ACMETOOLS.COM 8773452263 ND" },</v>
+        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1649415758, "completedDateTime": 1649462400, "amount": 390.84, "memo": "ACMETOOLS.COM 8773452263 ND" },</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -5566,11 +5703,11 @@
       </c>
       <c r="G64" s="2" cm="1">
         <f t="array" aca="1" ref="G64" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>199201767490</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="0"/>
-        <v>1649433679</v>
+        <v>1649413279</v>
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
@@ -5586,7 +5723,7 @@
       </c>
       <c r="L64" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1649433679, "completedDateTime": 1649462400, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 199201767490, "submittedDateTime": 1649413279, "completedDateTime": 1649462400, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -5604,11 +5741,11 @@
       </c>
       <c r="G65" s="2" cm="1">
         <f t="array" aca="1" ref="G65" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>816402439754</v>
+        <v>3751589599326980</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="0"/>
-        <v>1649550052</v>
+        <v>1649615905</v>
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
@@ -5624,7 +5761,7 @@
       </c>
       <c r="L65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 816402439754, "submittedDateTime": 1649550052, "completedDateTime": 1649635200, "amount": 18.15, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1649615905, "completedDateTime": 1649635200, "amount": 18.15, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -5642,11 +5779,11 @@
       </c>
       <c r="G66" s="2" cm="1">
         <f t="array" aca="1" ref="G66" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>6825686927341160</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="0"/>
-        <v>1649683492</v>
+        <v>1649693350</v>
       </c>
       <c r="I66">
         <f t="shared" si="1"/>
@@ -5662,7 +5799,7 @@
       </c>
       <c r="L66" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1649683492, "completedDateTime": 1649721600, "amount": 11.53, "memo": "SKYLINE CHILI DENT CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1649693350, "completedDateTime": 1649721600, "amount": 11.53, "memo": "SKYLINE CHILI DENT CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -5680,11 +5817,11 @@
       </c>
       <c r="G67" s="2" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>380520842899</v>
+        <v>201485841067</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H130" ca="1" si="5">_xlfn.FLOOR.MATH((B67-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1649854573</v>
+        <v>1649823379</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I130" si="6">_xlfn.FLOOR.MATH((B67-DATE(1970,1,1)+1)*86400)</f>
@@ -5700,7 +5837,7 @@
       </c>
       <c r="L67" t="str">
         <f t="shared" ref="L67:L130" ca="1" si="9">"{ "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G67&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H67&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I67&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J67&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K67&amp;CHAR(34) &amp;" },"</f>
-        <v>{ "accountNumber": 380520842899, "submittedDateTime": 1649854573, "completedDateTime": 1649894400, "amount": 12.78, "memo": "LA ROSA'S HYDE PARK 513-984-3870 OH" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1649823379, "completedDateTime": 1649894400, "amount": 12.78, "memo": "LA ROSA'S HYDE PARK 513-984-3870 OH" },</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -5718,11 +5855,11 @@
       </c>
       <c r="G68" s="2" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>415908241586</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="5"/>
-        <v>1650033047</v>
+        <v>1650057389</v>
       </c>
       <c r="I68">
         <f t="shared" si="6"/>
@@ -5738,7 +5875,7 @@
       </c>
       <c r="L68" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1650033047, "completedDateTime": 1650067200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 415908241586, "submittedDateTime": 1650057389, "completedDateTime": 1650067200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -5756,11 +5893,11 @@
       </c>
       <c r="G69" s="2" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>912382282929</v>
+        <v>697694136927</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="5"/>
-        <v>1650074966</v>
+        <v>1650107427</v>
       </c>
       <c r="I69">
         <f t="shared" si="6"/>
@@ -5776,7 +5913,7 @@
       </c>
       <c r="L69" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 912382282929, "submittedDateTime": 1650074966, "completedDateTime": 1650153600, "amount": 173.08, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1650107427, "completedDateTime": 1650153600, "amount": 173.08, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -5794,11 +5931,11 @@
       </c>
       <c r="G70" s="2" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>697694136927</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="5"/>
-        <v>1650154007</v>
+        <v>1650227801</v>
       </c>
       <c r="I70">
         <f t="shared" si="6"/>
@@ -5814,7 +5951,7 @@
       </c>
       <c r="L70" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1650154007, "completedDateTime": 1650240000, "amount": -35, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1650227801, "completedDateTime": 1650240000, "amount": -35, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -5832,11 +5969,11 @@
       </c>
       <c r="G71" s="2" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>816402439754</v>
+        <v>6825686927341160</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="5"/>
-        <v>1650286004</v>
+        <v>1650252989</v>
       </c>
       <c r="I71">
         <f t="shared" si="6"/>
@@ -5852,7 +5989,7 @@
       </c>
       <c r="L71" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 816402439754, "submittedDateTime": 1650286004, "completedDateTime": 1650326400, "amount": 2354, "memo": "KY REVENUE DEPT 5028753733 KY" },</v>
+        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1650252989, "completedDateTime": 1650326400, "amount": 2354, "memo": "KY REVENUE DEPT 5028753733 KY" },</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -5870,11 +6007,11 @@
       </c>
       <c r="G72" s="2" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>880440266700</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="5"/>
-        <v>1650395677</v>
+        <v>1650377066</v>
       </c>
       <c r="I72">
         <f t="shared" si="6"/>
@@ -5890,7 +6027,7 @@
       </c>
       <c r="L72" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1650395677, "completedDateTime": 1650412800, "amount": 59.55, "memo": "KROGER #355 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1650377066, "completedDateTime": 1650412800, "amount": 59.55, "memo": "KROGER #355 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -5908,11 +6045,11 @@
       </c>
       <c r="G73" s="2" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>448414866651</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="5"/>
-        <v>1650404081</v>
+        <v>1650371583</v>
       </c>
       <c r="I73">
         <f t="shared" si="6"/>
@@ -5928,7 +6065,7 @@
       </c>
       <c r="L73" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1650404081, "completedDateTime": 1650412800, "amount": 14.34, "memo": "EL TORO OF CINCINNATI CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1650371583, "completedDateTime": 1650412800, "amount": 14.34, "memo": "EL TORO OF CINCINNATI CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -5946,11 +6083,11 @@
       </c>
       <c r="G74" s="2" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>526672870074</v>
+        <v>3751589599326980</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="5"/>
-        <v>1650472349</v>
+        <v>1650483636</v>
       </c>
       <c r="I74">
         <f t="shared" si="6"/>
@@ -5966,7 +6103,7 @@
       </c>
       <c r="L74" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 526672870074, "submittedDateTime": 1650472349, "completedDateTime": 1650499200, "amount": 201.58, "memo": "INTUIT *TURBOTAX CL.INTUIT.COM CA" },</v>
+        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1650483636, "completedDateTime": 1650499200, "amount": 201.58, "memo": "INTUIT *TURBOTAX CL.INTUIT.COM CA" },</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -5984,11 +6121,11 @@
       </c>
       <c r="G75" s="2" cm="1">
         <f t="array" aca="1" ref="G75" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>912382282929</v>
+        <v>239639548370</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="5"/>
-        <v>1650701152</v>
+        <v>1650718157</v>
       </c>
       <c r="I75">
         <f t="shared" si="6"/>
@@ -6004,7 +6141,7 @@
       </c>
       <c r="L75" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 912382282929, "submittedDateTime": 1650701152, "completedDateTime": 1650758400, "amount": -624.26, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1650718157, "completedDateTime": 1650758400, "amount": -624.26, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -6022,11 +6159,11 @@
       </c>
       <c r="G76" s="2" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>912382282929</v>
+        <v>738295537013</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="5"/>
-        <v>1650878160</v>
+        <v>1650849810</v>
       </c>
       <c r="I76">
         <f t="shared" si="6"/>
@@ -6042,7 +6179,7 @@
       </c>
       <c r="L76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 912382282929, "submittedDateTime": 1650878160, "completedDateTime": 1650931200, "amount": 29.72, "memo": "KROGER #465 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1650849810, "completedDateTime": 1650931200, "amount": 29.72, "memo": "KROGER #465 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -6060,11 +6197,11 @@
       </c>
       <c r="G77" s="2" cm="1">
         <f t="array" aca="1" ref="G77" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>333038768853</v>
+        <v>392343538980</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="5"/>
-        <v>1651056570</v>
+        <v>1651051621</v>
       </c>
       <c r="I77">
         <f t="shared" si="6"/>
@@ -6080,7 +6217,7 @@
       </c>
       <c r="L77" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 333038768853, "submittedDateTime": 1651056570, "completedDateTime": 1651104000, "amount": 33.39, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1651051621, "completedDateTime": 1651104000, "amount": 33.39, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -6098,11 +6235,11 @@
       </c>
       <c r="G78" s="2" cm="1">
         <f t="array" aca="1" ref="G78" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>374971930009</v>
+        <v>345064774916</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="5"/>
-        <v>1651621183</v>
+        <v>1651555019</v>
       </c>
       <c r="I78">
         <f t="shared" si="6"/>
@@ -6118,7 +6255,7 @@
       </c>
       <c r="L78" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 374971930009, "submittedDateTime": 1651621183, "completedDateTime": 1651622400, "amount": 15.39, "memo": "SP BLOWERBAND FAIRFAX VA" },</v>
+        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1651555019, "completedDateTime": 1651622400, "amount": 15.39, "memo": "SP BLOWERBAND FAIRFAX VA" },</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -6136,11 +6273,11 @@
       </c>
       <c r="G79" s="2" cm="1">
         <f t="array" aca="1" ref="G79" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>880440266700</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="5"/>
-        <v>1651541591</v>
+        <v>1651574942</v>
       </c>
       <c r="I79">
         <f t="shared" si="6"/>
@@ -6156,7 +6293,7 @@
       </c>
       <c r="L79" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1651541591, "completedDateTime": 1651622400, "amount": 91.62, "memo": "GRIOTS GARAGE 253-9222400 WA" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1651574942, "completedDateTime": 1651622400, "amount": 91.62, "memo": "GRIOTS GARAGE 253-9222400 WA" },</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -6174,11 +6311,11 @@
       </c>
       <c r="G80" s="2" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>199201767490</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="5"/>
-        <v>1651663020</v>
+        <v>1651674037</v>
       </c>
       <c r="I80">
         <f t="shared" si="6"/>
@@ -6194,7 +6331,7 @@
       </c>
       <c r="L80" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1651663020, "completedDateTime": 1651708800, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 199201767490, "submittedDateTime": 1651674037, "completedDateTime": 1651708800, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -6212,11 +6349,11 @@
       </c>
       <c r="G81" s="2" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>694349861422</v>
+        <v>917325385866</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="5"/>
-        <v>1651749748</v>
+        <v>1651741159</v>
       </c>
       <c r="I81">
         <f t="shared" si="6"/>
@@ -6232,7 +6369,7 @@
       </c>
       <c r="L81" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 694349861422, "submittedDateTime": 1651749748, "completedDateTime": 1651795200, "amount": 198.87, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1651741159, "completedDateTime": 1651795200, "amount": 198.87, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -6250,11 +6387,11 @@
       </c>
       <c r="G82" s="2" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>147583745557</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="5"/>
-        <v>1651728030</v>
+        <v>1651776462</v>
       </c>
       <c r="I82">
         <f t="shared" si="6"/>
@@ -6270,7 +6407,7 @@
       </c>
       <c r="L82" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1651728030, "completedDateTime": 1651795200, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" },</v>
+        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1651776462, "completedDateTime": 1651795200, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" },</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -6288,11 +6425,11 @@
       </c>
       <c r="G83" s="2" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>349083181548</v>
+        <v>415908241586</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="5"/>
-        <v>1651844852</v>
+        <v>1651834057</v>
       </c>
       <c r="I83">
         <f t="shared" si="6"/>
@@ -6308,7 +6445,7 @@
       </c>
       <c r="L83" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 349083181548, "submittedDateTime": 1651844852, "completedDateTime": 1651881600, "amount": 348, "memo": "VUE*COMPTIA MRKETPLCE 800-511-3478 MN" },</v>
+        <v>{ "accountNumber": 415908241586, "submittedDateTime": 1651834057, "completedDateTime": 1651881600, "amount": 348, "memo": "VUE*COMPTIA MRKETPLCE 800-511-3478 MN" },</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -6326,11 +6463,11 @@
       </c>
       <c r="G84" s="2" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>506647536492</v>
+        <v>983493971351</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="5"/>
-        <v>1651985124</v>
+        <v>1652020225</v>
       </c>
       <c r="I84">
         <f t="shared" si="6"/>
@@ -6346,7 +6483,7 @@
       </c>
       <c r="L84" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 506647536492, "submittedDateTime": 1651985124, "completedDateTime": 1652054400, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 983493971351, "submittedDateTime": 1652020225, "completedDateTime": 1652054400, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -6364,11 +6501,11 @@
       </c>
       <c r="G85" s="2" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>333038768853</v>
+        <v>796355214780</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="5"/>
-        <v>1652125324</v>
+        <v>1652132059</v>
       </c>
       <c r="I85">
         <f t="shared" si="6"/>
@@ -6384,7 +6521,7 @@
       </c>
       <c r="L85" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 333038768853, "submittedDateTime": 1652125324, "completedDateTime": 1652140800, "amount": 322.32, "memo": "LOWES #00907* 866-483-7521 NC" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1652132059, "completedDateTime": 1652140800, "amount": 322.32, "memo": "LOWES #00907* 866-483-7521 NC" },</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -6402,11 +6539,11 @@
       </c>
       <c r="G86" s="2" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5747011025075570</v>
+        <v>9341099753883370</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="5"/>
-        <v>1652126292</v>
+        <v>1652066540</v>
       </c>
       <c r="I86">
         <f t="shared" si="6"/>
@@ -6422,7 +6559,7 @@
       </c>
       <c r="L86" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 5747011025075570, "submittedDateTime": 1652126292, "completedDateTime": 1652140800, "amount": 11.83, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1652066540, "completedDateTime": 1652140800, "amount": 11.83, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -6440,11 +6577,11 @@
       </c>
       <c r="G87" s="2" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>813848868789</v>
+        <v>796355214780</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="5"/>
-        <v>1652120385</v>
+        <v>1652117715</v>
       </c>
       <c r="I87">
         <f t="shared" si="6"/>
@@ -6460,7 +6597,7 @@
       </c>
       <c r="L87" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 813848868789, "submittedDateTime": 1652120385, "completedDateTime": 1652140800, "amount": 11.97, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1652117715, "completedDateTime": 1652140800, "amount": 11.97, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -6478,11 +6615,11 @@
       </c>
       <c r="G88" s="2" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>878290245627</v>
+        <v>415908241586</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="5"/>
-        <v>1652333361</v>
+        <v>1652354283</v>
       </c>
       <c r="I88">
         <f t="shared" si="6"/>
@@ -6498,7 +6635,7 @@
       </c>
       <c r="L88" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 878290245627, "submittedDateTime": 1652333361, "completedDateTime": 1652400000, "amount": 20.25, "memo": "PMT*OH BUREAU MOTOR VE COLUMBUS OH" },</v>
+        <v>{ "accountNumber": 415908241586, "submittedDateTime": 1652354283, "completedDateTime": 1652400000, "amount": 20.25, "memo": "PMT*OH BUREAU MOTOR VE COLUMBUS OH" },</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -6516,11 +6653,11 @@
       </c>
       <c r="G89" s="2" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>2135029359261110</v>
+        <v>448414866651</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="5"/>
-        <v>1652430362</v>
+        <v>1652475054</v>
       </c>
       <c r="I89">
         <f t="shared" si="6"/>
@@ -6536,7 +6673,7 @@
       </c>
       <c r="L89" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 2135029359261110, "submittedDateTime": 1652430362, "completedDateTime": 1652486400, "amount": -62, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1652475054, "completedDateTime": 1652486400, "amount": -62, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -6554,11 +6691,11 @@
       </c>
       <c r="G90" s="2" cm="1">
         <f t="array" aca="1" ref="G90" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>2135029359261110</v>
+        <v>738295537013</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="5"/>
-        <v>1652649924</v>
+        <v>1652614820</v>
       </c>
       <c r="I90">
         <f t="shared" si="6"/>
@@ -6574,7 +6711,7 @@
       </c>
       <c r="L90" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 2135029359261110, "submittedDateTime": 1652649924, "completedDateTime": 1652659200, "amount": 58.27, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1652614820, "completedDateTime": 1652659200, "amount": 58.27, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -6592,11 +6729,11 @@
       </c>
       <c r="G91" s="2" cm="1">
         <f t="array" aca="1" ref="G91" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>374971930009</v>
+        <v>796355214780</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="5"/>
-        <v>1652589892</v>
+        <v>1652624776</v>
       </c>
       <c r="I91">
         <f t="shared" si="6"/>
@@ -6612,7 +6749,7 @@
       </c>
       <c r="L91" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 374971930009, "submittedDateTime": 1652589892, "completedDateTime": 1652659200, "amount": 11.65, "memo": "MCALISTER'S 102341 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1652624776, "completedDateTime": 1652659200, "amount": 11.65, "memo": "MCALISTER'S 102341 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -6630,11 +6767,11 @@
       </c>
       <c r="G92" s="2" cm="1">
         <f t="array" aca="1" ref="G92" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>526672870074</v>
+        <v>891594573965</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="5"/>
-        <v>1652791228</v>
+        <v>1652802908</v>
       </c>
       <c r="I92">
         <f t="shared" si="6"/>
@@ -6650,7 +6787,7 @@
       </c>
       <c r="L92" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 526672870074, "submittedDateTime": 1652791228, "completedDateTime": 1652832000, "amount": -50.17, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 891594573965, "submittedDateTime": 1652802908, "completedDateTime": 1652832000, "amount": -50.17, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -6668,11 +6805,11 @@
       </c>
       <c r="G93" s="2" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>918003817933</v>
+        <v>9341099753883370</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="5"/>
-        <v>1652794796</v>
+        <v>1652805560</v>
       </c>
       <c r="I93">
         <f t="shared" si="6"/>
@@ -6688,7 +6825,7 @@
       </c>
       <c r="L93" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 918003817933, "submittedDateTime": 1652794796, "completedDateTime": 1652832000, "amount": 24.55, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1652805560, "completedDateTime": 1652832000, "amount": 24.55, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -6706,11 +6843,11 @@
       </c>
       <c r="G94" s="2" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>949180303947</v>
+        <v>239639548370</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="5"/>
-        <v>1652756283</v>
+        <v>1652761150</v>
       </c>
       <c r="I94">
         <f t="shared" si="6"/>
@@ -6726,7 +6863,7 @@
       </c>
       <c r="L94" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 949180303947, "submittedDateTime": 1652756283, "completedDateTime": 1652832000, "amount": 24.55, "memo": "WAL-MART #3749 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1652761150, "completedDateTime": 1652832000, "amount": 24.55, "memo": "WAL-MART #3749 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -6744,11 +6881,11 @@
       </c>
       <c r="G95" s="2" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>813848868789</v>
+        <v>124896572843</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="5"/>
-        <v>1652879008</v>
+        <v>1652891334</v>
       </c>
       <c r="I95">
         <f t="shared" si="6"/>
@@ -6764,7 +6901,7 @@
       </c>
       <c r="L95" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 813848868789, "submittedDateTime": 1652879008, "completedDateTime": 1652918400, "amount": -4072.46, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1652891334, "completedDateTime": 1652918400, "amount": -4072.46, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -6782,11 +6919,11 @@
       </c>
       <c r="G96" s="2" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>443154468389</v>
+        <v>942613689574</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="5"/>
-        <v>1652921324</v>
+        <v>1652923433</v>
       </c>
       <c r="I96">
         <f t="shared" si="6"/>
@@ -6802,7 +6939,7 @@
       </c>
       <c r="L96" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 443154468389, "submittedDateTime": 1652921324, "completedDateTime": 1653004800, "amount": 11.83, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 942613689574, "submittedDateTime": 1652923433, "completedDateTime": 1653004800, "amount": 11.83, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -6820,11 +6957,11 @@
       </c>
       <c r="G97" s="2" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>374971930009</v>
+        <v>124896572843</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="5"/>
-        <v>1653663647</v>
+        <v>1653666921</v>
       </c>
       <c r="I97">
         <f t="shared" si="6"/>
@@ -6840,7 +6977,7 @@
       </c>
       <c r="L97" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 374971930009, "submittedDateTime": 1653663647, "completedDateTime": 1653696000, "amount": 5.66, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1653666921, "completedDateTime": 1653696000, "amount": 5.66, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" },</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -6858,11 +6995,11 @@
       </c>
       <c r="G98" s="2" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>111079255746</v>
+        <v>917325385866</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="5"/>
-        <v>1653641220</v>
+        <v>1653621660</v>
       </c>
       <c r="I98">
         <f t="shared" si="6"/>
@@ -6878,7 +7015,7 @@
       </c>
       <c r="L98" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 111079255746, "submittedDateTime": 1653641220, "completedDateTime": 1653696000, "amount": 226.36, "memo": "CITY OF NORWOOD 513-458-4500 OH" },</v>
+        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1653621660, "completedDateTime": 1653696000, "amount": 226.36, "memo": "CITY OF NORWOOD 513-458-4500 OH" },</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -6896,11 +7033,11 @@
       </c>
       <c r="G99" s="2" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>415908241586</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="5"/>
-        <v>1653635222</v>
+        <v>1653616207</v>
       </c>
       <c r="I99">
         <f t="shared" si="6"/>
@@ -6916,7 +7053,7 @@
       </c>
       <c r="L99" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1653635222, "completedDateTime": 1653696000, "amount": 130.52, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 415908241586, "submittedDateTime": 1653616207, "completedDateTime": 1653696000, "amount": 130.52, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -6934,11 +7071,11 @@
       </c>
       <c r="G100" s="2" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>9960815475030200</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="5"/>
-        <v>1653953317</v>
+        <v>1653923692</v>
       </c>
       <c r="I100">
         <f t="shared" si="6"/>
@@ -6954,7 +7091,7 @@
       </c>
       <c r="L100" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1653953317, "completedDateTime": 1653955200, "amount": 18.18, "memo": "Etsy.com - BlueThreadG Brooklyn NY" },</v>
+        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1653923692, "completedDateTime": 1653955200, "amount": 18.18, "memo": "Etsy.com - BlueThreadG Brooklyn NY" },</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -6972,11 +7109,11 @@
       </c>
       <c r="G101" s="2" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>506647536492</v>
+        <v>920756712810</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="5"/>
-        <v>1653896739</v>
+        <v>1653953322</v>
       </c>
       <c r="I101">
         <f t="shared" si="6"/>
@@ -6992,7 +7129,7 @@
       </c>
       <c r="L101" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 506647536492, "submittedDateTime": 1653896739, "completedDateTime": 1653955200, "amount": 172.9, "memo": "Tesla_US_Service 8777983752 CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1653953322, "completedDateTime": 1653955200, "amount": 172.9, "memo": "Tesla_US_Service 8777983752 CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -7010,11 +7147,11 @@
       </c>
       <c r="G102" s="2" cm="1">
         <f t="array" aca="1" ref="G102" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5759197398046990</v>
+        <v>451100491187</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="5"/>
-        <v>1653969923</v>
+        <v>1654019159</v>
       </c>
       <c r="I102">
         <f t="shared" si="6"/>
@@ -7030,7 +7167,7 @@
       </c>
       <c r="L102" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 5759197398046990, "submittedDateTime": 1653969923, "completedDateTime": 1654041600, "amount": 22.59, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1654019159, "completedDateTime": 1654041600, "amount": 22.59, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -7048,11 +7185,11 @@
       </c>
       <c r="G103" s="2" cm="1">
         <f t="array" aca="1" ref="G103" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>920756712810</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="5"/>
-        <v>1654443524</v>
+        <v>1654466639</v>
       </c>
       <c r="I103">
         <f t="shared" si="6"/>
@@ -7068,7 +7205,7 @@
       </c>
       <c r="L103" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1654443524, "completedDateTime": 1654473600, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1654466639, "completedDateTime": 1654473600, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -7086,11 +7223,11 @@
       </c>
       <c r="G104" s="2" cm="1">
         <f t="array" aca="1" ref="G104" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>493785208084</v>
+        <v>796355214780</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="5"/>
-        <v>1654452853</v>
+        <v>1654456465</v>
       </c>
       <c r="I104">
         <f t="shared" si="6"/>
@@ -7106,7 +7243,7 @@
       </c>
       <c r="L104" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 493785208084, "submittedDateTime": 1654452853, "completedDateTime": 1654473600, "amount": 19.8, "memo": "LONGHORN STEAK 0125046 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1654456465, "completedDateTime": 1654473600, "amount": 19.8, "memo": "LONGHORN STEAK 0125046 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -7124,11 +7261,11 @@
       </c>
       <c r="G105" s="2" cm="1">
         <f t="array" aca="1" ref="G105" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>949180303947</v>
+        <v>345064774916</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="5"/>
-        <v>1654693642</v>
+        <v>1654719240</v>
       </c>
       <c r="I105">
         <f t="shared" si="6"/>
@@ -7144,7 +7281,7 @@
       </c>
       <c r="L105" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 949180303947, "submittedDateTime": 1654693642, "completedDateTime": 1654732800, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1654719240, "completedDateTime": 1654732800, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -7162,11 +7299,11 @@
       </c>
       <c r="G106" s="2" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>697694136927</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="5"/>
-        <v>1654849832</v>
+        <v>1654883148</v>
       </c>
       <c r="I106">
         <f t="shared" si="6"/>
@@ -7182,7 +7319,7 @@
       </c>
       <c r="L106" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1654849832, "completedDateTime": 1654905600, "amount": -1085.99, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1654883148, "completedDateTime": 1654905600, "amount": -1085.99, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -7200,11 +7337,11 @@
       </c>
       <c r="G107" s="2" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>580874205377</v>
+        <v>124896572843</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="5"/>
-        <v>1655101099</v>
+        <v>1655141161</v>
       </c>
       <c r="I107">
         <f t="shared" si="6"/>
@@ -7220,7 +7357,7 @@
       </c>
       <c r="L107" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 580874205377, "submittedDateTime": 1655101099, "completedDateTime": 1655164800, "amount": 61.94, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1655141161, "completedDateTime": 1655164800, "amount": 61.94, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -7238,11 +7375,11 @@
       </c>
       <c r="G108" s="2" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>451100491187</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="5"/>
-        <v>1655257724</v>
+        <v>1655312240</v>
       </c>
       <c r="I108">
         <f t="shared" si="6"/>
@@ -7258,7 +7395,7 @@
       </c>
       <c r="L108" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1655257724, "completedDateTime": 1655337600, "amount": 70.75, "memo": "SP IFIXIT SAN LUIS OBIS CA" },</v>
+        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1655312240, "completedDateTime": 1655337600, "amount": 70.75, "memo": "SP IFIXIT SAN LUIS OBIS CA" },</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -7276,11 +7413,11 @@
       </c>
       <c r="G109" s="2" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>694349861422</v>
+        <v>463566446195</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="5"/>
-        <v>1655390635</v>
+        <v>1655353015</v>
       </c>
       <c r="I109">
         <f t="shared" si="6"/>
@@ -7296,7 +7433,7 @@
       </c>
       <c r="L109" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 694349861422, "submittedDateTime": 1655390635, "completedDateTime": 1655424000, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1655353015, "completedDateTime": 1655424000, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -7314,11 +7451,11 @@
       </c>
       <c r="G110" s="2" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>317595283947</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="5"/>
-        <v>1655619725</v>
+        <v>1655613644</v>
       </c>
       <c r="I110">
         <f t="shared" si="6"/>
@@ -7334,7 +7471,7 @@
       </c>
       <c r="L110" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1655619725, "completedDateTime": 1655683200, "amount": 72, "memo": "SQ *CATHOLIC KOLPING S Cincinnati OH" },</v>
+        <v>{ "accountNumber": 317595283947, "submittedDateTime": 1655613644, "completedDateTime": 1655683200, "amount": 72, "memo": "SQ *CATHOLIC KOLPING S Cincinnati OH" },</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -7352,11 +7489,11 @@
       </c>
       <c r="G111" s="2" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>443154468389</v>
+        <v>920756712810</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="5"/>
-        <v>1656226560</v>
+        <v>1656231959</v>
       </c>
       <c r="I111">
         <f t="shared" si="6"/>
@@ -7372,7 +7509,7 @@
       </c>
       <c r="L111" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 443154468389, "submittedDateTime": 1656226560, "completedDateTime": 1656288000, "amount": -35, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
+        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1656231959, "completedDateTime": 1656288000, "amount": -35, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -7390,11 +7527,11 @@
       </c>
       <c r="G112" s="2" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>2135029359261110</v>
+        <v>239639548370</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="5"/>
-        <v>1656333140</v>
+        <v>1656316478</v>
       </c>
       <c r="I112">
         <f t="shared" si="6"/>
@@ -7410,7 +7547,7 @@
       </c>
       <c r="L112" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 2135029359261110, "submittedDateTime": 1656333140, "completedDateTime": 1656374400, "amount": 0.66, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1656316478, "completedDateTime": 1656374400, "amount": 0.66, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -7428,11 +7565,11 @@
       </c>
       <c r="G113" s="2" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>580874205377</v>
+        <v>917325385866</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="5"/>
-        <v>1656367960</v>
+        <v>1656316865</v>
       </c>
       <c r="I113">
         <f t="shared" si="6"/>
@@ -7448,7 +7585,7 @@
       </c>
       <c r="L113" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 580874205377, "submittedDateTime": 1656367960, "completedDateTime": 1656374400, "amount": 18, "memo": "THE DAVID PAKMAN SHOW BOSTON MA" },</v>
+        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1656316865, "completedDateTime": 1656374400, "amount": 18, "memo": "THE DAVID PAKMAN SHOW BOSTON MA" },</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -7466,11 +7603,11 @@
       </c>
       <c r="G114" s="2" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>443154468389</v>
+        <v>917325385866</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="5"/>
-        <v>1656350801</v>
+        <v>1656333037</v>
       </c>
       <c r="I114">
         <f t="shared" si="6"/>
@@ -7486,7 +7623,7 @@
       </c>
       <c r="L114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 443154468389, "submittedDateTime": 1656350801, "completedDateTime": 1656374400, "amount": 64.68, "memo": "WALMART.COM AA 8009666546 AR" },</v>
+        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1656333037, "completedDateTime": 1656374400, "amount": 64.68, "memo": "WALMART.COM AA 8009666546 AR" },</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -7504,11 +7641,11 @@
       </c>
       <c r="G115" s="2" cm="1">
         <f t="array" aca="1" ref="G115" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5759197398046990</v>
+        <v>448414866651</v>
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="5"/>
-        <v>1656696907</v>
+        <v>1656657708</v>
       </c>
       <c r="I115">
         <f t="shared" si="6"/>
@@ -7524,7 +7661,7 @@
       </c>
       <c r="L115" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 5759197398046990, "submittedDateTime": 1656696907, "completedDateTime": 1656720000, "amount": -318.94, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1656657708, "completedDateTime": 1656720000, "amount": -318.94, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -7542,11 +7679,11 @@
       </c>
       <c r="G116" s="2" cm="1">
         <f t="array" aca="1" ref="G116" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>349083181548</v>
+        <v>400535778457</v>
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="5"/>
-        <v>1656635559</v>
+        <v>1656677354</v>
       </c>
       <c r="I116">
         <f t="shared" si="6"/>
@@ -7562,7 +7699,7 @@
       </c>
       <c r="L116" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 349083181548, "submittedDateTime": 1656635559, "completedDateTime": 1656720000, "amount": 40.74, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1656677354, "completedDateTime": 1656720000, "amount": 40.74, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -7580,11 +7717,11 @@
       </c>
       <c r="G117" s="2" cm="1">
         <f t="array" aca="1" ref="G117" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>400535778457</v>
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="5"/>
-        <v>1656957229</v>
+        <v>1656955131</v>
       </c>
       <c r="I117">
         <f t="shared" si="6"/>
@@ -7600,7 +7737,7 @@
       </c>
       <c r="L117" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1656957229, "completedDateTime": 1656979200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1656955131, "completedDateTime": 1656979200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -7618,11 +7755,11 @@
       </c>
       <c r="G118" s="2" cm="1">
         <f t="array" aca="1" ref="G118" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>813848868789</v>
+        <v>920756712810</v>
       </c>
       <c r="H118">
         <f t="shared" ca="1" si="5"/>
-        <v>1657053286</v>
+        <v>1657004789</v>
       </c>
       <c r="I118">
         <f t="shared" si="6"/>
@@ -7638,7 +7775,7 @@
       </c>
       <c r="L118" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 813848868789, "submittedDateTime": 1657053286, "completedDateTime": 1657065600, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1657004789, "completedDateTime": 1657065600, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -7656,11 +7793,11 @@
       </c>
       <c r="G119" s="2" cm="1">
         <f t="array" aca="1" ref="G119" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>740429843322</v>
+        <v>463566446195</v>
       </c>
       <c r="H119">
         <f t="shared" ca="1" si="5"/>
-        <v>1657280632</v>
+        <v>1657271900</v>
       </c>
       <c r="I119">
         <f t="shared" si="6"/>
@@ -7676,7 +7813,7 @@
       </c>
       <c r="L119" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 740429843322, "submittedDateTime": 1657280632, "completedDateTime": 1657324800, "amount": -119.58, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1657271900, "completedDateTime": 1657324800, "amount": -119.58, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -7694,11 +7831,11 @@
       </c>
       <c r="G120" s="2" cm="1">
         <f t="array" aca="1" ref="G120" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>740429843322</v>
+        <v>451100491187</v>
       </c>
       <c r="H120">
         <f t="shared" ca="1" si="5"/>
-        <v>1657242172</v>
+        <v>1657240446</v>
       </c>
       <c r="I120">
         <f t="shared" si="6"/>
@@ -7714,7 +7851,7 @@
       </c>
       <c r="L120" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 740429843322, "submittedDateTime": 1657242172, "completedDateTime": 1657324800, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1657240446, "completedDateTime": 1657324800, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -7732,11 +7869,11 @@
       </c>
       <c r="G121" s="2" cm="1">
         <f t="array" aca="1" ref="G121" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>349083181548</v>
+        <v>602971727973</v>
       </c>
       <c r="H121">
         <f t="shared" ca="1" si="5"/>
-        <v>1657311386</v>
+        <v>1657305163</v>
       </c>
       <c r="I121">
         <f t="shared" si="6"/>
@@ -7752,7 +7889,7 @@
       </c>
       <c r="L121" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 349083181548, "submittedDateTime": 1657311386, "completedDateTime": 1657324800, "amount": 0, "memo": "MEMBERSHIP FEE JUL 22-JUN 23" },</v>
+        <v>{ "accountNumber": 602971727973, "submittedDateTime": 1657305163, "completedDateTime": 1657324800, "amount": 0, "memo": "MEMBERSHIP FEE JUL 22-JUN 23" },</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -7770,11 +7907,11 @@
       </c>
       <c r="G122" s="2" cm="1">
         <f t="array" aca="1" ref="G122" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5759197398046990</v>
+        <v>239639548370</v>
       </c>
       <c r="H122">
         <f t="shared" ca="1" si="5"/>
-        <v>1658151458</v>
+        <v>1658138711</v>
       </c>
       <c r="I122">
         <f t="shared" si="6"/>
@@ -7790,7 +7927,7 @@
       </c>
       <c r="L122" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 5759197398046990, "submittedDateTime": 1658151458, "completedDateTime": 1658188800, "amount": 11.51, "memo": "TST* Rotolo Bowling Southgate KY" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1658138711, "completedDateTime": 1658188800, "amount": 11.51, "memo": "TST* Rotolo Bowling Southgate KY" },</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -7808,11 +7945,11 @@
       </c>
       <c r="G123" s="2" cm="1">
         <f t="array" aca="1" ref="G123" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>602971727973</v>
       </c>
       <c r="H123">
         <f t="shared" ca="1" si="5"/>
-        <v>1658163824</v>
+        <v>1658142887</v>
       </c>
       <c r="I123">
         <f t="shared" si="6"/>
@@ -7828,7 +7965,7 @@
       </c>
       <c r="L123" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1658163824, "completedDateTime": 1658188800, "amount": 23.35, "memo": "TST* Rotolo Bowling Southgate KY" },</v>
+        <v>{ "accountNumber": 602971727973, "submittedDateTime": 1658142887, "completedDateTime": 1658188800, "amount": 23.35, "memo": "TST* Rotolo Bowling Southgate KY" },</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -7846,11 +7983,11 @@
       </c>
       <c r="G124" s="2" cm="1">
         <f t="array" aca="1" ref="G124" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>415908241586</v>
       </c>
       <c r="H124">
         <f t="shared" ca="1" si="5"/>
-        <v>1658234602</v>
+        <v>1658225034</v>
       </c>
       <c r="I124">
         <f t="shared" si="6"/>
@@ -7866,7 +8003,7 @@
       </c>
       <c r="L124" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1658234602, "completedDateTime": 1658275200, "amount": 12.18, "memo": "CHILI'S FLORENCE #1706 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 415908241586, "submittedDateTime": 1658225034, "completedDateTime": 1658275200, "amount": 12.18, "memo": "CHILI'S FLORENCE #1706 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -7884,11 +8021,11 @@
       </c>
       <c r="G125" s="2" cm="1">
         <f t="array" aca="1" ref="G125" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>912382282929</v>
+        <v>841242350153</v>
       </c>
       <c r="H125">
         <f t="shared" ca="1" si="5"/>
-        <v>1658272686</v>
+        <v>1658232476</v>
       </c>
       <c r="I125">
         <f t="shared" si="6"/>
@@ -7904,7 +8041,7 @@
       </c>
       <c r="L125" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 912382282929, "submittedDateTime": 1658272686, "completedDateTime": 1658275200, "amount": 15.68, "memo": "CHEDDAR'S 0202134 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1658232476, "completedDateTime": 1658275200, "amount": 15.68, "memo": "CHEDDAR'S 0202134 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -7922,11 +8059,11 @@
       </c>
       <c r="G126" s="2" cm="1">
         <f t="array" aca="1" ref="G126" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>124896572843</v>
       </c>
       <c r="H126">
         <f t="shared" ca="1" si="5"/>
-        <v>1658389825</v>
+        <v>1658437116</v>
       </c>
       <c r="I126">
         <f t="shared" si="6"/>
@@ -7942,7 +8079,7 @@
       </c>
       <c r="L126" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1658389825, "completedDateTime": 1658448000, "amount": 14.71, "memo": "SKYLINE CHILI 1003 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1658437116, "completedDateTime": 1658448000, "amount": 14.71, "memo": "SKYLINE CHILI 1003 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -7960,11 +8097,11 @@
       </c>
       <c r="G127" s="2" cm="1">
         <f t="array" aca="1" ref="G127" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>878290245627</v>
+        <v>239639548370</v>
       </c>
       <c r="H127">
         <f t="shared" ca="1" si="5"/>
-        <v>1658477885</v>
+        <v>1658472447</v>
       </c>
       <c r="I127">
         <f t="shared" si="6"/>
@@ -7980,7 +8117,7 @@
       </c>
       <c r="L127" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 878290245627, "submittedDateTime": 1658477885, "completedDateTime": 1658534400, "amount": 31.25, "memo": "KROGER #418 NORWOOD OH" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1658472447, "completedDateTime": 1658534400, "amount": 31.25, "memo": "KROGER #418 NORWOOD OH" },</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -7998,11 +8135,11 @@
       </c>
       <c r="G128" s="2" cm="1">
         <f t="array" aca="1" ref="G128" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>880440266700</v>
       </c>
       <c r="H128">
         <f t="shared" ca="1" si="5"/>
-        <v>1658586991</v>
+        <v>1658590218</v>
       </c>
       <c r="I128">
         <f t="shared" si="6"/>
@@ -8018,7 +8155,7 @@
       </c>
       <c r="L128" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1658586991, "completedDateTime": 1658620800, "amount": 71.15, "memo": "WALMART.COM AA 8009666546 AR" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1658590218, "completedDateTime": 1658620800, "amount": 71.15, "memo": "WALMART.COM AA 8009666546 AR" },</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -8036,11 +8173,11 @@
       </c>
       <c r="G129" s="2" cm="1">
         <f t="array" aca="1" ref="G129" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>493785208084</v>
+        <v>738295537013</v>
       </c>
       <c r="H129">
         <f t="shared" ca="1" si="5"/>
-        <v>1658794114</v>
+        <v>1658809647</v>
       </c>
       <c r="I129">
         <f t="shared" si="6"/>
@@ -8056,7 +8193,7 @@
       </c>
       <c r="L129" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 493785208084, "submittedDateTime": 1658794114, "completedDateTime": 1658880000, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
+        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1658809647, "completedDateTime": 1658880000, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -8074,11 +8211,11 @@
       </c>
       <c r="G130" s="2" cm="1">
         <f t="array" aca="1" ref="G130" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>580874205377</v>
+        <v>880440266700</v>
       </c>
       <c r="H130">
         <f t="shared" ca="1" si="5"/>
-        <v>1658829211</v>
+        <v>1658817418</v>
       </c>
       <c r="I130">
         <f t="shared" si="6"/>
@@ -8094,7 +8231,7 @@
       </c>
       <c r="L130" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 580874205377, "submittedDateTime": 1658829211, "completedDateTime": 1658880000, "amount": 60.61, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1658817418, "completedDateTime": 1658880000, "amount": 60.61, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -8112,11 +8249,11 @@
       </c>
       <c r="G131" s="2" cm="1">
         <f t="array" aca="1" ref="G131" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>912382282929</v>
+        <v>611022312294</v>
       </c>
       <c r="H131">
         <f t="shared" ref="H131:H194" ca="1" si="10">_xlfn.FLOOR.MATH((B131-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1658797613</v>
+        <v>1658795888</v>
       </c>
       <c r="I131">
         <f t="shared" ref="I131:I194" si="11">_xlfn.FLOOR.MATH((B131-DATE(1970,1,1)+1)*86400)</f>
@@ -8132,7 +8269,7 @@
       </c>
       <c r="L131" t="str">
         <f t="shared" ref="L131:L194" ca="1" si="14">"{ "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G131&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H131&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I131&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J131&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K131&amp;CHAR(34) &amp;" },"</f>
-        <v>{ "accountNumber": 912382282929, "submittedDateTime": 1658797613, "completedDateTime": 1658880000, "amount": 12.39, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
+        <v>{ "accountNumber": 611022312294, "submittedDateTime": 1658795888, "completedDateTime": 1658880000, "amount": 12.39, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -8150,11 +8287,11 @@
       </c>
       <c r="G132" s="2" cm="1">
         <f t="array" aca="1" ref="G132" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>816402439754</v>
+        <v>317595283947</v>
       </c>
       <c r="H132">
         <f t="shared" ca="1" si="10"/>
-        <v>1658944436</v>
+        <v>1658922710</v>
       </c>
       <c r="I132">
         <f t="shared" si="11"/>
@@ -8170,7 +8307,7 @@
       </c>
       <c r="L132" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 816402439754, "submittedDateTime": 1658944436, "completedDateTime": 1658966400, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
+        <v>{ "accountNumber": 317595283947, "submittedDateTime": 1658922710, "completedDateTime": 1658966400, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -8188,11 +8325,11 @@
       </c>
       <c r="G133" s="2" cm="1">
         <f t="array" aca="1" ref="G133" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>740429843322</v>
+        <v>124896572843</v>
       </c>
       <c r="H133">
         <f t="shared" ca="1" si="10"/>
-        <v>1659018621</v>
+        <v>1658972079</v>
       </c>
       <c r="I133">
         <f t="shared" si="11"/>
@@ -8208,7 +8345,7 @@
       </c>
       <c r="L133" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 740429843322, "submittedDateTime": 1659018621, "completedDateTime": 1659052800, "amount": -241.83, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1658972079, "completedDateTime": 1659052800, "amount": -241.83, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -8226,11 +8363,11 @@
       </c>
       <c r="G134" s="2" cm="1">
         <f t="array" aca="1" ref="G134" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>702342041804</v>
+        <v>392343538980</v>
       </c>
       <c r="H134">
         <f t="shared" ca="1" si="10"/>
-        <v>1659046075</v>
+        <v>1658993307</v>
       </c>
       <c r="I134">
         <f t="shared" si="11"/>
@@ -8246,7 +8383,7 @@
       </c>
       <c r="L134" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 702342041804, "submittedDateTime": 1659046075, "completedDateTime": 1659052800, "amount": 49.04, "memo": "PLAYSTATION NETWORK 800-345-7669 CA" },</v>
+        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1658993307, "completedDateTime": 1659052800, "amount": 49.04, "memo": "PLAYSTATION NETWORK 800-345-7669 CA" },</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -8264,11 +8401,11 @@
       </c>
       <c r="G135" s="2" cm="1">
         <f t="array" aca="1" ref="G135" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>2135029359261110</v>
+        <v>9960815475030200</v>
       </c>
       <c r="H135">
         <f t="shared" ca="1" si="10"/>
-        <v>1659177785</v>
+        <v>1659176867</v>
       </c>
       <c r="I135">
         <f t="shared" si="11"/>
@@ -8284,7 +8421,7 @@
       </c>
       <c r="L135" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 2135029359261110, "submittedDateTime": 1659177785, "completedDateTime": 1659225600, "amount": -129.67, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1659176867, "completedDateTime": 1659225600, "amount": -129.67, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -8302,11 +8439,11 @@
       </c>
       <c r="G136" s="2" cm="1">
         <f t="array" aca="1" ref="G136" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>493785208084</v>
+        <v>448414866651</v>
       </c>
       <c r="H136">
         <f t="shared" ca="1" si="10"/>
-        <v>1659202090</v>
+        <v>1659178439</v>
       </c>
       <c r="I136">
         <f t="shared" si="11"/>
@@ -8322,7 +8459,7 @@
       </c>
       <c r="L136" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 493785208084, "submittedDateTime": 1659202090, "completedDateTime": 1659225600, "amount": 150, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1659178439, "completedDateTime": 1659225600, "amount": 150, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -8340,11 +8477,11 @@
       </c>
       <c r="G137" s="2" cm="1">
         <f t="array" aca="1" ref="G137" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>319960975073</v>
+        <v>639474417673</v>
       </c>
       <c r="H137">
         <f t="shared" ca="1" si="10"/>
-        <v>1659290266</v>
+        <v>1659277599</v>
       </c>
       <c r="I137">
         <f t="shared" si="11"/>
@@ -8360,7 +8497,7 @@
       </c>
       <c r="L137" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 319960975073, "submittedDateTime": 1659290266, "completedDateTime": 1659312000, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
+        <v>{ "accountNumber": 639474417673, "submittedDateTime": 1659277599, "completedDateTime": 1659312000, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -8378,11 +8515,11 @@
       </c>
       <c r="G138" s="2" cm="1">
         <f t="array" aca="1" ref="G138" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>455902826381</v>
+        <v>345064774916</v>
       </c>
       <c r="H138">
         <f t="shared" ca="1" si="10"/>
-        <v>1659345170</v>
+        <v>1659383274</v>
       </c>
       <c r="I138">
         <f t="shared" si="11"/>
@@ -8398,7 +8535,7 @@
       </c>
       <c r="L138" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 455902826381, "submittedDateTime": 1659345170, "completedDateTime": 1659398400, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
+        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1659383274, "completedDateTime": 1659398400, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -8416,11 +8553,11 @@
       </c>
       <c r="G139" s="2" cm="1">
         <f t="array" aca="1" ref="G139" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>4602529412478380</v>
+        <v>463566446195</v>
       </c>
       <c r="H139">
         <f t="shared" ca="1" si="10"/>
-        <v>1659435888</v>
+        <v>1659465830</v>
       </c>
       <c r="I139">
         <f t="shared" si="11"/>
@@ -8436,7 +8573,7 @@
       </c>
       <c r="L139" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 4602529412478380, "submittedDateTime": 1659435888, "completedDateTime": 1659484800, "amount": 1.9, "memo": "WENDY'S - TURFWAY FLORENCE KY" },</v>
+        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1659465830, "completedDateTime": 1659484800, "amount": 1.9, "memo": "WENDY'S - TURFWAY FLORENCE KY" },</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -8454,11 +8591,11 @@
       </c>
       <c r="G140" s="2" cm="1">
         <f t="array" aca="1" ref="G140" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>816402439754</v>
+        <v>841242350153</v>
       </c>
       <c r="H140">
         <f t="shared" ca="1" si="10"/>
-        <v>1659526624</v>
+        <v>1659523253</v>
       </c>
       <c r="I140">
         <f t="shared" si="11"/>
@@ -8474,7 +8611,7 @@
       </c>
       <c r="L140" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 816402439754, "submittedDateTime": 1659526624, "completedDateTime": 1659571200, "amount": -111.91, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1659523253, "completedDateTime": 1659571200, "amount": -111.91, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -8492,11 +8629,11 @@
       </c>
       <c r="G141" s="2" cm="1">
         <f t="array" aca="1" ref="G141" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>740429843322</v>
+        <v>124896572843</v>
       </c>
       <c r="H141">
         <f t="shared" ca="1" si="10"/>
-        <v>1659724026</v>
+        <v>1659694943</v>
       </c>
       <c r="I141">
         <f t="shared" si="11"/>
@@ -8512,7 +8649,7 @@
       </c>
       <c r="L141" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 740429843322, "submittedDateTime": 1659724026, "completedDateTime": 1659744000, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1659694943, "completedDateTime": 1659744000, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -8530,11 +8667,11 @@
       </c>
       <c r="G142" s="2" cm="1">
         <f t="array" aca="1" ref="G142" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>813848868789</v>
+        <v>775440347177</v>
       </c>
       <c r="H142">
         <f t="shared" ca="1" si="10"/>
-        <v>1659887786</v>
+        <v>1659890750</v>
       </c>
       <c r="I142">
         <f t="shared" si="11"/>
@@ -8550,7 +8687,7 @@
       </c>
       <c r="L142" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 813848868789, "submittedDateTime": 1659887786, "completedDateTime": 1659916800, "amount": 13.23, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
+        <v>{ "accountNumber": 775440347177, "submittedDateTime": 1659890750, "completedDateTime": 1659916800, "amount": 13.23, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -8568,11 +8705,11 @@
       </c>
       <c r="G143" s="2" cm="1">
         <f t="array" aca="1" ref="G143" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5759197398046990</v>
+        <v>738295537013</v>
       </c>
       <c r="H143">
         <f t="shared" ca="1" si="10"/>
-        <v>1659973881</v>
+        <v>1659919166</v>
       </c>
       <c r="I143">
         <f t="shared" si="11"/>
@@ -8588,7 +8725,7 @@
       </c>
       <c r="L143" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 5759197398046990, "submittedDateTime": 1659973881, "completedDateTime": 1660003200, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1659919166, "completedDateTime": 1660003200, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -8606,11 +8743,11 @@
       </c>
       <c r="G144" s="2" cm="1">
         <f t="array" aca="1" ref="G144" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>841242350153</v>
       </c>
       <c r="H144">
         <f t="shared" ca="1" si="10"/>
-        <v>1659950831</v>
+        <v>1659987942</v>
       </c>
       <c r="I144">
         <f t="shared" si="11"/>
@@ -8626,7 +8763,7 @@
       </c>
       <c r="L144" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1659950831, "completedDateTime": 1660003200, "amount": 15.18, "memo": "PANERA BREAD #204911 P FLORENCE KY null XXXXXXXXXXXX4754" },</v>
+        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1659987942, "completedDateTime": 1660003200, "amount": 15.18, "memo": "PANERA BREAD #204911 P FLORENCE KY null XXXXXXXXXXXX4754" },</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -8644,11 +8781,11 @@
       </c>
       <c r="G145" s="2" cm="1">
         <f t="array" aca="1" ref="G145" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>349083181548</v>
+        <v>920756712810</v>
       </c>
       <c r="H145">
         <f t="shared" ca="1" si="10"/>
-        <v>1660013933</v>
+        <v>1660086408</v>
       </c>
       <c r="I145">
         <f t="shared" si="11"/>
@@ -8664,7 +8801,7 @@
       </c>
       <c r="L145" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 349083181548, "submittedDateTime": 1660013933, "completedDateTime": 1660089600, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
+        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1660086408, "completedDateTime": 1660089600, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -8682,11 +8819,11 @@
       </c>
       <c r="G146" s="2" cm="1">
         <f t="array" aca="1" ref="G146" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>694349861422</v>
+        <v>239639548370</v>
       </c>
       <c r="H146">
         <f t="shared" ca="1" si="10"/>
-        <v>1660168603</v>
+        <v>1660136183</v>
       </c>
       <c r="I146">
         <f t="shared" si="11"/>
@@ -8702,7 +8839,7 @@
       </c>
       <c r="L146" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 694349861422, "submittedDateTime": 1660168603, "completedDateTime": 1660176000, "amount": 12.65, "memo": "SQ *BAM BAM'S Florence KY" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1660136183, "completedDateTime": 1660176000, "amount": 12.65, "memo": "SQ *BAM BAM'S Florence KY" },</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -8720,11 +8857,11 @@
       </c>
       <c r="G147" s="2" cm="1">
         <f t="array" aca="1" ref="G147" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>526672870074</v>
+        <v>880440266700</v>
       </c>
       <c r="H147">
         <f t="shared" ca="1" si="10"/>
-        <v>1660383725</v>
+        <v>1660410616</v>
       </c>
       <c r="I147">
         <f t="shared" si="11"/>
@@ -8740,7 +8877,7 @@
       </c>
       <c r="L147" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 526672870074, "submittedDateTime": 1660383725, "completedDateTime": 1660435200, "amount": 60.61, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1660410616, "completedDateTime": 1660435200, "amount": 60.61, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -8758,11 +8895,11 @@
       </c>
       <c r="G148" s="2" cm="1">
         <f t="array" aca="1" ref="G148" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>380520842899</v>
+        <v>796355214780</v>
       </c>
       <c r="H148">
         <f t="shared" ca="1" si="10"/>
-        <v>1660397449</v>
+        <v>1660433961</v>
       </c>
       <c r="I148">
         <f t="shared" si="11"/>
@@ -8778,7 +8915,7 @@
       </c>
       <c r="L148" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 380520842899, "submittedDateTime": 1660397449, "completedDateTime": 1660435200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1660433961, "completedDateTime": 1660435200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -8796,11 +8933,11 @@
       </c>
       <c r="G149" s="2" cm="1">
         <f t="array" aca="1" ref="G149" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>380520842899</v>
+        <v>400535778457</v>
       </c>
       <c r="H149">
         <f t="shared" ca="1" si="10"/>
-        <v>1660379040</v>
+        <v>1660426582</v>
       </c>
       <c r="I149">
         <f t="shared" si="11"/>
@@ -8816,7 +8953,7 @@
       </c>
       <c r="L149" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 380520842899, "submittedDateTime": 1660379040, "completedDateTime": 1660435200, "amount": 1.05, "memo": "WENDY'S COVINGTON KY" },</v>
+        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1660426582, "completedDateTime": 1660435200, "amount": 1.05, "memo": "WENDY'S COVINGTON KY" },</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -8834,11 +8971,11 @@
       </c>
       <c r="G150" s="2" cm="1">
         <f t="array" aca="1" ref="G150" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>912382282929</v>
+        <v>463566446195</v>
       </c>
       <c r="H150">
         <f t="shared" ca="1" si="10"/>
-        <v>1660489212</v>
+        <v>1660490264</v>
       </c>
       <c r="I150">
         <f t="shared" si="11"/>
@@ -8854,7 +8991,7 @@
       </c>
       <c r="L150" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 912382282929, "submittedDateTime": 1660489212, "completedDateTime": 1660521600, "amount": 148.33, "memo": "BEST BUY 00001610 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1660490264, "completedDateTime": 1660521600, "amount": 148.33, "memo": "BEST BUY 00001610 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -8872,11 +9009,11 @@
       </c>
       <c r="G151" s="2" cm="1">
         <f t="array" aca="1" ref="G151" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>4602529412478380</v>
+        <v>451100491187</v>
       </c>
       <c r="H151">
         <f t="shared" ca="1" si="10"/>
-        <v>1660472981</v>
+        <v>1660499556</v>
       </c>
       <c r="I151">
         <f t="shared" si="11"/>
@@ -8892,7 +9029,7 @@
       </c>
       <c r="L151" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 4602529412478380, "submittedDateTime": 1660472981, "completedDateTime": 1660521600, "amount": 241.17, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1660499556, "completedDateTime": 1660521600, "amount": 241.17, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -8910,11 +9047,11 @@
       </c>
       <c r="G152" s="2" cm="1">
         <f t="array" aca="1" ref="G152" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>6825686927341160</v>
       </c>
       <c r="H152">
         <f t="shared" ca="1" si="10"/>
-        <v>1660565979</v>
+        <v>1660591114</v>
       </c>
       <c r="I152">
         <f t="shared" si="11"/>
@@ -8930,7 +9067,7 @@
       </c>
       <c r="L152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1660565979, "completedDateTime": 1660608000, "amount": 7.41, "memo": "TST* Rotolo Bowling Southgate KY" },</v>
+        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1660591114, "completedDateTime": 1660608000, "amount": 7.41, "memo": "TST* Rotolo Bowling Southgate KY" },</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -8948,11 +9085,11 @@
       </c>
       <c r="G153" s="2" cm="1">
         <f t="array" aca="1" ref="G153" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>506647536492</v>
+        <v>201485841067</v>
       </c>
       <c r="H153">
         <f t="shared" ca="1" si="10"/>
-        <v>1660560920</v>
+        <v>1660532248</v>
       </c>
       <c r="I153">
         <f t="shared" si="11"/>
@@ -8968,7 +9105,7 @@
       </c>
       <c r="L153" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 506647536492, "submittedDateTime": 1660560920, "completedDateTime": 1660608000, "amount": 11.71, "memo": "CHIPOTLE 2579 COVINGTON KY" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1660532248, "completedDateTime": 1660608000, "amount": 11.71, "memo": "CHIPOTLE 2579 COVINGTON KY" },</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -8986,11 +9123,11 @@
       </c>
       <c r="G154" s="2" cm="1">
         <f t="array" aca="1" ref="G154" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>949180303947</v>
+        <v>942613689574</v>
       </c>
       <c r="H154">
         <f t="shared" ca="1" si="10"/>
-        <v>1660527191</v>
+        <v>1660533523</v>
       </c>
       <c r="I154">
         <f t="shared" si="11"/>
@@ -9006,7 +9143,7 @@
       </c>
       <c r="L154" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 949180303947, "submittedDateTime": 1660527191, "completedDateTime": 1660608000, "amount": 21.93, "memo": "TST* Rotolo Bowling Southgate KY null XXXXXXXXXXXX4754" },</v>
+        <v>{ "accountNumber": 942613689574, "submittedDateTime": 1660533523, "completedDateTime": 1660608000, "amount": 21.93, "memo": "TST* Rotolo Bowling Southgate KY null XXXXXXXXXXXX4754" },</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -9024,11 +9161,11 @@
       </c>
       <c r="G155" s="2" cm="1">
         <f t="array" aca="1" ref="G155" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>841242350153</v>
       </c>
       <c r="H155">
         <f t="shared" ca="1" si="10"/>
-        <v>1660712148</v>
+        <v>1660754718</v>
       </c>
       <c r="I155">
         <f t="shared" si="11"/>
@@ -9044,7 +9181,7 @@
       </c>
       <c r="L155" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1660712148, "completedDateTime": 1660780800, "amount": -148.33, "memo": "BEST BUY 00001610 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1660754718, "completedDateTime": 1660780800, "amount": -148.33, "memo": "BEST BUY 00001610 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -9062,11 +9199,11 @@
       </c>
       <c r="G156" s="2" cm="1">
         <f t="array" aca="1" ref="G156" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>702342041804</v>
+        <v>611022312294</v>
       </c>
       <c r="H156">
         <f t="shared" ca="1" si="10"/>
-        <v>1660792866</v>
+        <v>1660847739</v>
       </c>
       <c r="I156">
         <f t="shared" si="11"/>
@@ -9082,7 +9219,7 @@
       </c>
       <c r="L156" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 702342041804, "submittedDateTime": 1660792866, "completedDateTime": 1660867200, "amount": 7.99, "memo": "SKYLINE CHILI 1033 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 611022312294, "submittedDateTime": 1660847739, "completedDateTime": 1660867200, "amount": 7.99, "memo": "SKYLINE CHILI 1033 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -9100,11 +9237,11 @@
       </c>
       <c r="G157" s="2" cm="1">
         <f t="array" aca="1" ref="G157" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>239639548370</v>
       </c>
       <c r="H157">
         <f t="shared" ca="1" si="10"/>
-        <v>1661009770</v>
+        <v>1661034656</v>
       </c>
       <c r="I157">
         <f t="shared" si="11"/>
@@ -9120,7 +9257,7 @@
       </c>
       <c r="L157" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1661009770, "completedDateTime": 1661040000, "amount": 13, "memo": "THE ECHO RESTAURANT CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1661034656, "completedDateTime": 1661040000, "amount": 13, "memo": "THE ECHO RESTAURANT CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -9138,11 +9275,11 @@
       </c>
       <c r="G158" s="2" cm="1">
         <f t="array" aca="1" ref="G158" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>4602529412478380</v>
+        <v>147583745557</v>
       </c>
       <c r="H158">
         <f t="shared" ca="1" si="10"/>
-        <v>1661280699</v>
+        <v>1661231497</v>
       </c>
       <c r="I158">
         <f t="shared" si="11"/>
@@ -9158,7 +9295,7 @@
       </c>
       <c r="L158" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 4602529412478380, "submittedDateTime": 1661280699, "completedDateTime": 1661299200, "amount": 23.98, "memo": "FRONTIERCD5NUT DENVER CO" },</v>
+        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1661231497, "completedDateTime": 1661299200, "amount": 23.98, "memo": "FRONTIERCD5NUT DENVER CO" },</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -9176,11 +9313,11 @@
       </c>
       <c r="G159" s="2" cm="1">
         <f t="array" aca="1" ref="G159" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5759197398046990</v>
+        <v>341796193771</v>
       </c>
       <c r="H159">
         <f t="shared" ca="1" si="10"/>
-        <v>1661282415</v>
+        <v>1661233244</v>
       </c>
       <c r="I159">
         <f t="shared" si="11"/>
@@ -9196,7 +9333,7 @@
       </c>
       <c r="L159" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 5759197398046990, "submittedDateTime": 1661282415, "completedDateTime": 1661299200, "amount": 123.98, "memo": "FRONTIERQCM3YJ DENVER CO" },</v>
+        <v>{ "accountNumber": 341796193771, "submittedDateTime": 1661233244, "completedDateTime": 1661299200, "amount": 123.98, "memo": "FRONTIERQCM3YJ DENVER CO" },</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -9214,11 +9351,11 @@
       </c>
       <c r="G160" s="2" cm="1">
         <f t="array" aca="1" ref="G160" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>942613689574</v>
       </c>
       <c r="H160">
         <f t="shared" ca="1" si="10"/>
-        <v>1661248579</v>
+        <v>1661246439</v>
       </c>
       <c r="I160">
         <f t="shared" si="11"/>
@@ -9234,7 +9371,7 @@
       </c>
       <c r="L160" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1661248579, "completedDateTime": 1661299200, "amount": 153.6, "memo": "AMERICAN00178489934733 NORWALK CT" },</v>
+        <v>{ "accountNumber": 942613689574, "submittedDateTime": 1661246439, "completedDateTime": 1661299200, "amount": 153.6, "memo": "AMERICAN00178489934733 NORWALK CT" },</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -9252,11 +9389,11 @@
       </c>
       <c r="G161" s="2" cm="1">
         <f t="array" aca="1" ref="G161" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>740429843322</v>
+        <v>400535778457</v>
       </c>
       <c r="H161">
         <f t="shared" ca="1" si="10"/>
-        <v>1661324085</v>
+        <v>1661326442</v>
       </c>
       <c r="I161">
         <f t="shared" si="11"/>
@@ -9272,7 +9409,7 @@
       </c>
       <c r="L161" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 740429843322, "submittedDateTime": 1661324085, "completedDateTime": 1661385600, "amount": 18.1, "memo": "PRICELN*TVL PROTECT 800-774-2354 CT" },</v>
+        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1661326442, "completedDateTime": 1661385600, "amount": 18.1, "memo": "PRICELN*TVL PROTECT 800-774-2354 CT" },</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -9290,11 +9427,11 @@
       </c>
       <c r="G162" s="2" cm="1">
         <f t="array" aca="1" ref="G162" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>493785208084</v>
+        <v>841242350153</v>
       </c>
       <c r="H162">
         <f t="shared" ca="1" si="10"/>
-        <v>1661421435</v>
+        <v>1661466871</v>
       </c>
       <c r="I162">
         <f t="shared" si="11"/>
@@ -9310,7 +9447,7 @@
       </c>
       <c r="L162" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 493785208084, "submittedDateTime": 1661421435, "completedDateTime": 1661472000, "amount": 15.99, "memo": "TVP INC/LA ROSA S NORW CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1661466871, "completedDateTime": 1661472000, "amount": 15.99, "memo": "TVP INC/LA ROSA S NORW CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -9328,11 +9465,11 @@
       </c>
       <c r="G163" s="2" cm="1">
         <f t="array" aca="1" ref="G163" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>932085600435</v>
+        <v>6825686927341160</v>
       </c>
       <c r="H163">
         <f t="shared" ca="1" si="10"/>
-        <v>1661498966</v>
+        <v>1661485070</v>
       </c>
       <c r="I163">
         <f t="shared" si="11"/>
@@ -9348,7 +9485,7 @@
       </c>
       <c r="L163" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 932085600435, "submittedDateTime": 1661498966, "completedDateTime": 1661558400, "amount": -319.66, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1661485070, "completedDateTime": 1661558400, "amount": -319.66, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -9366,11 +9503,11 @@
       </c>
       <c r="G164" s="2" cm="1">
         <f t="array" aca="1" ref="G164" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>912382282929</v>
+        <v>317595283947</v>
       </c>
       <c r="H164">
         <f t="shared" ca="1" si="10"/>
-        <v>1661501671</v>
+        <v>1661548859</v>
       </c>
       <c r="I164">
         <f t="shared" si="11"/>
@@ -9386,7 +9523,7 @@
       </c>
       <c r="L164" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 912382282929, "submittedDateTime": 1661501671, "completedDateTime": 1661558400, "amount": -530.85, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 317595283947, "submittedDateTime": 1661548859, "completedDateTime": 1661558400, "amount": -530.85, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -9404,11 +9541,11 @@
       </c>
       <c r="G165" s="2" cm="1">
         <f t="array" aca="1" ref="G165" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>374971930009</v>
+        <v>9341099753883370</v>
       </c>
       <c r="H165">
         <f t="shared" ca="1" si="10"/>
-        <v>1661537261</v>
+        <v>1661499798</v>
       </c>
       <c r="I165">
         <f t="shared" si="11"/>
@@ -9424,7 +9561,7 @@
       </c>
       <c r="L165" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 374971930009, "submittedDateTime": 1661537261, "completedDateTime": 1661558400, "amount": 29.56, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1661499798, "completedDateTime": 1661558400, "amount": 29.56, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -9442,11 +9579,11 @@
       </c>
       <c r="G166" s="2" cm="1">
         <f t="array" aca="1" ref="G166" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>580874205377</v>
+        <v>9341099753883370</v>
       </c>
       <c r="H166">
         <f t="shared" ca="1" si="10"/>
-        <v>1661560013</v>
+        <v>1661571062</v>
       </c>
       <c r="I166">
         <f t="shared" si="11"/>
@@ -9462,7 +9599,7 @@
       </c>
       <c r="L166" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 580874205377, "submittedDateTime": 1661560013, "completedDateTime": 1661644800, "amount": 12.93, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1661571062, "completedDateTime": 1661644800, "amount": 12.93, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -9480,11 +9617,11 @@
       </c>
       <c r="G167" s="2" cm="1">
         <f t="array" aca="1" ref="G167" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>2135029359261110</v>
+        <v>201485841067</v>
       </c>
       <c r="H167">
         <f t="shared" ca="1" si="10"/>
-        <v>1661559026</v>
+        <v>1661628189</v>
       </c>
       <c r="I167">
         <f t="shared" si="11"/>
@@ -9500,7 +9637,7 @@
       </c>
       <c r="L167" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 2135029359261110, "submittedDateTime": 1661559026, "completedDateTime": 1661644800, "amount": 53.58, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1661628189, "completedDateTime": 1661644800, "amount": 53.58, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -9518,11 +9655,11 @@
       </c>
       <c r="G168" s="2" cm="1">
         <f t="array" aca="1" ref="G168" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>443154468389</v>
+        <v>147583745557</v>
       </c>
       <c r="H168">
         <f t="shared" ca="1" si="10"/>
-        <v>1661598460</v>
+        <v>1661584292</v>
       </c>
       <c r="I168">
         <f t="shared" si="11"/>
@@ -9538,7 +9675,7 @@
       </c>
       <c r="L168" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 443154468389, "submittedDateTime": 1661598460, "completedDateTime": 1661644800, "amount": 9.69, "memo": "China Max CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1661584292, "completedDateTime": 1661644800, "amount": 9.69, "memo": "China Max CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -9556,11 +9693,11 @@
       </c>
       <c r="G169" s="2" cm="1">
         <f t="array" aca="1" ref="G169" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>912382282929</v>
+        <v>611022312294</v>
       </c>
       <c r="H169">
         <f t="shared" ca="1" si="10"/>
-        <v>1661667803</v>
+        <v>1661678917</v>
       </c>
       <c r="I169">
         <f t="shared" si="11"/>
@@ -9576,7 +9713,7 @@
       </c>
       <c r="L169" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 912382282929, "submittedDateTime": 1661667803, "completedDateTime": 1661731200, "amount": 5.51, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" },</v>
+        <v>{ "accountNumber": 611022312294, "submittedDateTime": 1661678917, "completedDateTime": 1661731200, "amount": 5.51, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" },</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -9594,11 +9731,11 @@
       </c>
       <c r="G170" s="2" cm="1">
         <f t="array" aca="1" ref="G170" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>493785208084</v>
+        <v>796355214780</v>
       </c>
       <c r="H170">
         <f t="shared" ca="1" si="10"/>
-        <v>1661706273</v>
+        <v>1661725961</v>
       </c>
       <c r="I170">
         <f t="shared" si="11"/>
@@ -9614,7 +9751,7 @@
       </c>
       <c r="L170" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 493785208084, "submittedDateTime": 1661706273, "completedDateTime": 1661731200, "amount": 220.48, "memo": "CITY OF NORWOOD 513-458-4500 OH" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1661725961, "completedDateTime": 1661731200, "amount": 220.48, "memo": "CITY OF NORWOOD 513-458-4500 OH" },</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -9632,11 +9769,11 @@
       </c>
       <c r="G171" s="2" cm="1">
         <f t="array" aca="1" ref="G171" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>380520842899</v>
+        <v>415908241586</v>
       </c>
       <c r="H171">
         <f t="shared" ca="1" si="10"/>
-        <v>1661764296</v>
+        <v>1661809360</v>
       </c>
       <c r="I171">
         <f t="shared" si="11"/>
@@ -9652,7 +9789,7 @@
       </c>
       <c r="L171" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 380520842899, "submittedDateTime": 1661764296, "completedDateTime": 1661817600, "amount": 62, "memo": "FRONTIERQCM3YJ DENVER CO" },</v>
+        <v>{ "accountNumber": 415908241586, "submittedDateTime": 1661809360, "completedDateTime": 1661817600, "amount": 62, "memo": "FRONTIERQCM3YJ DENVER CO" },</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -9670,11 +9807,11 @@
       </c>
       <c r="G172" s="2" cm="1">
         <f t="array" aca="1" ref="G172" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>7266005428392410</v>
+        <v>639474417673</v>
       </c>
       <c r="H172">
         <f t="shared" ca="1" si="10"/>
-        <v>1661858743</v>
+        <v>1661839268</v>
       </c>
       <c r="I172">
         <f t="shared" si="11"/>
@@ -9690,7 +9827,7 @@
       </c>
       <c r="L172" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 7266005428392410, "submittedDateTime": 1661858743, "completedDateTime": 1661904000, "amount": 7.64, "memo": "KFC/PHX I675001 DENVER CO" },</v>
+        <v>{ "accountNumber": 639474417673, "submittedDateTime": 1661839268, "completedDateTime": 1661904000, "amount": 7.64, "memo": "KFC/PHX I675001 DENVER CO" },</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
@@ -9708,11 +9845,11 @@
       </c>
       <c r="G173" s="2" cm="1">
         <f t="array" aca="1" ref="G173" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>374971930009</v>
+        <v>9341099753883370</v>
       </c>
       <c r="H173">
         <f t="shared" ca="1" si="10"/>
-        <v>1661883229</v>
+        <v>1661824544</v>
       </c>
       <c r="I173">
         <f t="shared" si="11"/>
@@ -9728,7 +9865,7 @@
       </c>
       <c r="L173" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 374971930009, "submittedDateTime": 1661883229, "completedDateTime": 1661904000, "amount": 29.95, "memo": "MOERLEIN BREW PUB A CV CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1661824544, "completedDateTime": 1661904000, "amount": 29.95, "memo": "MOERLEIN BREW PUB A CV CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -9746,11 +9883,11 @@
       </c>
       <c r="G174" s="2" cm="1">
         <f t="array" aca="1" ref="G174" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5747011025075570</v>
+        <v>9341099753883370</v>
       </c>
       <c r="H174">
         <f t="shared" ca="1" si="10"/>
-        <v>1661900246</v>
+        <v>1661887085</v>
       </c>
       <c r="I174">
         <f t="shared" si="11"/>
@@ -9766,7 +9903,7 @@
       </c>
       <c r="L174" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 5747011025075570, "submittedDateTime": 1661900246, "completedDateTime": 1661904000, "amount": 36.59, "memo": "HENDERSONTAXI LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1661887085, "completedDateTime": 1661904000, "amount": 36.59, "memo": "HENDERSONTAXI LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -9784,11 +9921,11 @@
       </c>
       <c r="G175" s="2" cm="1">
         <f t="array" aca="1" ref="G175" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>738295537013</v>
       </c>
       <c r="H175">
         <f t="shared" ca="1" si="10"/>
-        <v>1661987707</v>
+        <v>1661971410</v>
       </c>
       <c r="I175">
         <f t="shared" si="11"/>
@@ -9804,7 +9941,7 @@
       </c>
       <c r="L175" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1661987707, "completedDateTime": 1661990400, "amount": 486.99, "memo": "LONDON SUITS LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1661971410, "completedDateTime": 1661990400, "amount": 486.99, "memo": "LONDON SUITS LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -9822,11 +9959,11 @@
       </c>
       <c r="G176" s="2" cm="1">
         <f t="array" aca="1" ref="G176" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>506647536492</v>
+        <v>611022312294</v>
       </c>
       <c r="H176">
         <f t="shared" ca="1" si="10"/>
-        <v>1661959114</v>
+        <v>1661982999</v>
       </c>
       <c r="I176">
         <f t="shared" si="11"/>
@@ -9842,7 +9979,7 @@
       </c>
       <c r="L176" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 506647536492, "submittedDateTime": 1661959114, "completedDateTime": 1661990400, "amount": 17.08, "memo": "FLAMINGO CASINO SVCS B LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 611022312294, "submittedDateTime": 1661982999, "completedDateTime": 1661990400, "amount": 17.08, "memo": "FLAMINGO CASINO SVCS B LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -9860,11 +9997,11 @@
       </c>
       <c r="G177" s="2" cm="1">
         <f t="array" aca="1" ref="G177" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>580874205377</v>
+        <v>639474417673</v>
       </c>
       <c r="H177">
         <f t="shared" ca="1" si="10"/>
-        <v>1662147135</v>
+        <v>1662162419</v>
       </c>
       <c r="I177">
         <f t="shared" si="11"/>
@@ -9880,7 +10017,7 @@
       </c>
       <c r="L177" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 580874205377, "submittedDateTime": 1662147135, "completedDateTime": 1662163200, "amount": 24.5, "memo": "AREA15 LAS VEGAS LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 639474417673, "submittedDateTime": 1662162419, "completedDateTime": 1662163200, "amount": 24.5, "memo": "AREA15 LAS VEGAS LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -9898,11 +10035,11 @@
       </c>
       <c r="G178" s="2" cm="1">
         <f t="array" aca="1" ref="G178" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>878290245627</v>
+        <v>448414866651</v>
       </c>
       <c r="H178">
         <f t="shared" ca="1" si="10"/>
-        <v>1662156220</v>
+        <v>1662162448</v>
       </c>
       <c r="I178">
         <f t="shared" si="11"/>
@@ -9918,7 +10055,7 @@
       </c>
       <c r="L178" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 878290245627, "submittedDateTime": 1662156220, "completedDateTime": 1662163200, "amount": 67, "memo": "FRONTIERCD5NUT DENVER CO" },</v>
+        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1662162448, "completedDateTime": 1662163200, "amount": 67, "memo": "FRONTIERCD5NUT DENVER CO" },</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -9936,11 +10073,11 @@
       </c>
       <c r="G179" s="2" cm="1">
         <f t="array" aca="1" ref="G179" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>4602529412478380</v>
+        <v>345064774916</v>
       </c>
       <c r="H179">
         <f t="shared" ca="1" si="10"/>
-        <v>1662143473</v>
+        <v>1662147291</v>
       </c>
       <c r="I179">
         <f t="shared" si="11"/>
@@ -9956,7 +10093,7 @@
       </c>
       <c r="L179" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 4602529412478380, "submittedDateTime": 1662143473, "completedDateTime": 1662163200, "amount": 79, "memo": "HOTELTONIGHTFLAMINGO 8333380302 CA null XXXXXXXXXXXX3562" },</v>
+        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1662147291, "completedDateTime": 1662163200, "amount": 79, "memo": "HOTELTONIGHTFLAMINGO 8333380302 CA null XXXXXXXXXXXX3562" },</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -9974,11 +10111,11 @@
       </c>
       <c r="G180" s="2" cm="1">
         <f t="array" aca="1" ref="G180" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>694349861422</v>
+        <v>602971727973</v>
       </c>
       <c r="H180">
         <f t="shared" ca="1" si="10"/>
-        <v>1662122962</v>
+        <v>1662150102</v>
       </c>
       <c r="I180">
         <f t="shared" si="11"/>
@@ -9994,7 +10131,7 @@
       </c>
       <c r="L180" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 694349861422, "submittedDateTime": 1662122962, "completedDateTime": 1662163200, "amount": 9, "memo": "EMPORIUM LAS VEGAS LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 602971727973, "submittedDateTime": 1662150102, "completedDateTime": 1662163200, "amount": 9, "memo": "EMPORIUM LAS VEGAS LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -10012,11 +10149,11 @@
       </c>
       <c r="G181" s="2" cm="1">
         <f t="array" aca="1" ref="G181" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>942613689574</v>
       </c>
       <c r="H181">
         <f t="shared" ca="1" si="10"/>
-        <v>1662110546</v>
+        <v>1662148021</v>
       </c>
       <c r="I181">
         <f t="shared" si="11"/>
@@ -10032,7 +10169,7 @@
       </c>
       <c r="L181" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1662110546, "completedDateTime": 1662163200, "amount": 9, "memo": "EMPORIUM LAS VEGAS LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 942613689574, "submittedDateTime": 1662148021, "completedDateTime": 1662163200, "amount": 9, "memo": "EMPORIUM LAS VEGAS LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -10050,11 +10187,11 @@
       </c>
       <c r="G182" s="2" cm="1">
         <f t="array" aca="1" ref="G182" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>4602529412478380</v>
+        <v>9341099753883370</v>
       </c>
       <c r="H182">
         <f t="shared" ca="1" si="10"/>
-        <v>1662137982</v>
+        <v>1662123044</v>
       </c>
       <c r="I182">
         <f t="shared" si="11"/>
@@ -10070,7 +10207,7 @@
       </c>
       <c r="L182" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 4602529412478380, "submittedDateTime": 1662137982, "completedDateTime": 1662163200, "amount": 144, "memo": "CAT S MEOW OF VEGAS LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1662123044, "completedDateTime": 1662163200, "amount": 144, "memo": "CAT S MEOW OF VEGAS LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -10088,11 +10225,11 @@
       </c>
       <c r="G183" s="2" cm="1">
         <f t="array" aca="1" ref="G183" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>878290245627</v>
+        <v>917325385866</v>
       </c>
       <c r="H183">
         <f t="shared" ca="1" si="10"/>
-        <v>1662177018</v>
+        <v>1662238417</v>
       </c>
       <c r="I183">
         <f t="shared" si="11"/>
@@ -10108,7 +10245,7 @@
       </c>
       <c r="L183" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 878290245627, "submittedDateTime": 1662177018, "completedDateTime": 1662249600, "amount": 45.3, "memo": "FLAMINGO HOTEL LAS VEG LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1662238417, "completedDateTime": 1662249600, "amount": 45.3, "memo": "FLAMINGO HOTEL LAS VEG LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -10126,11 +10263,11 @@
       </c>
       <c r="G184" s="2" cm="1">
         <f t="array" aca="1" ref="G184" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>111079255746</v>
+        <v>124896572843</v>
       </c>
       <c r="H184">
         <f t="shared" ca="1" si="10"/>
-        <v>1662271652</v>
+        <v>1662259465</v>
       </c>
       <c r="I184">
         <f t="shared" si="11"/>
@@ -10146,7 +10283,7 @@
       </c>
       <c r="L184" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 111079255746, "submittedDateTime": 1662271652, "completedDateTime": 1662336000, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1662259465, "completedDateTime": 1662336000, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -10164,11 +10301,11 @@
       </c>
       <c r="G185" s="2" cm="1">
         <f t="array" aca="1" ref="G185" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>443154468389</v>
+        <v>3751589599326980</v>
       </c>
       <c r="H185">
         <f t="shared" ca="1" si="10"/>
-        <v>1662403053</v>
+        <v>1662357098</v>
       </c>
       <c r="I185">
         <f t="shared" si="11"/>
@@ -10184,7 +10321,7 @@
       </c>
       <c r="L185" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 443154468389, "submittedDateTime": 1662403053, "completedDateTime": 1662422400, "amount": 52.41, "memo": "ZAP*ZAPPOS.COM 800-927-7671 NV" },</v>
+        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1662357098, "completedDateTime": 1662422400, "amount": 52.41, "memo": "ZAP*ZAPPOS.COM 800-927-7671 NV" },</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -10202,11 +10339,11 @@
       </c>
       <c r="G186" s="2" cm="1">
         <f t="array" aca="1" ref="G186" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>448414866651</v>
       </c>
       <c r="H186">
         <f t="shared" ca="1" si="10"/>
-        <v>1662341233</v>
+        <v>1662379815</v>
       </c>
       <c r="I186">
         <f t="shared" si="11"/>
@@ -10222,7 +10359,7 @@
       </c>
       <c r="L186" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1662341233, "completedDateTime": 1662422400, "amount": 40.25, "memo": "AA WOK DAYTON KY" },</v>
+        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1662379815, "completedDateTime": 1662422400, "amount": 40.25, "memo": "AA WOK DAYTON KY" },</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -10240,11 +10377,11 @@
       </c>
       <c r="G187" s="2" cm="1">
         <f t="array" aca="1" ref="G187" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>738295537013</v>
       </c>
       <c r="H187">
         <f t="shared" ca="1" si="10"/>
-        <v>1662336722</v>
+        <v>1662371201</v>
       </c>
       <c r="I187">
         <f t="shared" si="11"/>
@@ -10260,7 +10397,7 @@
       </c>
       <c r="L187" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1662336722, "completedDateTime": 1662422400, "amount": 66, "memo": "CINCINNATI AIRPORT 986 ERLANGER KY" },</v>
+        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1662371201, "completedDateTime": 1662422400, "amount": 66, "memo": "CINCINNATI AIRPORT 986 ERLANGER KY" },</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -10278,11 +10415,11 @@
       </c>
       <c r="G188" s="2" cm="1">
         <f t="array" aca="1" ref="G188" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>908799996285</v>
+        <v>451100491187</v>
       </c>
       <c r="H188">
         <f t="shared" ca="1" si="10"/>
-        <v>1662392891</v>
+        <v>1662385078</v>
       </c>
       <c r="I188">
         <f t="shared" si="11"/>
@@ -10298,7 +10435,7 @@
       </c>
       <c r="L188" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 908799996285, "submittedDateTime": 1662392891, "completedDateTime": 1662422400, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1662385078, "completedDateTime": 1662422400, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -10316,11 +10453,11 @@
       </c>
       <c r="G189" s="2" cm="1">
         <f t="array" aca="1" ref="G189" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>380520842899</v>
+        <v>6825686927341160</v>
       </c>
       <c r="H189">
         <f t="shared" ca="1" si="10"/>
-        <v>1662502853</v>
+        <v>1662463171</v>
       </c>
       <c r="I189">
         <f t="shared" si="11"/>
@@ -10336,7 +10473,7 @@
       </c>
       <c r="L189" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 380520842899, "submittedDateTime": 1662502853, "completedDateTime": 1662508800, "amount": 50.94, "memo": "HELLOFRESH 646-8463663 NY" },</v>
+        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1662463171, "completedDateTime": 1662508800, "amount": 50.94, "memo": "HELLOFRESH 646-8463663 NY" },</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -10354,11 +10491,11 @@
       </c>
       <c r="G190" s="2" cm="1">
         <f t="array" aca="1" ref="G190" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5747011025075570</v>
+        <v>796355214780</v>
       </c>
       <c r="H190">
         <f t="shared" ca="1" si="10"/>
-        <v>1662484839</v>
+        <v>1662452390</v>
       </c>
       <c r="I190">
         <f t="shared" si="11"/>
@@ -10374,7 +10511,7 @@
       </c>
       <c r="L190" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 5747011025075570, "submittedDateTime": 1662484839, "completedDateTime": 1662508800, "amount": 224.26, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1662452390, "completedDateTime": 1662508800, "amount": 224.26, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -10392,11 +10529,11 @@
       </c>
       <c r="G191" s="2" cm="1">
         <f t="array" aca="1" ref="G191" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>702342041804</v>
+        <v>9960815475030200</v>
       </c>
       <c r="H191">
         <f t="shared" ca="1" si="10"/>
-        <v>1662551782</v>
+        <v>1662519300</v>
       </c>
       <c r="I191">
         <f t="shared" si="11"/>
@@ -10412,7 +10549,7 @@
       </c>
       <c r="L191" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 702342041804, "submittedDateTime": 1662551782, "completedDateTime": 1662595200, "amount": 5.39, "memo": "CKO*PATREON* MEMBERSHI 833-9728766 CA" },</v>
+        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1662519300, "completedDateTime": 1662595200, "amount": 5.39, "memo": "CKO*PATREON* MEMBERSHI 833-9728766 CA" },</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -10430,11 +10567,11 @@
       </c>
       <c r="G192" s="2" cm="1">
         <f t="array" aca="1" ref="G192" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>878290245627</v>
+        <v>400535778457</v>
       </c>
       <c r="H192">
         <f t="shared" ca="1" si="10"/>
-        <v>1662624467</v>
+        <v>1662673301</v>
       </c>
       <c r="I192">
         <f t="shared" si="11"/>
@@ -10450,7 +10587,7 @@
       </c>
       <c r="L192" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 878290245627, "submittedDateTime": 1662624467, "completedDateTime": 1662681600, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1662673301, "completedDateTime": 1662681600, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -10468,11 +10605,11 @@
       </c>
       <c r="G193" s="2" cm="1">
         <f t="array" aca="1" ref="G193" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5759197398046990</v>
+        <v>345064774916</v>
       </c>
       <c r="H193">
         <f t="shared" ca="1" si="10"/>
-        <v>1662690531</v>
+        <v>1662706366</v>
       </c>
       <c r="I193">
         <f t="shared" si="11"/>
@@ -10488,7 +10625,7 @@
       </c>
       <c r="L193" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 5759197398046990, "submittedDateTime": 1662690531, "completedDateTime": 1662768000, "amount": 16.59, "memo": "LA ROSA'S HYDE PARK 513-984-3870 OH" },</v>
+        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1662706366, "completedDateTime": 1662768000, "amount": 16.59, "memo": "LA ROSA'S HYDE PARK 513-984-3870 OH" },</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -10506,11 +10643,11 @@
       </c>
       <c r="G194" s="2" cm="1">
         <f t="array" aca="1" ref="G194" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>702342041804</v>
+        <v>880440266700</v>
       </c>
       <c r="H194">
         <f t="shared" ca="1" si="10"/>
-        <v>1662761812</v>
+        <v>1662749434</v>
       </c>
       <c r="I194">
         <f t="shared" si="11"/>
@@ -10526,7 +10663,7 @@
       </c>
       <c r="L194" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 702342041804, "submittedDateTime": 1662761812, "completedDateTime": 1662768000, "amount": 97.93, "memo": "RED BANK FINE WINE CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1662749434, "completedDateTime": 1662768000, "amount": 97.93, "memo": "RED BANK FINE WINE CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -10544,11 +10681,11 @@
       </c>
       <c r="G195" s="2" cm="1">
         <f t="array" aca="1" ref="G195" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>816402439754</v>
+        <v>9960815475030200</v>
       </c>
       <c r="H195">
         <f t="shared" ref="H195:H258" ca="1" si="15">_xlfn.FLOOR.MATH((B195-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1662760549</v>
+        <v>1662713714</v>
       </c>
       <c r="I195">
         <f t="shared" ref="I195:I258" si="16">_xlfn.FLOOR.MATH((B195-DATE(1970,1,1)+1)*86400)</f>
@@ -10564,7 +10701,7 @@
       </c>
       <c r="L195" t="str">
         <f t="shared" ref="L195:L258" ca="1" si="19">"{ "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G195&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H195&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I195&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J195&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K195&amp;CHAR(34) &amp;" },"</f>
-        <v>{ "accountNumber": 816402439754, "submittedDateTime": 1662760549, "completedDateTime": 1662768000, "amount": 18.26, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1662713714, "completedDateTime": 1662768000, "amount": 18.26, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -10582,11 +10719,11 @@
       </c>
       <c r="G196" s="2" cm="1">
         <f t="array" aca="1" ref="G196" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>506647536492</v>
+        <v>920756712810</v>
       </c>
       <c r="H196">
         <f t="shared" ca="1" si="15"/>
-        <v>1663041018</v>
+        <v>1663096472</v>
       </c>
       <c r="I196">
         <f t="shared" si="16"/>
@@ -10602,7 +10739,7 @@
       </c>
       <c r="L196" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 506647536492, "submittedDateTime": 1663041018, "completedDateTime": 1663113600, "amount": 45.67, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1663096472, "completedDateTime": 1663113600, "amount": 45.67, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -10620,11 +10757,11 @@
       </c>
       <c r="G197" s="2" cm="1">
         <f t="array" aca="1" ref="G197" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>455902826381</v>
+        <v>796355214780</v>
       </c>
       <c r="H197">
         <f t="shared" ca="1" si="15"/>
-        <v>1663097393</v>
+        <v>1663078628</v>
       </c>
       <c r="I197">
         <f t="shared" si="16"/>
@@ -10640,7 +10777,7 @@
       </c>
       <c r="L197" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 455902826381, "submittedDateTime": 1663097393, "completedDateTime": 1663113600, "amount": 77.21, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1663078628, "completedDateTime": 1663113600, "amount": 77.21, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -10658,11 +10795,11 @@
       </c>
       <c r="G198" s="2" cm="1">
         <f t="array" aca="1" ref="G198" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>349083181548</v>
+        <v>463566446195</v>
       </c>
       <c r="H198">
         <f t="shared" ca="1" si="15"/>
-        <v>1663146878</v>
+        <v>1663140456</v>
       </c>
       <c r="I198">
         <f t="shared" si="16"/>
@@ -10678,7 +10815,7 @@
       </c>
       <c r="L198" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 349083181548, "submittedDateTime": 1663146878, "completedDateTime": 1663200000, "amount": 73.89, "memo": "TURO INC.* TRIP SEP 19 SAN FRANCISCO CA null XXXXXXXXXXXX2971" },</v>
+        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1663140456, "completedDateTime": 1663200000, "amount": 73.89, "memo": "TURO INC.* TRIP SEP 19 SAN FRANCISCO CA null XXXXXXXXXXXX2971" },</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -10696,11 +10833,11 @@
       </c>
       <c r="G199" s="2" cm="1">
         <f t="array" aca="1" ref="G199" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>3751589599326980</v>
       </c>
       <c r="H199">
         <f t="shared" ca="1" si="15"/>
-        <v>1663269786</v>
+        <v>1663238943</v>
       </c>
       <c r="I199">
         <f t="shared" si="16"/>
@@ -10716,7 +10853,7 @@
       </c>
       <c r="L199" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1663269786, "completedDateTime": 1663286400, "amount": 6.97, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1663238943, "completedDateTime": 1663286400, "amount": 6.97, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -10734,11 +10871,11 @@
       </c>
       <c r="G200" s="2" cm="1">
         <f t="array" aca="1" ref="G200" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>506647536492</v>
+        <v>9341099753883370</v>
       </c>
       <c r="H200">
         <f t="shared" ca="1" si="15"/>
-        <v>1663310370</v>
+        <v>1663289217</v>
       </c>
       <c r="I200">
         <f t="shared" si="16"/>
@@ -10754,7 +10891,7 @@
       </c>
       <c r="L200" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 506647536492, "submittedDateTime": 1663310370, "completedDateTime": 1663372800, "amount": 19.26, "memo": "SALT FORK STATE PARK G CAMBRIDGE OH" },</v>
+        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1663289217, "completedDateTime": 1663372800, "amount": 19.26, "memo": "SALT FORK STATE PARK G CAMBRIDGE OH" },</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -10772,11 +10909,11 @@
       </c>
       <c r="G201" s="2" cm="1">
         <f t="array" aca="1" ref="G201" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>740429843322</v>
+        <v>124896572843</v>
       </c>
       <c r="H201">
         <f t="shared" ca="1" si="15"/>
-        <v>1663322775</v>
+        <v>1663294137</v>
       </c>
       <c r="I201">
         <f t="shared" si="16"/>
@@ -10792,7 +10929,7 @@
       </c>
       <c r="L201" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 740429843322, "submittedDateTime": 1663322775, "completedDateTime": 1663372800, "amount": 20.52, "memo": "SALT FORK STATE PARK G CAMBRIDGE OH" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1663294137, "completedDateTime": 1663372800, "amount": 20.52, "memo": "SALT FORK STATE PARK G CAMBRIDGE OH" },</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -10810,11 +10947,11 @@
       </c>
       <c r="G202" s="2" cm="1">
         <f t="array" aca="1" ref="G202" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>7266005428392410</v>
+        <v>341796193771</v>
       </c>
       <c r="H202">
         <f t="shared" ca="1" si="15"/>
-        <v>1663597754</v>
+        <v>1663582365</v>
       </c>
       <c r="I202">
         <f t="shared" si="16"/>
@@ -10830,7 +10967,7 @@
       </c>
       <c r="L202" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 7266005428392410, "submittedDateTime": 1663597754, "completedDateTime": 1663632000, "amount": 39.19, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 341796193771, "submittedDateTime": 1663582365, "completedDateTime": 1663632000, "amount": 39.19, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -10848,11 +10985,11 @@
       </c>
       <c r="G203" s="2" cm="1">
         <f t="array" aca="1" ref="G203" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5747011025075570</v>
+        <v>201485841067</v>
       </c>
       <c r="H203">
         <f t="shared" ca="1" si="15"/>
-        <v>1663564233</v>
+        <v>1663604417</v>
       </c>
       <c r="I203">
         <f t="shared" si="16"/>
@@ -10868,7 +11005,7 @@
       </c>
       <c r="L203" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 5747011025075570, "submittedDateTime": 1663564233, "completedDateTime": 1663632000, "amount": 49.1, "memo": "SPEEDWAY 09576 CINCINN CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1663604417, "completedDateTime": 1663632000, "amount": 49.1, "memo": "SPEEDWAY 09576 CINCINN CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -10886,11 +11023,11 @@
       </c>
       <c r="G204" s="2" cm="1">
         <f t="array" aca="1" ref="G204" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>463566446195</v>
       </c>
       <c r="H204">
         <f t="shared" ca="1" si="15"/>
-        <v>1663565404</v>
+        <v>1663561460</v>
       </c>
       <c r="I204">
         <f t="shared" si="16"/>
@@ -10906,7 +11043,7 @@
       </c>
       <c r="L204" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1663565404, "completedDateTime": 1663632000, "amount": 44.9, "memo": "dbrand Order 6472053971 CAN" },</v>
+        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1663561460, "completedDateTime": 1663632000, "amount": 44.9, "memo": "dbrand Order 6472053971 CAN" },</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -10924,11 +11061,11 @@
       </c>
       <c r="G205" s="2" cm="1">
         <f t="array" aca="1" ref="G205" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>111079255746</v>
+        <v>6825686927341160</v>
       </c>
       <c r="H205">
         <f t="shared" ca="1" si="15"/>
-        <v>1663640623</v>
+        <v>1663656274</v>
       </c>
       <c r="I205">
         <f t="shared" si="16"/>
@@ -10944,7 +11081,7 @@
       </c>
       <c r="L205" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 111079255746, "submittedDateTime": 1663640623, "completedDateTime": 1663718400, "amount": 98.61, "memo": "HELLOFRESH 646-8463663 NY" },</v>
+        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1663656274, "completedDateTime": 1663718400, "amount": 98.61, "memo": "HELLOFRESH 646-8463663 NY" },</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -10962,11 +11099,11 @@
       </c>
       <c r="G206" s="2" cm="1">
         <f t="array" aca="1" ref="G206" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5759197398046990</v>
+        <v>917325385866</v>
       </c>
       <c r="H206">
         <f t="shared" ca="1" si="15"/>
-        <v>1663791548</v>
+        <v>1663748019</v>
       </c>
       <c r="I206">
         <f t="shared" si="16"/>
@@ -10982,7 +11119,7 @@
       </c>
       <c r="L206" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 5759197398046990, "submittedDateTime": 1663791548, "completedDateTime": 1663804800, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
+        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1663748019, "completedDateTime": 1663804800, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -11000,11 +11137,11 @@
       </c>
       <c r="G207" s="2" cm="1">
         <f t="array" aca="1" ref="G207" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>813848868789</v>
+        <v>201485841067</v>
       </c>
       <c r="H207">
         <f t="shared" ca="1" si="15"/>
-        <v>1663719872</v>
+        <v>1663768345</v>
       </c>
       <c r="I207">
         <f t="shared" si="16"/>
@@ -11020,7 +11157,7 @@
       </c>
       <c r="L207" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 813848868789, "submittedDateTime": 1663719872, "completedDateTime": 1663804800, "amount": -44.9, "memo": "dbrand Order 6472053971 CAN" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1663768345, "completedDateTime": 1663804800, "amount": -44.9, "memo": "dbrand Order 6472053971 CAN" },</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -11038,11 +11175,11 @@
       </c>
       <c r="G208" s="2" cm="1">
         <f t="array" aca="1" ref="G208" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>580874205377</v>
+        <v>697694136927</v>
       </c>
       <c r="H208">
         <f t="shared" ca="1" si="15"/>
-        <v>1663795444</v>
+        <v>1663721938</v>
       </c>
       <c r="I208">
         <f t="shared" si="16"/>
@@ -11058,7 +11195,7 @@
       </c>
       <c r="L208" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 580874205377, "submittedDateTime": 1663795444, "completedDateTime": 1663804800, "amount": 58.3, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1663721938, "completedDateTime": 1663804800, "amount": 58.3, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -11076,11 +11213,11 @@
       </c>
       <c r="G209" s="2" cm="1">
         <f t="array" aca="1" ref="G209" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>816402439754</v>
+        <v>124896572843</v>
       </c>
       <c r="H209">
         <f t="shared" ca="1" si="15"/>
-        <v>1663756955</v>
+        <v>1663770529</v>
       </c>
       <c r="I209">
         <f t="shared" si="16"/>
@@ -11096,7 +11233,7 @@
       </c>
       <c r="L209" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 816402439754, "submittedDateTime": 1663756955, "completedDateTime": 1663804800, "amount": 36.9, "memo": "dbrand Order 6472053971 CAN" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1663770529, "completedDateTime": 1663804800, "amount": 36.9, "memo": "dbrand Order 6472053971 CAN" },</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -11114,11 +11251,11 @@
       </c>
       <c r="G210" s="2" cm="1">
         <f t="array" aca="1" ref="G210" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>374971930009</v>
+        <v>905851799456</v>
       </c>
       <c r="H210">
         <f t="shared" ca="1" si="15"/>
-        <v>1663990311</v>
+        <v>1664049131</v>
       </c>
       <c r="I210">
         <f t="shared" si="16"/>
@@ -11134,7 +11271,7 @@
       </c>
       <c r="L210" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 374971930009, "submittedDateTime": 1663990311, "completedDateTime": 1664064000, "amount": -36.9, "memo": "dbrand Order 6472053971 CAN" },</v>
+        <v>{ "accountNumber": 905851799456, "submittedDateTime": 1664049131, "completedDateTime": 1664064000, "amount": -36.9, "memo": "dbrand Order 6472053971 CAN" },</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -11152,11 +11289,11 @@
       </c>
       <c r="G211" s="2" cm="1">
         <f t="array" aca="1" ref="G211" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5747011025075570</v>
+        <v>392343538980</v>
       </c>
       <c r="H211">
         <f t="shared" ca="1" si="15"/>
-        <v>1664066561</v>
+        <v>1664129868</v>
       </c>
       <c r="I211">
         <f t="shared" si="16"/>
@@ -11172,7 +11309,7 @@
       </c>
       <c r="L211" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 5747011025075570, "submittedDateTime": 1664066561, "completedDateTime": 1664150400, "amount": -21.31, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1664129868, "completedDateTime": 1664150400, "amount": -21.31, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
@@ -11190,11 +11327,11 @@
       </c>
       <c r="G212" s="2" cm="1">
         <f t="array" aca="1" ref="G212" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>341796193771</v>
       </c>
       <c r="H212">
         <f t="shared" ca="1" si="15"/>
-        <v>1664068666</v>
+        <v>1664144764</v>
       </c>
       <c r="I212">
         <f t="shared" si="16"/>
@@ -11210,7 +11347,7 @@
       </c>
       <c r="L212" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1664068666, "completedDateTime": 1664150400, "amount": -21.53, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 341796193771, "submittedDateTime": 1664144764, "completedDateTime": 1664150400, "amount": -21.53, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -11228,11 +11365,11 @@
       </c>
       <c r="G213" s="2" cm="1">
         <f t="array" aca="1" ref="G213" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>341796193771</v>
       </c>
       <c r="H213">
         <f t="shared" ca="1" si="15"/>
-        <v>1664077510</v>
+        <v>1664070860</v>
       </c>
       <c r="I213">
         <f t="shared" si="16"/>
@@ -11248,7 +11385,7 @@
       </c>
       <c r="L213" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1664077510, "completedDateTime": 1664150400, "amount": 58.81, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 341796193771, "submittedDateTime": 1664070860, "completedDateTime": 1664150400, "amount": 58.81, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -11266,11 +11403,11 @@
       </c>
       <c r="G214" s="2" cm="1">
         <f t="array" aca="1" ref="G214" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>813848868789</v>
+        <v>6825686927341160</v>
       </c>
       <c r="H214">
         <f t="shared" ca="1" si="15"/>
-        <v>1664299289</v>
+        <v>1664299000</v>
       </c>
       <c r="I214">
         <f t="shared" si="16"/>
@@ -11286,7 +11423,7 @@
       </c>
       <c r="L214" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 813848868789, "submittedDateTime": 1664299289, "completedDateTime": 1664323200, "amount": 98.61, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1664299000, "completedDateTime": 1664323200, "amount": 98.61, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -11304,11 +11441,11 @@
       </c>
       <c r="G215" s="2" cm="1">
         <f t="array" aca="1" ref="G215" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>506647536492</v>
+        <v>201485841067</v>
       </c>
       <c r="H215">
         <f t="shared" ca="1" si="15"/>
-        <v>1664373920</v>
+        <v>1664343251</v>
       </c>
       <c r="I215">
         <f t="shared" si="16"/>
@@ -11324,7 +11461,7 @@
       </c>
       <c r="L215" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 506647536492, "submittedDateTime": 1664373920, "completedDateTime": 1664409600, "amount": -41, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1664343251, "completedDateTime": 1664409600, "amount": -41, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
@@ -11342,11 +11479,11 @@
       </c>
       <c r="G216" s="2" cm="1">
         <f t="array" aca="1" ref="G216" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>429797997019</v>
+        <v>920756712810</v>
       </c>
       <c r="H216">
         <f t="shared" ca="1" si="15"/>
-        <v>1664342264</v>
+        <v>1664358650</v>
       </c>
       <c r="I216">
         <f t="shared" si="16"/>
@@ -11362,7 +11499,7 @@
       </c>
       <c r="L216" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 429797997019, "submittedDateTime": 1664342264, "completedDateTime": 1664409600, "amount": 119, "memo": "CIRCUITBOARDREPAIR.NET MADISON WI" },</v>
+        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1664358650, "completedDateTime": 1664409600, "amount": 119, "memo": "CIRCUITBOARDREPAIR.NET MADISON WI" },</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -11380,11 +11517,11 @@
       </c>
       <c r="G217" s="2" cm="1">
         <f t="array" aca="1" ref="G217" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>319960975073</v>
+        <v>317595283947</v>
       </c>
       <c r="H217">
         <f t="shared" ca="1" si="15"/>
-        <v>1664443245</v>
+        <v>1664457073</v>
       </c>
       <c r="I217">
         <f t="shared" si="16"/>
@@ -11400,7 +11537,7 @@
       </c>
       <c r="L217" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 319960975073, "submittedDateTime": 1664443245, "completedDateTime": 1664496000, "amount": 7.34, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 317595283947, "submittedDateTime": 1664457073, "completedDateTime": 1664496000, "amount": 7.34, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -11418,11 +11555,11 @@
       </c>
       <c r="G218" s="2" cm="1">
         <f t="array" aca="1" ref="G218" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>333038768853</v>
+        <v>341796193771</v>
       </c>
       <c r="H218">
         <f t="shared" ca="1" si="15"/>
-        <v>1664638359</v>
+        <v>1664603875</v>
       </c>
       <c r="I218">
         <f t="shared" si="16"/>
@@ -11438,7 +11575,7 @@
       </c>
       <c r="L218" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 333038768853, "submittedDateTime": 1664638359, "completedDateTime": 1664668800, "amount": 223.66, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 341796193771, "submittedDateTime": 1664603875, "completedDateTime": 1664668800, "amount": 223.66, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -11456,11 +11593,11 @@
       </c>
       <c r="G219" s="2" cm="1">
         <f t="array" aca="1" ref="G219" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>740429843322</v>
+        <v>6825686927341160</v>
       </c>
       <c r="H219">
         <f t="shared" ca="1" si="15"/>
-        <v>1664910808</v>
+        <v>1664914496</v>
       </c>
       <c r="I219">
         <f t="shared" si="16"/>
@@ -11476,7 +11613,7 @@
       </c>
       <c r="L219" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 740429843322, "submittedDateTime": 1664910808, "completedDateTime": 1664928000, "amount": -83, "memo": "CIRCUITBOARDREPAIR.NET MADISON WI" },</v>
+        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1664914496, "completedDateTime": 1664928000, "amount": -83, "memo": "CIRCUITBOARDREPAIR.NET MADISON WI" },</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -11494,11 +11631,11 @@
       </c>
       <c r="G220" s="2" cm="1">
         <f t="array" aca="1" ref="G220" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>201485841067</v>
       </c>
       <c r="H220">
         <f t="shared" ca="1" si="15"/>
-        <v>1664898097</v>
+        <v>1664900332</v>
       </c>
       <c r="I220">
         <f t="shared" si="16"/>
@@ -11514,7 +11651,7 @@
       </c>
       <c r="L220" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1664898097, "completedDateTime": 1664928000, "amount": 98.61, "memo": "HELLOFRESH 3472000291 NY null XXXXXXXXXXXX0862" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1664900332, "completedDateTime": 1664928000, "amount": 98.61, "memo": "HELLOFRESH 3472000291 NY null XXXXXXXXXXXX0862" },</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -11532,11 +11669,11 @@
       </c>
       <c r="G221" s="2" cm="1">
         <f t="array" aca="1" ref="G221" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>374971930009</v>
+        <v>463566446195</v>
       </c>
       <c r="H221">
         <f t="shared" ca="1" si="15"/>
-        <v>1664979203</v>
+        <v>1664945385</v>
       </c>
       <c r="I221">
         <f t="shared" si="16"/>
@@ -11552,7 +11689,7 @@
       </c>
       <c r="L221" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 374971930009, "submittedDateTime": 1664979203, "completedDateTime": 1665014400, "amount": -129.67, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1664945385, "completedDateTime": 1665014400, "amount": -129.67, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -11570,11 +11707,11 @@
       </c>
       <c r="G222" s="2" cm="1">
         <f t="array" aca="1" ref="G222" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>455902826381</v>
+        <v>201485841067</v>
       </c>
       <c r="H222">
         <f t="shared" ca="1" si="15"/>
-        <v>1664938213</v>
+        <v>1665001995</v>
       </c>
       <c r="I222">
         <f t="shared" si="16"/>
@@ -11590,7 +11727,7 @@
       </c>
       <c r="L222" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 455902826381, "submittedDateTime": 1664938213, "completedDateTime": 1665014400, "amount": 12.99, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1665001995, "completedDateTime": 1665014400, "amount": 12.99, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -11608,11 +11745,11 @@
       </c>
       <c r="G223" s="2" cm="1">
         <f t="array" aca="1" ref="G223" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>448414866651</v>
       </c>
       <c r="H223">
         <f t="shared" ca="1" si="15"/>
-        <v>1664979962</v>
+        <v>1664971316</v>
       </c>
       <c r="I223">
         <f t="shared" si="16"/>
@@ -11628,7 +11765,7 @@
       </c>
       <c r="L223" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1664979962, "completedDateTime": 1665014400, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1664971316, "completedDateTime": 1665014400, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
@@ -11646,11 +11783,11 @@
       </c>
       <c r="G224" s="2" cm="1">
         <f t="array" aca="1" ref="G224" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>374971930009</v>
+        <v>451100491187</v>
       </c>
       <c r="H224">
         <f t="shared" ca="1" si="15"/>
-        <v>1664967859</v>
+        <v>1665008318</v>
       </c>
       <c r="I224">
         <f t="shared" si="16"/>
@@ -11666,7 +11803,7 @@
       </c>
       <c r="L224" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 374971930009, "submittedDateTime": 1664967859, "completedDateTime": 1665014400, "amount": 5.27, "memo": "MARATHON PETRO140699 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1665008318, "completedDateTime": 1665014400, "amount": 5.27, "memo": "MARATHON PETRO140699 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -11684,11 +11821,11 @@
       </c>
       <c r="G225" s="2" cm="1">
         <f t="array" aca="1" ref="G225" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>2135029359261110</v>
+        <v>880440266700</v>
       </c>
       <c r="H225">
         <f t="shared" ca="1" si="15"/>
-        <v>1665011902</v>
+        <v>1664968136</v>
       </c>
       <c r="I225">
         <f t="shared" si="16"/>
@@ -11704,7 +11841,7 @@
       </c>
       <c r="L225" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 2135029359261110, "submittedDateTime": 1665011902, "completedDateTime": 1665014400, "amount": 150, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1664968136, "completedDateTime": 1665014400, "amount": 150, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -11722,11 +11859,11 @@
       </c>
       <c r="G226" s="2" cm="1">
         <f t="array" aca="1" ref="G226" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>448414866651</v>
       </c>
       <c r="H226">
         <f t="shared" ca="1" si="15"/>
-        <v>1665001718</v>
+        <v>1664954919</v>
       </c>
       <c r="I226">
         <f t="shared" si="16"/>
@@ -11742,7 +11879,7 @@
       </c>
       <c r="L226" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1665001718, "completedDateTime": 1665014400, "amount": 307.01, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1664954919, "completedDateTime": 1665014400, "amount": 307.01, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -11760,11 +11897,11 @@
       </c>
       <c r="G227" s="2" cm="1">
         <f t="array" aca="1" ref="G227" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>949180303947</v>
+        <v>796355214780</v>
       </c>
       <c r="H227">
         <f t="shared" ca="1" si="15"/>
-        <v>1664997649</v>
+        <v>1664966530</v>
       </c>
       <c r="I227">
         <f t="shared" si="16"/>
@@ -11780,7 +11917,7 @@
       </c>
       <c r="L227" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 949180303947, "submittedDateTime": 1664997649, "completedDateTime": 1665014400, "amount": 613.38, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1664966530, "completedDateTime": 1665014400, "amount": 613.38, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -11798,11 +11935,11 @@
       </c>
       <c r="G228" s="2" cm="1">
         <f t="array" aca="1" ref="G228" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5759197398046990</v>
+        <v>3751589599326980</v>
       </c>
       <c r="H228">
         <f t="shared" ca="1" si="15"/>
-        <v>1665094669</v>
+        <v>1665039402</v>
       </c>
       <c r="I228">
         <f t="shared" si="16"/>
@@ -11818,7 +11955,7 @@
       </c>
       <c r="L228" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 5759197398046990, "submittedDateTime": 1665094669, "completedDateTime": 1665100800, "amount": 34.27, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1665039402, "completedDateTime": 1665100800, "amount": 34.27, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -11836,11 +11973,11 @@
       </c>
       <c r="G229" s="2" cm="1">
         <f t="array" aca="1" ref="G229" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>740429843322</v>
+        <v>841242350153</v>
       </c>
       <c r="H229">
         <f t="shared" ca="1" si="15"/>
-        <v>1665206887</v>
+        <v>1665234916</v>
       </c>
       <c r="I229">
         <f t="shared" si="16"/>
@@ -11856,7 +11993,7 @@
       </c>
       <c r="L229" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 740429843322, "submittedDateTime": 1665206887, "completedDateTime": 1665273600, "amount": 50, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1665234916, "completedDateTime": 1665273600, "amount": 50, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -11874,11 +12011,11 @@
       </c>
       <c r="G230" s="2" cm="1">
         <f t="array" aca="1" ref="G230" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>506647536492</v>
+        <v>239639548370</v>
       </c>
       <c r="H230">
         <f t="shared" ca="1" si="15"/>
-        <v>1665474732</v>
+        <v>1665532679</v>
       </c>
       <c r="I230">
         <f t="shared" si="16"/>
@@ -11894,7 +12031,7 @@
       </c>
       <c r="L230" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 506647536492, "submittedDateTime": 1665474732, "completedDateTime": 1665532800, "amount": 107.78, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1665532679, "completedDateTime": 1665532800, "amount": 107.78, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -11912,11 +12049,11 @@
       </c>
       <c r="G231" s="2" cm="1">
         <f t="array" aca="1" ref="G231" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>526672870074</v>
+        <v>905851799456</v>
       </c>
       <c r="H231">
         <f t="shared" ca="1" si="15"/>
-        <v>1665484161</v>
+        <v>1665453830</v>
       </c>
       <c r="I231">
         <f t="shared" si="16"/>
@@ -11932,7 +12069,7 @@
       </c>
       <c r="L231" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 526672870074, "submittedDateTime": 1665484161, "completedDateTime": 1665532800, "amount": 119.38, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 905851799456, "submittedDateTime": 1665453830, "completedDateTime": 1665532800, "amount": 119.38, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -11950,11 +12087,11 @@
       </c>
       <c r="G232" s="2" cm="1">
         <f t="array" aca="1" ref="G232" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5747011025075570</v>
+        <v>639474417673</v>
       </c>
       <c r="H232">
         <f t="shared" ca="1" si="15"/>
-        <v>1665534316</v>
+        <v>1665565781</v>
       </c>
       <c r="I232">
         <f t="shared" si="16"/>
@@ -11970,7 +12107,7 @@
       </c>
       <c r="L232" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 5747011025075570, "submittedDateTime": 1665534316, "completedDateTime": 1665619200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 639474417673, "submittedDateTime": 1665565781, "completedDateTime": 1665619200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -11988,11 +12125,11 @@
       </c>
       <c r="G233" s="2" cm="1">
         <f t="array" aca="1" ref="G233" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>681157426689</v>
+        <v>201485841067</v>
       </c>
       <c r="H233">
         <f t="shared" ca="1" si="15"/>
-        <v>1665680600</v>
+        <v>1665702668</v>
       </c>
       <c r="I233">
         <f t="shared" si="16"/>
@@ -12008,7 +12145,7 @@
       </c>
       <c r="L233" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 681157426689, "submittedDateTime": 1665680600, "completedDateTime": 1665705600, "amount": 50.84, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1665702668, "completedDateTime": 1665705600, "amount": 50.84, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -12026,11 +12163,11 @@
       </c>
       <c r="G234" s="2" cm="1">
         <f t="array" aca="1" ref="G234" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>702342041804</v>
+        <v>697694136927</v>
       </c>
       <c r="H234">
         <f t="shared" ca="1" si="15"/>
-        <v>1665779754</v>
+        <v>1665775696</v>
       </c>
       <c r="I234">
         <f t="shared" si="16"/>
@@ -12046,7 +12183,7 @@
       </c>
       <c r="L234" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 702342041804, "submittedDateTime": 1665779754, "completedDateTime": 1665792000, "amount": -2197.87, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1665775696, "completedDateTime": 1665792000, "amount": -2197.87, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -12064,11 +12201,11 @@
       </c>
       <c r="G235" s="2" cm="1">
         <f t="array" aca="1" ref="G235" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>9341099753883370</v>
       </c>
       <c r="H235">
         <f t="shared" ca="1" si="15"/>
-        <v>1666088362</v>
+        <v>1666103004</v>
       </c>
       <c r="I235">
         <f t="shared" si="16"/>
@@ -12084,7 +12221,7 @@
       </c>
       <c r="L235" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1666088362, "completedDateTime": 1666137600, "amount": 4.98, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1666103004, "completedDateTime": 1666137600, "amount": 4.98, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -12102,11 +12239,11 @@
       </c>
       <c r="G236" s="2" cm="1">
         <f t="array" aca="1" ref="G236" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>880440266700</v>
       </c>
       <c r="H236">
         <f t="shared" ca="1" si="15"/>
-        <v>1666064658</v>
+        <v>1666116810</v>
       </c>
       <c r="I236">
         <f t="shared" si="16"/>
@@ -12122,7 +12259,7 @@
       </c>
       <c r="L236" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1666064658, "completedDateTime": 1666137600, "amount": 100.87, "memo": "HELLOFRESH 3472000291 NY null XXXXXXXXXXXX0862" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1666116810, "completedDateTime": 1666137600, "amount": 100.87, "memo": "HELLOFRESH 3472000291 NY null XXXXXXXXXXXX0862" },</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -12140,11 +12277,11 @@
       </c>
       <c r="G237" s="2" cm="1">
         <f t="array" aca="1" ref="G237" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>124896572843</v>
       </c>
       <c r="H237">
         <f t="shared" ca="1" si="15"/>
-        <v>1666193328</v>
+        <v>1666179569</v>
       </c>
       <c r="I237">
         <f t="shared" si="16"/>
@@ -12160,7 +12297,7 @@
       </c>
       <c r="L237" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1666193328, "completedDateTime": 1666224000, "amount": 10, "memo": "SQ *WILD SIDE EXPERIEN Burlington KY" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1666179569, "completedDateTime": 1666224000, "amount": 10, "memo": "SQ *WILD SIDE EXPERIEN Burlington KY" },</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
@@ -12178,11 +12315,11 @@
       </c>
       <c r="G238" s="2" cm="1">
         <f t="array" aca="1" ref="G238" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>349083181548</v>
+        <v>345064774916</v>
       </c>
       <c r="H238">
         <f t="shared" ca="1" si="15"/>
-        <v>1666316527</v>
+        <v>1666370936</v>
       </c>
       <c r="I238">
         <f t="shared" si="16"/>
@@ -12198,7 +12335,7 @@
       </c>
       <c r="L238" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 349083181548, "submittedDateTime": 1666316527, "completedDateTime": 1666396800, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
+        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1666370936, "completedDateTime": 1666396800, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -12216,11 +12353,11 @@
       </c>
       <c r="G239" s="2" cm="1">
         <f t="array" aca="1" ref="G239" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>345064774916</v>
       </c>
       <c r="H239">
         <f t="shared" ca="1" si="15"/>
-        <v>1666326490</v>
+        <v>1666383774</v>
       </c>
       <c r="I239">
         <f t="shared" si="16"/>
@@ -12236,7 +12373,7 @@
       </c>
       <c r="L239" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1666326490, "completedDateTime": 1666396800, "amount": -879.24, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1666383774, "completedDateTime": 1666396800, "amount": -879.24, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
@@ -12254,11 +12391,11 @@
       </c>
       <c r="G240" s="2" cm="1">
         <f t="array" aca="1" ref="G240" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>429797997019</v>
+        <v>9960815475030200</v>
       </c>
       <c r="H240">
         <f t="shared" ca="1" si="15"/>
-        <v>1666374416</v>
+        <v>1666322262</v>
       </c>
       <c r="I240">
         <f t="shared" si="16"/>
@@ -12274,7 +12411,7 @@
       </c>
       <c r="L240" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 429797997019, "submittedDateTime": 1666374416, "completedDateTime": 1666396800, "amount": -70.03, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1666322262, "completedDateTime": 1666396800, "amount": -70.03, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
@@ -12292,11 +12429,11 @@
       </c>
       <c r="G241" s="2" cm="1">
         <f t="array" aca="1" ref="G241" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5747011025075570</v>
+        <v>124896572843</v>
       </c>
       <c r="H241">
         <f t="shared" ca="1" si="15"/>
-        <v>1666544953</v>
+        <v>1666498735</v>
       </c>
       <c r="I241">
         <f t="shared" si="16"/>
@@ -12312,7 +12449,7 @@
       </c>
       <c r="L241" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 5747011025075570, "submittedDateTime": 1666544953, "completedDateTime": 1666569600, "amount": 17.52, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1666498735, "completedDateTime": 1666569600, "amount": 17.52, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA" },</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -12330,11 +12467,11 @@
       </c>
       <c r="G242" s="2" cm="1">
         <f t="array" aca="1" ref="G242" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>580874205377</v>
+        <v>796355214780</v>
       </c>
       <c r="H242">
         <f t="shared" ca="1" si="15"/>
-        <v>1666732351</v>
+        <v>1666695271</v>
       </c>
       <c r="I242">
         <f t="shared" si="16"/>
@@ -12350,7 +12487,7 @@
       </c>
       <c r="L242" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 580874205377, "submittedDateTime": 1666732351, "completedDateTime": 1666742400, "amount": 72.93, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1666695271, "completedDateTime": 1666742400, "amount": 72.93, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -12368,11 +12505,11 @@
       </c>
       <c r="G243" s="2" cm="1">
         <f t="array" aca="1" ref="G243" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>501013603819</v>
+        <v>463566446195</v>
       </c>
       <c r="H243">
         <f t="shared" ca="1" si="15"/>
-        <v>1667074710</v>
+        <v>1667013320</v>
       </c>
       <c r="I243">
         <f t="shared" si="16"/>
@@ -12388,7 +12525,7 @@
       </c>
       <c r="L243" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 501013603819, "submittedDateTime": 1667074710, "completedDateTime": 1667088000, "amount": 211.3, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1667013320, "completedDateTime": 1667088000, "amount": 211.3, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -12406,11 +12543,11 @@
       </c>
       <c r="G244" s="2" cm="1">
         <f t="array" aca="1" ref="G244" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>908799996285</v>
+        <v>6825686927341160</v>
       </c>
       <c r="H244">
         <f t="shared" ca="1" si="15"/>
-        <v>1667257305</v>
+        <v>1667254138</v>
       </c>
       <c r="I244">
         <f t="shared" si="16"/>
@@ -12426,7 +12563,7 @@
       </c>
       <c r="L244" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 908799996285, "submittedDateTime": 1667257305, "completedDateTime": 1667260800, "amount": -41, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1667254138, "completedDateTime": 1667260800, "amount": -41, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -12444,11 +12581,11 @@
       </c>
       <c r="G245" s="2" cm="1">
         <f t="array" aca="1" ref="G245" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>333038768853</v>
+        <v>880440266700</v>
       </c>
       <c r="H245">
         <f t="shared" ca="1" si="15"/>
-        <v>1667523166</v>
+        <v>1667546867</v>
       </c>
       <c r="I245">
         <f t="shared" si="16"/>
@@ -12464,7 +12601,7 @@
       </c>
       <c r="L245" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 333038768853, "submittedDateTime": 1667523166, "completedDateTime": 1667606400, "amount": 65.91, "memo": "ALTAFIBER CINBELL EPAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1667546867, "completedDateTime": 1667606400, "amount": 65.91, "memo": "ALTAFIBER CINBELL EPAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -12482,11 +12619,11 @@
       </c>
       <c r="G246" s="2" cm="1">
         <f t="array" aca="1" ref="G246" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>918003817933</v>
+        <v>880440266700</v>
       </c>
       <c r="H246">
         <f t="shared" ca="1" si="15"/>
-        <v>1667535275</v>
+        <v>1667588844</v>
       </c>
       <c r="I246">
         <f t="shared" si="16"/>
@@ -12502,7 +12639,7 @@
       </c>
       <c r="L246" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 918003817933, "submittedDateTime": 1667535275, "completedDateTime": 1667606400, "amount": 11.25, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA null XXXXXXXXXXXX5584" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1667588844, "completedDateTime": 1667606400, "amount": 11.25, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA null XXXXXXXXXXXX5584" },</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -12520,11 +12657,11 @@
       </c>
       <c r="G247" s="2" cm="1">
         <f t="array" aca="1" ref="G247" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>932085600435</v>
+        <v>317595283947</v>
       </c>
       <c r="H247">
         <f t="shared" ca="1" si="15"/>
-        <v>1667644067</v>
+        <v>1667611488</v>
       </c>
       <c r="I247">
         <f t="shared" si="16"/>
@@ -12540,7 +12677,7 @@
       </c>
       <c r="L247" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 932085600435, "submittedDateTime": 1667644067, "completedDateTime": 1667692800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 317595283947, "submittedDateTime": 1667611488, "completedDateTime": 1667692800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -12558,11 +12695,11 @@
       </c>
       <c r="G248" s="2" cm="1">
         <f t="array" aca="1" ref="G248" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>2135029359261110</v>
+        <v>796355214780</v>
       </c>
       <c r="H248">
         <f t="shared" ca="1" si="15"/>
-        <v>1667744489</v>
+        <v>1667729952</v>
       </c>
       <c r="I248">
         <f t="shared" si="16"/>
@@ -12578,7 +12715,7 @@
       </c>
       <c r="L248" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 2135029359261110, "submittedDateTime": 1667744489, "completedDateTime": 1667779200, "amount": 67.05, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1667729952, "completedDateTime": 1667779200, "amount": 67.05, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -12596,11 +12733,11 @@
       </c>
       <c r="G249" s="2" cm="1">
         <f t="array" aca="1" ref="G249" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>738295537013</v>
       </c>
       <c r="H249">
         <f t="shared" ca="1" si="15"/>
-        <v>1667754644</v>
+        <v>1667695678</v>
       </c>
       <c r="I249">
         <f t="shared" si="16"/>
@@ -12616,7 +12753,7 @@
       </c>
       <c r="L249" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1667754644, "completedDateTime": 1667779200, "amount": 17.75, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1667695678, "completedDateTime": 1667779200, "amount": 17.75, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -12634,11 +12771,11 @@
       </c>
       <c r="G250" s="2" cm="1">
         <f t="array" aca="1" ref="G250" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>493785208084</v>
+        <v>201485841067</v>
       </c>
       <c r="H250">
         <f t="shared" ca="1" si="15"/>
-        <v>1667923263</v>
+        <v>1667899579</v>
       </c>
       <c r="I250">
         <f t="shared" si="16"/>
@@ -12654,7 +12791,7 @@
       </c>
       <c r="L250" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 493785208084, "submittedDateTime": 1667923263, "completedDateTime": 1667952000, "amount": 50, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1667899579, "completedDateTime": 1667952000, "amount": 50, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -12672,11 +12809,11 @@
       </c>
       <c r="G251" s="2" cm="1">
         <f t="array" aca="1" ref="G251" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>451100491187</v>
       </c>
       <c r="H251">
         <f t="shared" ca="1" si="15"/>
-        <v>1667870087</v>
+        <v>1667876236</v>
       </c>
       <c r="I251">
         <f t="shared" si="16"/>
@@ -12692,7 +12829,7 @@
       </c>
       <c r="L251" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1667870087, "completedDateTime": 1667952000, "amount": 4.99, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1667876236, "completedDateTime": 1667952000, "amount": 4.99, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -12710,11 +12847,11 @@
       </c>
       <c r="G252" s="2" cm="1">
         <f t="array" aca="1" ref="G252" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>949180303947</v>
+        <v>147583745557</v>
       </c>
       <c r="H252">
         <f t="shared" ca="1" si="15"/>
-        <v>1667907527</v>
+        <v>1667921144</v>
       </c>
       <c r="I252">
         <f t="shared" si="16"/>
@@ -12730,7 +12867,7 @@
       </c>
       <c r="L252" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 949180303947, "submittedDateTime": 1667907527, "completedDateTime": 1667952000, "amount": 96.89, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1667921144, "completedDateTime": 1667952000, "amount": 96.89, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -12748,11 +12885,11 @@
       </c>
       <c r="G253" s="2" cm="1">
         <f t="array" aca="1" ref="G253" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>9960815475030200</v>
       </c>
       <c r="H253">
         <f t="shared" ca="1" si="15"/>
-        <v>1667973982</v>
+        <v>1668033156</v>
       </c>
       <c r="I253">
         <f t="shared" si="16"/>
@@ -12768,7 +12905,7 @@
       </c>
       <c r="L253" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1667973982, "completedDateTime": 1668038400, "amount": 11.5, "memo": "SQ *WILD SIDE EXPERIEN Burlington KY" },</v>
+        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1668033156, "completedDateTime": 1668038400, "amount": 11.5, "memo": "SQ *WILD SIDE EXPERIEN Burlington KY" },</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -12786,11 +12923,11 @@
       </c>
       <c r="G254" s="2" cm="1">
         <f t="array" aca="1" ref="G254" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>392343538980</v>
       </c>
       <c r="H254">
         <f t="shared" ca="1" si="15"/>
-        <v>1668057362</v>
+        <v>1668044973</v>
       </c>
       <c r="I254">
         <f t="shared" si="16"/>
@@ -12806,7 +12943,7 @@
       </c>
       <c r="L254" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1668057362, "completedDateTime": 1668124800, "amount": -1237.89, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1668044973, "completedDateTime": 1668124800, "amount": -1237.89, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -12824,11 +12961,11 @@
       </c>
       <c r="G255" s="2" cm="1">
         <f t="array" aca="1" ref="G255" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>374971930009</v>
+        <v>880440266700</v>
       </c>
       <c r="H255">
         <f t="shared" ca="1" si="15"/>
-        <v>1668101496</v>
+        <v>1668098966</v>
       </c>
       <c r="I255">
         <f t="shared" si="16"/>
@@ -12844,7 +12981,7 @@
       </c>
       <c r="L255" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 374971930009, "submittedDateTime": 1668101496, "completedDateTime": 1668124800, "amount": 21.6, "memo": "CHUY'S 039 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1668098966, "completedDateTime": 1668124800, "amount": 21.6, "memo": "CHUY'S 039 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -12862,11 +12999,11 @@
       </c>
       <c r="G256" s="2" cm="1">
         <f t="array" aca="1" ref="G256" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>702342041804</v>
+        <v>905851799456</v>
       </c>
       <c r="H256">
         <f t="shared" ca="1" si="15"/>
-        <v>1668186226</v>
+        <v>1668190723</v>
       </c>
       <c r="I256">
         <f t="shared" si="16"/>
@@ -12882,7 +13019,7 @@
       </c>
       <c r="L256" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 702342041804, "submittedDateTime": 1668186226, "completedDateTime": 1668211200, "amount": 75.44, "memo": "PLAYSTATION NETWORK 800-345-7669 CA" },</v>
+        <v>{ "accountNumber": 905851799456, "submittedDateTime": 1668190723, "completedDateTime": 1668211200, "amount": 75.44, "memo": "PLAYSTATION NETWORK 800-345-7669 CA" },</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -12900,11 +13037,11 @@
       </c>
       <c r="G257" s="2" cm="1">
         <f t="array" aca="1" ref="G257" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>694349861422</v>
+        <v>239639548370</v>
       </c>
       <c r="H257">
         <f t="shared" ca="1" si="15"/>
-        <v>1668314089</v>
+        <v>1668339028</v>
       </c>
       <c r="I257">
         <f t="shared" si="16"/>
@@ -12920,7 +13057,7 @@
       </c>
       <c r="L257" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 694349861422, "submittedDateTime": 1668314089, "completedDateTime": 1668384000, "amount": 66.67, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1668339028, "completedDateTime": 1668384000, "amount": 66.67, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -12938,11 +13075,11 @@
       </c>
       <c r="G258" s="2" cm="1">
         <f t="array" aca="1" ref="G258" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>455902826381</v>
+        <v>983493971351</v>
       </c>
       <c r="H258">
         <f t="shared" ca="1" si="15"/>
-        <v>1668538158</v>
+        <v>1668550305</v>
       </c>
       <c r="I258">
         <f t="shared" si="16"/>
@@ -12958,7 +13095,7 @@
       </c>
       <c r="L258" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 455902826381, "submittedDateTime": 1668538158, "completedDateTime": 1668556800, "amount": 94.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 983493971351, "submittedDateTime": 1668550305, "completedDateTime": 1668556800, "amount": 94.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -12976,11 +13113,11 @@
       </c>
       <c r="G259" s="2" cm="1">
         <f t="array" aca="1" ref="G259" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>111079255746</v>
+        <v>891594573965</v>
       </c>
       <c r="H259">
         <f t="shared" ref="H259:H281" ca="1" si="20">_xlfn.FLOOR.MATH((B259-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1668528413</v>
+        <v>1668516602</v>
       </c>
       <c r="I259">
         <f t="shared" ref="I259:I281" si="21">_xlfn.FLOOR.MATH((B259-DATE(1970,1,1)+1)*86400)</f>
@@ -12996,7 +13133,7 @@
       </c>
       <c r="L259" t="str">
         <f t="shared" ref="L259:L281" ca="1" si="24">"{ "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G259&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H259&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I259&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J259&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K259&amp;CHAR(34) &amp;" },"</f>
-        <v>{ "accountNumber": 111079255746, "submittedDateTime": 1668528413, "completedDateTime": 1668556800, "amount": 5.63, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 891594573965, "submittedDateTime": 1668516602, "completedDateTime": 1668556800, "amount": 5.63, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -13014,11 +13151,11 @@
       </c>
       <c r="G260" s="2" cm="1">
         <f t="array" aca="1" ref="G260" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>580874205377</v>
+        <v>920756712810</v>
       </c>
       <c r="H260">
         <f t="shared" ca="1" si="20"/>
-        <v>1668538889</v>
+        <v>1668506893</v>
       </c>
       <c r="I260">
         <f t="shared" si="21"/>
@@ -13034,7 +13171,7 @@
       </c>
       <c r="L260" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 580874205377, "submittedDateTime": 1668538889, "completedDateTime": 1668556800, "amount": 25.79, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1668506893, "completedDateTime": 1668556800, "amount": 25.79, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -13052,11 +13189,11 @@
       </c>
       <c r="G261" s="2" cm="1">
         <f t="array" aca="1" ref="G261" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>845866412554</v>
+        <v>738295537013</v>
       </c>
       <c r="H261">
         <f t="shared" ca="1" si="20"/>
-        <v>1669362615</v>
+        <v>1669401662</v>
       </c>
       <c r="I261">
         <f t="shared" si="21"/>
@@ -13072,7 +13209,7 @@
       </c>
       <c r="L261" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 845866412554, "submittedDateTime": 1669362615, "completedDateTime": 1669420800, "amount": 13, "memo": "CINCINNATI ZOO ONLINE 5132814700 OH" },</v>
+        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1669401662, "completedDateTime": 1669420800, "amount": 13, "memo": "CINCINNATI ZOO ONLINE 5132814700 OH" },</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -13090,11 +13227,11 @@
       </c>
       <c r="G262" s="2" cm="1">
         <f t="array" aca="1" ref="G262" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>918003817933</v>
+        <v>983493971351</v>
       </c>
       <c r="H262">
         <f t="shared" ca="1" si="20"/>
-        <v>1669395517</v>
+        <v>1669372585</v>
       </c>
       <c r="I262">
         <f t="shared" si="21"/>
@@ -13110,7 +13247,7 @@
       </c>
       <c r="L262" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 918003817933, "submittedDateTime": 1669395517, "completedDateTime": 1669420800, "amount": 50.58, "memo": "THE PUB AT ROOKWOOD CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 983493971351, "submittedDateTime": 1669372585, "completedDateTime": 1669420800, "amount": 50.58, "memo": "THE PUB AT ROOKWOOD CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -13128,11 +13265,11 @@
       </c>
       <c r="G263" s="2" cm="1">
         <f t="array" aca="1" ref="G263" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>429797997019</v>
+        <v>880440266700</v>
       </c>
       <c r="H263">
         <f t="shared" ca="1" si="20"/>
-        <v>1669464943</v>
+        <v>1669468063</v>
       </c>
       <c r="I263">
         <f t="shared" si="21"/>
@@ -13148,7 +13285,7 @@
       </c>
       <c r="L263" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 429797997019, "submittedDateTime": 1669464943, "completedDateTime": 1669507200, "amount": 12.99, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1669468063, "completedDateTime": 1669507200, "amount": 12.99, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -13166,11 +13303,11 @@
       </c>
       <c r="G264" s="2" cm="1">
         <f t="array" aca="1" ref="G264" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>4602529412478380</v>
+        <v>891594573965</v>
       </c>
       <c r="H264">
         <f t="shared" ca="1" si="20"/>
-        <v>1669719585</v>
+        <v>1669730672</v>
       </c>
       <c r="I264">
         <f t="shared" si="21"/>
@@ -13186,7 +13323,7 @@
       </c>
       <c r="L264" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 4602529412478380, "submittedDateTime": 1669719585, "completedDateTime": 1669766400, "amount": 9, "memo": "SQ *BAM BAM'S Erlanger KY" },</v>
+        <v>{ "accountNumber": 891594573965, "submittedDateTime": 1669730672, "completedDateTime": 1669766400, "amount": 9, "memo": "SQ *BAM BAM'S Erlanger KY" },</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -13204,11 +13341,11 @@
       </c>
       <c r="G265" s="2" cm="1">
         <f t="array" aca="1" ref="G265" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>201485841067</v>
       </c>
       <c r="H265">
         <f t="shared" ca="1" si="20"/>
-        <v>1669729136</v>
+        <v>1669681571</v>
       </c>
       <c r="I265">
         <f t="shared" si="21"/>
@@ -13224,7 +13361,7 @@
       </c>
       <c r="L265" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1669729136, "completedDateTime": 1669766400, "amount": 11, "memo": "SQ *BAM BAM'S Erlanger KY" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1669681571, "completedDateTime": 1669766400, "amount": 11, "memo": "SQ *BAM BAM'S Erlanger KY" },</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -13242,11 +13379,11 @@
       </c>
       <c r="G266" s="2" cm="1">
         <f t="array" aca="1" ref="G266" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>493785208084</v>
+        <v>841242350153</v>
       </c>
       <c r="H266">
         <f t="shared" ca="1" si="20"/>
-        <v>1669750835</v>
+        <v>1669702557</v>
       </c>
       <c r="I266">
         <f t="shared" si="21"/>
@@ -13262,7 +13399,7 @@
       </c>
       <c r="L266" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 493785208084, "submittedDateTime": 1669750835, "completedDateTime": 1669766400, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1669702557, "completedDateTime": 1669766400, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -13280,11 +13417,11 @@
       </c>
       <c r="G267" s="2" cm="1">
         <f t="array" aca="1" ref="G267" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>231593545287</v>
+        <v>697694136927</v>
       </c>
       <c r="H267">
         <f t="shared" ca="1" si="20"/>
-        <v>1669805767</v>
+        <v>1669837494</v>
       </c>
       <c r="I267">
         <f t="shared" si="21"/>
@@ -13300,7 +13437,7 @@
       </c>
       <c r="L267" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 231593545287, "submittedDateTime": 1669805767, "completedDateTime": 1669852800, "amount": 5.51, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" },</v>
+        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1669837494, "completedDateTime": 1669852800, "amount": 5.51, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" },</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -13318,11 +13455,11 @@
       </c>
       <c r="G268" s="2" cm="1">
         <f t="array" aca="1" ref="G268" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>506647536492</v>
+        <v>463566446195</v>
       </c>
       <c r="H268">
         <f t="shared" ca="1" si="20"/>
-        <v>1669806916</v>
+        <v>1669812116</v>
       </c>
       <c r="I268">
         <f t="shared" si="21"/>
@@ -13338,7 +13475,7 @@
       </c>
       <c r="L268" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 506647536492, "submittedDateTime": 1669806916, "completedDateTime": 1669852800, "amount": 220.48, "memo": "CITY OF NORWOOD 513-458-4500 OH" },</v>
+        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1669812116, "completedDateTime": 1669852800, "amount": 220.48, "memo": "CITY OF NORWOOD 513-458-4500 OH" },</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -13356,11 +13493,11 @@
       </c>
       <c r="G269" s="2" cm="1">
         <f t="array" aca="1" ref="G269" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>239639548370</v>
       </c>
       <c r="H269">
         <f t="shared" ca="1" si="20"/>
-        <v>1669820739</v>
+        <v>1669768921</v>
       </c>
       <c r="I269">
         <f t="shared" si="21"/>
@@ -13376,7 +13513,7 @@
       </c>
       <c r="L269" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1669820739, "completedDateTime": 1669852800, "amount": 300.28, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1669768921, "completedDateTime": 1669852800, "amount": 300.28, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -13394,11 +13531,11 @@
       </c>
       <c r="G270" s="2" cm="1">
         <f t="array" aca="1" ref="G270" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>5747011025075570</v>
+        <v>6825686927341160</v>
       </c>
       <c r="H270">
         <f t="shared" ca="1" si="20"/>
-        <v>1670193367</v>
+        <v>1670158119</v>
       </c>
       <c r="I270">
         <f t="shared" si="21"/>
@@ -13414,7 +13551,7 @@
       </c>
       <c r="L270" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 5747011025075570, "submittedDateTime": 1670193367, "completedDateTime": 1670198400, "amount": 21.56, "memo": "SQ *QUEEN CITY NOVELTY Cincinnati OH" },</v>
+        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1670158119, "completedDateTime": 1670198400, "amount": 21.56, "memo": "SQ *QUEEN CITY NOVELTY Cincinnati OH" },</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -13432,11 +13569,11 @@
       </c>
       <c r="G271" s="2" cm="1">
         <f t="array" aca="1" ref="G271" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>659761461638</v>
+        <v>199201767490</v>
       </c>
       <c r="H271">
         <f t="shared" ca="1" si="20"/>
-        <v>1670118408</v>
+        <v>1670184071</v>
       </c>
       <c r="I271">
         <f t="shared" si="21"/>
@@ -13452,7 +13589,7 @@
       </c>
       <c r="L271" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 659761461638, "submittedDateTime": 1670118408, "completedDateTime": 1670198400, "amount": 18.15, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 199201767490, "submittedDateTime": 1670184071, "completedDateTime": 1670198400, "amount": 18.15, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -13470,11 +13607,11 @@
       </c>
       <c r="G272" s="2" cm="1">
         <f t="array" aca="1" ref="G272" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>878290245627</v>
+        <v>697694136927</v>
       </c>
       <c r="H272">
         <f t="shared" ca="1" si="20"/>
-        <v>1670160334</v>
+        <v>1670125995</v>
       </c>
       <c r="I272">
         <f t="shared" si="21"/>
@@ -13490,7 +13627,7 @@
       </c>
       <c r="L272" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 878290245627, "submittedDateTime": 1670160334, "completedDateTime": 1670198400, "amount": 59.26, "memo": "SQ *DJC CONCESSIONS LL Cincinnati OH" },</v>
+        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1670125995, "completedDateTime": 1670198400, "amount": 59.26, "memo": "SQ *DJC CONCESSIONS LL Cincinnati OH" },</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -13508,11 +13645,11 @@
       </c>
       <c r="G273" s="2" cm="1">
         <f t="array" aca="1" ref="G273" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>2135029359261110</v>
+        <v>201485841067</v>
       </c>
       <c r="H273">
         <f t="shared" ca="1" si="20"/>
-        <v>1670266428</v>
+        <v>1670227982</v>
       </c>
       <c r="I273">
         <f t="shared" si="21"/>
@@ -13528,7 +13665,7 @@
       </c>
       <c r="L273" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 2135029359261110, "submittedDateTime": 1670266428, "completedDateTime": 1670284800, "amount": 10.25, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA null XXXXXXXXXXXX5584" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1670227982, "completedDateTime": 1670284800, "amount": 10.25, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA null XXXXXXXXXXXX5584" },</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -13546,11 +13683,11 @@
       </c>
       <c r="G274" s="2" cm="1">
         <f t="array" aca="1" ref="G274" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>694349861422</v>
+        <v>239639548370</v>
       </c>
       <c r="H274">
         <f t="shared" ca="1" si="20"/>
-        <v>1670199293</v>
+        <v>1670283505</v>
       </c>
       <c r="I274">
         <f t="shared" si="21"/>
@@ -13566,7 +13703,7 @@
       </c>
       <c r="L274" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 694349861422, "submittedDateTime": 1670199293, "completedDateTime": 1670284800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1670283505, "completedDateTime": 1670284800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -13584,11 +13721,11 @@
       </c>
       <c r="G275" s="2" cm="1">
         <f t="array" aca="1" ref="G275" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>349083181548</v>
+        <v>738295537013</v>
       </c>
       <c r="H275">
         <f t="shared" ca="1" si="20"/>
-        <v>1670337374</v>
+        <v>1670311232</v>
       </c>
       <c r="I275">
         <f t="shared" si="21"/>
@@ -13604,7 +13741,7 @@
       </c>
       <c r="L275" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 349083181548, "submittedDateTime": 1670337374, "completedDateTime": 1670371200, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1670311232, "completedDateTime": 1670371200, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -13622,11 +13759,11 @@
       </c>
       <c r="G276" s="2" cm="1">
         <f t="array" aca="1" ref="G276" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>740429843322</v>
+        <v>124896572843</v>
       </c>
       <c r="H276">
         <f t="shared" ca="1" si="20"/>
-        <v>1670529275</v>
+        <v>1670458686</v>
       </c>
       <c r="I276">
         <f t="shared" si="21"/>
@@ -13642,7 +13779,7 @@
       </c>
       <c r="L276" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 740429843322, "submittedDateTime": 1670529275, "completedDateTime": 1670544000, "amount": 50, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1670458686, "completedDateTime": 1670544000, "amount": 50, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -13660,11 +13797,11 @@
       </c>
       <c r="G277" s="2" cm="1">
         <f t="array" aca="1" ref="G277" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>319960975073</v>
+        <v>738295537013</v>
       </c>
       <c r="H277">
         <f t="shared" ca="1" si="20"/>
-        <v>1670630034</v>
+        <v>1670620208</v>
       </c>
       <c r="I277">
         <f t="shared" si="21"/>
@@ -13680,7 +13817,7 @@
       </c>
       <c r="L277" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 319960975073, "submittedDateTime": 1670630034, "completedDateTime": 1670630400, "amount": -912.5, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1670620208, "completedDateTime": 1670630400, "amount": -912.5, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -13698,11 +13835,11 @@
       </c>
       <c r="G278" s="2" cm="1">
         <f t="array" aca="1" ref="G278" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>4602529412478380</v>
+        <v>463566446195</v>
       </c>
       <c r="H278">
         <f t="shared" ca="1" si="20"/>
-        <v>1670801657</v>
+        <v>1670731945</v>
       </c>
       <c r="I278">
         <f t="shared" si="21"/>
@@ -13718,7 +13855,7 @@
       </c>
       <c r="L278" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 4602529412478380, "submittedDateTime": 1670801657, "completedDateTime": 1670803200, "amount": 11.98, "memo": "TACO BELL 32033 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1670731945, "completedDateTime": 1670803200, "amount": 11.98, "memo": "TACO BELL 32033 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -13736,11 +13873,11 @@
       </c>
       <c r="G279" s="2" cm="1">
         <f t="array" aca="1" ref="G279" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>816402439754</v>
+        <v>6825686927341160</v>
       </c>
       <c r="H279">
         <f t="shared" ca="1" si="20"/>
-        <v>1670782492</v>
+        <v>1670793982</v>
       </c>
       <c r="I279">
         <f t="shared" si="21"/>
@@ -13756,7 +13893,7 @@
       </c>
       <c r="L279" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 816402439754, "submittedDateTime": 1670782492, "completedDateTime": 1670803200, "amount": 36.78, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1670793982, "completedDateTime": 1670803200, "amount": 36.78, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -13774,11 +13911,11 @@
       </c>
       <c r="G280" s="2" cm="1">
         <f t="array" aca="1" ref="G280" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>2135029359261110</v>
+        <v>345064774916</v>
       </c>
       <c r="H280">
         <f t="shared" ca="1" si="20"/>
-        <v>1670914543</v>
+        <v>1670952657</v>
       </c>
       <c r="I280">
         <f t="shared" si="21"/>
@@ -13794,7 +13931,7 @@
       </c>
       <c r="L280" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 2135029359261110, "submittedDateTime": 1670914543, "completedDateTime": 1670976000, "amount": 72.51, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1670952657, "completedDateTime": 1670976000, "amount": 72.51, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -13812,11 +13949,11 @@
       </c>
       <c r="G281" s="2" cm="1">
         <f t="array" aca="1" ref="G281" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>443154468389</v>
+        <v>201485841067</v>
       </c>
       <c r="H281">
         <f t="shared" ca="1" si="20"/>
-        <v>1670928472</v>
+        <v>1670959410</v>
       </c>
       <c r="I281">
         <f t="shared" si="21"/>
@@ -13832,7 +13969,7 @@
       </c>
       <c r="L281" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 443154468389, "submittedDateTime": 1670928472, "completedDateTime": 1670976000, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1670959410, "completedDateTime": 1670976000, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
   </sheetData>
